--- a/Testing/Data/AprilTags/TagPositionCalculator.xlsx
+++ b/Testing/Data/AprilTags/TagPositionCalculator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14260" yWindow="620" windowWidth="25040" windowHeight="15740" tabRatio="500"/>
+    <workbookView xWindow="7560" yWindow="0" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,8 +109,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -155,7 +181,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -176,6 +202,19 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -196,6 +235,19 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -538,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -604,7 +656,7 @@
       </c>
       <c r="B6">
         <f>B1/B5</f>
-        <v>1.5105740181268883E-2</v>
+        <v>3.0211480362537764E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -613,11 +665,11 @@
       </c>
       <c r="B7">
         <f>B3*B6</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="C7">
         <f>C3*B6</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -626,11 +678,11 @@
       </c>
       <c r="B8">
         <f>(B3+B5)*B6</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="C8">
         <f>C7</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -639,11 +691,11 @@
       </c>
       <c r="B9">
         <f>B7</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="C9">
         <f>B8</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -652,11 +704,11 @@
       </c>
       <c r="B10">
         <f>B8</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="C10">
         <f>C9</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -665,11 +717,11 @@
       </c>
       <c r="B11">
         <f>(B3+B5/2)*B6</f>
-        <v>6.404833836858006</v>
+        <v>1.2809667673716012</v>
       </c>
       <c r="C11">
         <f>B11</f>
-        <v>6.404833836858006</v>
+        <v>1.2809667673716012</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -689,11 +741,11 @@
       </c>
       <c r="B14">
         <f>MOD(A14,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>6.404833836858006</v>
+        <v>1.2809667673716012</v>
       </c>
       <c r="C14">
         <f>QUOTIENT(A14,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>6.404833836858006</v>
+        <v>1.2809667673716012</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -706,11 +758,11 @@
       </c>
       <c r="B15">
         <f>MOD(A14,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="C15">
         <f>QUOTIENT(A14,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -723,11 +775,11 @@
       </c>
       <c r="B16">
         <f>MOD(A14,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="C16">
         <f>QUOTIENT(A14,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -735,16 +787,15 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <f>3000+A14</f>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="B17">
         <f>MOD(A14,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="C17">
         <f>QUOTIENT(A14,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -752,16 +803,15 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <f>4000+A14</f>
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="B18">
         <f>MOD(A14,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="C18">
         <f>QUOTIENT(A14,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -769,16 +819,16 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <f>A14+1</f>
+        <f t="shared" ref="A19:A82" si="0">A14+1</f>
         <v>1</v>
       </c>
       <c r="B19">
         <f>MOD(A19,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>19.214501510574017</v>
+        <v>3.8429003021148036</v>
       </c>
       <c r="C19">
         <f>QUOTIENT(A19,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>6.404833836858006</v>
+        <v>1.2809667673716012</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -786,16 +836,16 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <f>A15+1</f>
+        <f t="shared" si="0"/>
         <v>1001</v>
       </c>
       <c r="B20">
         <f>MOD(A19,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="C20">
         <f>QUOTIENT(A19,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -803,16 +853,16 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <f>A16+1</f>
+        <f t="shared" si="0"/>
         <v>2001</v>
       </c>
       <c r="B21">
         <f>MOD(A19,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="C21">
         <f>QUOTIENT(A19,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -820,16 +870,16 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <f>A17+1</f>
-        <v>3001</v>
+        <f t="shared" si="0"/>
+        <v>4001</v>
       </c>
       <c r="B22">
         <f>MOD(A19,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="C22">
         <f>QUOTIENT(A19,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -837,16 +887,16 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <f>A18+1</f>
-        <v>4001</v>
+        <f t="shared" si="0"/>
+        <v>3001</v>
       </c>
       <c r="B23">
         <f>MOD(A19,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="C23">
         <f>QUOTIENT(A19,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -854,16 +904,16 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <f>A19+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B24">
         <f>MOD(A24,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>32.024169184290031</v>
+        <v>6.404833836858006</v>
       </c>
       <c r="C24">
         <f>QUOTIENT(A24,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>6.404833836858006</v>
+        <v>1.2809667673716012</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -871,16 +921,16 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <f>A20+1</f>
+        <f t="shared" si="0"/>
         <v>1002</v>
       </c>
       <c r="B25">
         <f>MOD(A24,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="C25">
         <f>QUOTIENT(A24,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -888,16 +938,16 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <f>A21+1</f>
+        <f t="shared" si="0"/>
         <v>2002</v>
       </c>
       <c r="B26">
         <f>MOD(A24,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="C26">
         <f>QUOTIENT(A24,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -905,16 +955,16 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <f>A22+1</f>
-        <v>3002</v>
+        <f t="shared" si="0"/>
+        <v>4002</v>
       </c>
       <c r="B27">
         <f>MOD(A24,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="C27">
         <f>QUOTIENT(A24,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -922,16 +972,16 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <f>A23+1</f>
-        <v>4002</v>
+        <f t="shared" si="0"/>
+        <v>3002</v>
       </c>
       <c r="B28">
         <f>MOD(A24,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="C28">
         <f>QUOTIENT(A24,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -939,16 +989,16 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <f>A24+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B29">
         <f>MOD(A29,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>44.833836858006038</v>
+        <v>8.9667673716012075</v>
       </c>
       <c r="C29">
         <f>QUOTIENT(A29,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>6.404833836858006</v>
+        <v>1.2809667673716012</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -956,16 +1006,16 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <f>A25+1</f>
+        <f t="shared" si="0"/>
         <v>1003</v>
       </c>
       <c r="B30">
         <f>MOD(A29,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="C30">
         <f>QUOTIENT(A29,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -973,16 +1023,16 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <f>A26+1</f>
+        <f t="shared" si="0"/>
         <v>2003</v>
       </c>
       <c r="B31">
         <f>MOD(A29,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="C31">
         <f>QUOTIENT(A29,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -990,16 +1040,16 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <f>A27+1</f>
-        <v>3003</v>
+        <f t="shared" si="0"/>
+        <v>4003</v>
       </c>
       <c r="B32">
         <f>MOD(A29,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="C32">
         <f>QUOTIENT(A29,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1007,16 +1057,16 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <f>A28+1</f>
-        <v>4003</v>
+        <f t="shared" si="0"/>
+        <v>3003</v>
       </c>
       <c r="B33">
         <f>MOD(A29,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="C33">
         <f>QUOTIENT(A29,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1024,16 +1074,16 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <f>A29+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B34">
         <f>MOD(A34,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>57.643504531722051</v>
+        <v>11.528700906344412</v>
       </c>
       <c r="C34">
         <f>QUOTIENT(A34,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>6.404833836858006</v>
+        <v>1.2809667673716012</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1041,16 +1091,16 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <f>A30+1</f>
+        <f t="shared" si="0"/>
         <v>1004</v>
       </c>
       <c r="B35">
         <f>MOD(A34,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="C35">
         <f>QUOTIENT(A34,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1058,16 +1108,16 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <f>A31+1</f>
+        <f t="shared" si="0"/>
         <v>2004</v>
       </c>
       <c r="B36">
         <f>MOD(A34,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="C36">
         <f>QUOTIENT(A34,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1075,16 +1125,16 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <f>A32+1</f>
-        <v>3004</v>
+        <f t="shared" si="0"/>
+        <v>4004</v>
       </c>
       <c r="B37">
         <f>MOD(A34,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="C37">
         <f>QUOTIENT(A34,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1092,16 +1142,16 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <f>A33+1</f>
-        <v>4004</v>
+        <f t="shared" si="0"/>
+        <v>3004</v>
       </c>
       <c r="B38">
         <f>MOD(A34,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="C38">
         <f>QUOTIENT(A34,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1109,16 +1159,16 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <f>A34+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B39">
         <f>MOD(A39,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>70.453172205438065</v>
+        <v>14.090634441087612</v>
       </c>
       <c r="C39">
         <f>QUOTIENT(A39,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>6.404833836858006</v>
+        <v>1.2809667673716012</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1126,16 +1176,16 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <f>A35+1</f>
+        <f t="shared" si="0"/>
         <v>1005</v>
       </c>
       <c r="B40">
         <f>MOD(A39,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="C40">
         <f>QUOTIENT(A39,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1143,16 +1193,16 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <f>A36+1</f>
+        <f t="shared" si="0"/>
         <v>2005</v>
       </c>
       <c r="B41">
         <f>MOD(A39,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="C41">
         <f>QUOTIENT(A39,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1160,16 +1210,16 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <f>A37+1</f>
-        <v>3005</v>
+        <f t="shared" si="0"/>
+        <v>4005</v>
       </c>
       <c r="B42">
         <f>MOD(A39,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="C42">
         <f>QUOTIENT(A39,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1177,16 +1227,16 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <f>A38+1</f>
-        <v>4005</v>
+        <f t="shared" si="0"/>
+        <v>3005</v>
       </c>
       <c r="B43">
         <f>MOD(A39,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="C43">
         <f>QUOTIENT(A39,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1194,16 +1244,16 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <f>A39+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B44">
         <f>MOD(A44,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>83.262839879154072</v>
+        <v>16.652567975830816</v>
       </c>
       <c r="C44">
         <f>QUOTIENT(A44,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>6.404833836858006</v>
+        <v>1.2809667673716012</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1211,16 +1261,16 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <f>A40+1</f>
+        <f t="shared" si="0"/>
         <v>1006</v>
       </c>
       <c r="B45">
         <f>MOD(A44,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="C45">
         <f>QUOTIENT(A44,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1228,16 +1278,16 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <f>A41+1</f>
+        <f t="shared" si="0"/>
         <v>2006</v>
       </c>
       <c r="B46">
         <f>MOD(A44,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="C46">
         <f>QUOTIENT(A44,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1245,16 +1295,16 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <f>A42+1</f>
-        <v>3006</v>
+        <f t="shared" si="0"/>
+        <v>4006</v>
       </c>
       <c r="B47">
         <f>MOD(A44,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="C47">
         <f>QUOTIENT(A44,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1262,16 +1312,16 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <f>A43+1</f>
-        <v>4006</v>
+        <f t="shared" si="0"/>
+        <v>3006</v>
       </c>
       <c r="B48">
         <f>MOD(A44,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="C48">
         <f>QUOTIENT(A44,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1279,16 +1329,16 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <f>A44+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B49">
         <f>MOD(A49,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>96.072507552870093</v>
+        <v>19.214501510574017</v>
       </c>
       <c r="C49">
         <f>QUOTIENT(A49,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>6.404833836858006</v>
+        <v>1.2809667673716012</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1296,16 +1346,16 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <f>A45+1</f>
+        <f t="shared" si="0"/>
         <v>1007</v>
       </c>
       <c r="B50">
         <f>MOD(A49,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="C50">
         <f>QUOTIENT(A49,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1313,16 +1363,16 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <f>A46+1</f>
+        <f t="shared" si="0"/>
         <v>2007</v>
       </c>
       <c r="B51">
         <f>MOD(A49,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="C51">
         <f>QUOTIENT(A49,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1330,16 +1380,16 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <f>A47+1</f>
-        <v>3007</v>
+        <f t="shared" si="0"/>
+        <v>4007</v>
       </c>
       <c r="B52">
         <f>MOD(A49,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="C52">
         <f>QUOTIENT(A49,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1347,16 +1397,16 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <f>A48+1</f>
-        <v>4007</v>
+        <f t="shared" si="0"/>
+        <v>3007</v>
       </c>
       <c r="B53">
         <f>MOD(A49,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="C53">
         <f>QUOTIENT(A49,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1364,16 +1414,16 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <f>A49+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B54">
         <f>MOD(A54,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>108.8821752265861</v>
+        <v>21.776435045317221</v>
       </c>
       <c r="C54">
         <f>QUOTIENT(A54,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>6.404833836858006</v>
+        <v>1.2809667673716012</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1381,16 +1431,16 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <f>A50+1</f>
+        <f t="shared" si="0"/>
         <v>1008</v>
       </c>
       <c r="B55">
         <f>MOD(A54,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>103.8821752265861</v>
+        <v>20.776435045317221</v>
       </c>
       <c r="C55">
         <f>QUOTIENT(A54,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1398,16 +1448,16 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <f>A51+1</f>
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
       <c r="B56">
         <f>MOD(A54,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>113.8821752265861</v>
+        <v>22.776435045317221</v>
       </c>
       <c r="C56">
         <f>QUOTIENT(A54,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1415,16 +1465,16 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <f>A52+1</f>
-        <v>3008</v>
+        <f t="shared" si="0"/>
+        <v>4008</v>
       </c>
       <c r="B57">
         <f>MOD(A54,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>103.8821752265861</v>
+        <v>20.776435045317221</v>
       </c>
       <c r="C57">
         <f>QUOTIENT(A54,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1432,16 +1482,16 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <f>A53+1</f>
-        <v>4008</v>
+        <f t="shared" si="0"/>
+        <v>3008</v>
       </c>
       <c r="B58">
         <f>MOD(A54,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>113.8821752265861</v>
+        <v>22.776435045317221</v>
       </c>
       <c r="C58">
         <f>QUOTIENT(A54,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1449,16 +1499,16 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <f>A54+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B59">
         <f>MOD(A59,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>6.404833836858006</v>
+        <v>1.2809667673716012</v>
       </c>
       <c r="C59">
         <f>QUOTIENT(A59,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>19.214501510574017</v>
+        <v>3.8429003021148036</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1466,16 +1516,16 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <f>A55+1</f>
+        <f t="shared" si="0"/>
         <v>1009</v>
       </c>
       <c r="B60">
         <f>MOD(A59,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="C60">
         <f>QUOTIENT(A59,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1483,16 +1533,16 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <f>A56+1</f>
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
       <c r="B61">
         <f>MOD(A59,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="C61">
         <f>QUOTIENT(A59,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1500,16 +1550,16 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <f>A57+1</f>
-        <v>3009</v>
+        <f t="shared" si="0"/>
+        <v>4009</v>
       </c>
       <c r="B62">
         <f>MOD(A59,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="C62">
         <f>QUOTIENT(A59,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1517,16 +1567,16 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <f>A58+1</f>
-        <v>4009</v>
+        <f t="shared" si="0"/>
+        <v>3009</v>
       </c>
       <c r="B63">
         <f>MOD(A59,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="C63">
         <f>QUOTIENT(A59,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1534,16 +1584,16 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <f>A59+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B64">
         <f>MOD(A64,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>19.214501510574017</v>
+        <v>3.8429003021148036</v>
       </c>
       <c r="C64">
         <f>QUOTIENT(A64,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>19.214501510574017</v>
+        <v>3.8429003021148036</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1551,16 +1601,16 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <f>A60+1</f>
+        <f t="shared" si="0"/>
         <v>1010</v>
       </c>
       <c r="B65">
         <f>MOD(A64,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="C65">
         <f>QUOTIENT(A64,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1568,16 +1618,16 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <f>A61+1</f>
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
       <c r="B66">
         <f>MOD(A64,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="C66">
         <f>QUOTIENT(A64,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1585,16 +1635,16 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <f>A62+1</f>
-        <v>3010</v>
+        <f t="shared" si="0"/>
+        <v>4010</v>
       </c>
       <c r="B67">
         <f>MOD(A64,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="C67">
         <f>QUOTIENT(A64,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1602,16 +1652,16 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <f>A63+1</f>
-        <v>4010</v>
+        <f t="shared" si="0"/>
+        <v>3010</v>
       </c>
       <c r="B68">
         <f>MOD(A64,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="C68">
         <f>QUOTIENT(A64,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1619,16 +1669,16 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <f>A64+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B69">
         <f>MOD(A69,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>32.024169184290031</v>
+        <v>6.404833836858006</v>
       </c>
       <c r="C69">
         <f>QUOTIENT(A69,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>19.214501510574017</v>
+        <v>3.8429003021148036</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1636,16 +1686,16 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <f>A65+1</f>
+        <f t="shared" si="0"/>
         <v>1011</v>
       </c>
       <c r="B70">
         <f>MOD(A69,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="C70">
         <f>QUOTIENT(A69,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1653,16 +1703,16 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <f>A66+1</f>
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
       <c r="B71">
         <f>MOD(A69,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="C71">
         <f>QUOTIENT(A69,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1670,16 +1720,16 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <f>A67+1</f>
-        <v>3011</v>
+        <f t="shared" si="0"/>
+        <v>4011</v>
       </c>
       <c r="B72">
         <f>MOD(A69,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="C72">
         <f>QUOTIENT(A69,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1687,16 +1737,16 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <f>A68+1</f>
-        <v>4011</v>
+        <f t="shared" si="0"/>
+        <v>3011</v>
       </c>
       <c r="B73">
         <f>MOD(A69,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="C73">
         <f>QUOTIENT(A69,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1704,16 +1754,16 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <f>A69+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B74">
         <f>MOD(A74,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>44.833836858006038</v>
+        <v>8.9667673716012075</v>
       </c>
       <c r="C74">
         <f>QUOTIENT(A74,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>19.214501510574017</v>
+        <v>3.8429003021148036</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1721,16 +1771,16 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <f>A70+1</f>
+        <f t="shared" si="0"/>
         <v>1012</v>
       </c>
       <c r="B75">
         <f>MOD(A74,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="C75">
         <f>QUOTIENT(A74,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1738,16 +1788,16 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <f>A71+1</f>
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
       <c r="B76">
         <f>MOD(A74,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="C76">
         <f>QUOTIENT(A74,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1755,16 +1805,16 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <f>A72+1</f>
-        <v>3012</v>
+        <f t="shared" si="0"/>
+        <v>4012</v>
       </c>
       <c r="B77">
         <f>MOD(A74,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="C77">
         <f>QUOTIENT(A74,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -1772,16 +1822,16 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <f>A73+1</f>
-        <v>4012</v>
+        <f t="shared" si="0"/>
+        <v>3012</v>
       </c>
       <c r="B78">
         <f>MOD(A74,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="C78">
         <f>QUOTIENT(A74,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -1789,16 +1839,16 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <f>A74+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B79">
         <f>MOD(A79,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>57.643504531722051</v>
+        <v>11.528700906344412</v>
       </c>
       <c r="C79">
         <f>QUOTIENT(A79,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>19.214501510574017</v>
+        <v>3.8429003021148036</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1806,16 +1856,16 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <f>A75+1</f>
+        <f t="shared" si="0"/>
         <v>1013</v>
       </c>
       <c r="B80">
         <f>MOD(A79,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="C80">
         <f>QUOTIENT(A79,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -1823,16 +1873,16 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <f>A76+1</f>
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
       <c r="B81">
         <f>MOD(A79,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="C81">
         <f>QUOTIENT(A79,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -1840,16 +1890,16 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <f>A77+1</f>
-        <v>3013</v>
+        <f t="shared" si="0"/>
+        <v>4013</v>
       </c>
       <c r="B82">
         <f>MOD(A79,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="C82">
         <f>QUOTIENT(A79,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -1857,16 +1907,16 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <f>A78+1</f>
-        <v>4013</v>
+        <f t="shared" ref="A83:A146" si="1">A78+1</f>
+        <v>3013</v>
       </c>
       <c r="B83">
         <f>MOD(A79,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="C83">
         <f>QUOTIENT(A79,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -1874,16 +1924,16 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <f>A79+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B84">
         <f>MOD(A84,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>70.453172205438065</v>
+        <v>14.090634441087612</v>
       </c>
       <c r="C84">
         <f>QUOTIENT(A84,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>19.214501510574017</v>
+        <v>3.8429003021148036</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -1891,16 +1941,16 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <f>A80+1</f>
+        <f t="shared" si="1"/>
         <v>1014</v>
       </c>
       <c r="B85">
         <f>MOD(A84,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="C85">
         <f>QUOTIENT(A84,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -1908,16 +1958,16 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <f>A81+1</f>
+        <f t="shared" si="1"/>
         <v>2014</v>
       </c>
       <c r="B86">
         <f>MOD(A84,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="C86">
         <f>QUOTIENT(A84,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -1925,16 +1975,16 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <f>A82+1</f>
-        <v>3014</v>
+        <f t="shared" si="1"/>
+        <v>4014</v>
       </c>
       <c r="B87">
         <f>MOD(A84,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="C87">
         <f>QUOTIENT(A84,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -1942,16 +1992,16 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <f>A83+1</f>
-        <v>4014</v>
+        <f t="shared" si="1"/>
+        <v>3014</v>
       </c>
       <c r="B88">
         <f>MOD(A84,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="C88">
         <f>QUOTIENT(A84,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -1959,16 +2009,16 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <f>A84+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B89">
         <f>MOD(A89,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>83.262839879154072</v>
+        <v>16.652567975830816</v>
       </c>
       <c r="C89">
         <f>QUOTIENT(A89,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>19.214501510574017</v>
+        <v>3.8429003021148036</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -1976,16 +2026,16 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <f>A85+1</f>
+        <f t="shared" si="1"/>
         <v>1015</v>
       </c>
       <c r="B90">
         <f>MOD(A89,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="C90">
         <f>QUOTIENT(A89,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -1993,16 +2043,16 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <f>A86+1</f>
+        <f t="shared" si="1"/>
         <v>2015</v>
       </c>
       <c r="B91">
         <f>MOD(A89,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="C91">
         <f>QUOTIENT(A89,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2010,16 +2060,16 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <f>A87+1</f>
-        <v>3015</v>
+        <f t="shared" si="1"/>
+        <v>4015</v>
       </c>
       <c r="B92">
         <f>MOD(A89,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="C92">
         <f>QUOTIENT(A89,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2027,16 +2077,16 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <f>A88+1</f>
-        <v>4015</v>
+        <f t="shared" si="1"/>
+        <v>3015</v>
       </c>
       <c r="B93">
         <f>MOD(A89,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="C93">
         <f>QUOTIENT(A89,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2044,16 +2094,16 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <f>A89+1</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B94">
         <f>MOD(A94,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>96.072507552870093</v>
+        <v>19.214501510574017</v>
       </c>
       <c r="C94">
         <f>QUOTIENT(A94,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>19.214501510574017</v>
+        <v>3.8429003021148036</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2061,16 +2111,16 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <f>A90+1</f>
+        <f t="shared" si="1"/>
         <v>1016</v>
       </c>
       <c r="B95">
         <f>MOD(A94,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="C95">
         <f>QUOTIENT(A94,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2078,16 +2128,16 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <f>A91+1</f>
+        <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="B96">
         <f>MOD(A94,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="C96">
         <f>QUOTIENT(A94,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2095,16 +2145,16 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <f>A92+1</f>
-        <v>3016</v>
+        <f t="shared" si="1"/>
+        <v>4016</v>
       </c>
       <c r="B97">
         <f>MOD(A94,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="C97">
         <f>QUOTIENT(A94,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2112,16 +2162,16 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <f>A93+1</f>
-        <v>4016</v>
+        <f t="shared" si="1"/>
+        <v>3016</v>
       </c>
       <c r="B98">
         <f>MOD(A94,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="C98">
         <f>QUOTIENT(A94,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -2129,16 +2179,16 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <f>A94+1</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B99">
         <f>MOD(A99,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>108.8821752265861</v>
+        <v>21.776435045317221</v>
       </c>
       <c r="C99">
         <f>QUOTIENT(A99,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>19.214501510574017</v>
+        <v>3.8429003021148036</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -2146,16 +2196,16 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <f>A95+1</f>
+        <f t="shared" si="1"/>
         <v>1017</v>
       </c>
       <c r="B100">
         <f>MOD(A99,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>103.8821752265861</v>
+        <v>20.776435045317221</v>
       </c>
       <c r="C100">
         <f>QUOTIENT(A99,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -2163,16 +2213,16 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <f>A96+1</f>
+        <f t="shared" si="1"/>
         <v>2017</v>
       </c>
       <c r="B101">
         <f>MOD(A99,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>113.8821752265861</v>
+        <v>22.776435045317221</v>
       </c>
       <c r="C101">
         <f>QUOTIENT(A99,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -2180,16 +2230,16 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <f>A97+1</f>
-        <v>3017</v>
+        <f t="shared" si="1"/>
+        <v>4017</v>
       </c>
       <c r="B102">
         <f>MOD(A99,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>103.8821752265861</v>
+        <v>20.776435045317221</v>
       </c>
       <c r="C102">
         <f>QUOTIENT(A99,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -2197,16 +2247,16 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <f>A98+1</f>
-        <v>4017</v>
+        <f t="shared" si="1"/>
+        <v>3017</v>
       </c>
       <c r="B103">
         <f>MOD(A99,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>113.8821752265861</v>
+        <v>22.776435045317221</v>
       </c>
       <c r="C103">
         <f>QUOTIENT(A99,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -2214,16 +2264,16 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <f>A99+1</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B104">
         <f>MOD(A104,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>6.404833836858006</v>
+        <v>1.2809667673716012</v>
       </c>
       <c r="C104">
         <f>QUOTIENT(A104,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>32.024169184290031</v>
+        <v>6.404833836858006</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -2231,16 +2281,16 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <f>A100+1</f>
+        <f t="shared" si="1"/>
         <v>1018</v>
       </c>
       <c r="B105">
         <f>MOD(A104,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="C105">
         <f>QUOTIENT(A104,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2248,16 +2298,16 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <f>A101+1</f>
+        <f t="shared" si="1"/>
         <v>2018</v>
       </c>
       <c r="B106">
         <f>MOD(A104,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="C106">
         <f>QUOTIENT(A104,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2265,16 +2315,16 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <f>A102+1</f>
-        <v>3018</v>
+        <f t="shared" si="1"/>
+        <v>4018</v>
       </c>
       <c r="B107">
         <f>MOD(A104,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="C107">
         <f>QUOTIENT(A104,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -2282,16 +2332,16 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <f>A103+1</f>
-        <v>4018</v>
+        <f t="shared" si="1"/>
+        <v>3018</v>
       </c>
       <c r="B108">
         <f>MOD(A104,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="C108">
         <f>QUOTIENT(A104,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2299,16 +2349,16 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <f>A104+1</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B109">
         <f>MOD(A109,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>19.214501510574017</v>
+        <v>3.8429003021148036</v>
       </c>
       <c r="C109">
         <f>QUOTIENT(A109,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>32.024169184290031</v>
+        <v>6.404833836858006</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2316,16 +2366,16 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <f>A105+1</f>
+        <f t="shared" si="1"/>
         <v>1019</v>
       </c>
       <c r="B110">
         <f>MOD(A109,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="C110">
         <f>QUOTIENT(A109,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -2333,16 +2383,16 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <f>A106+1</f>
+        <f t="shared" si="1"/>
         <v>2019</v>
       </c>
       <c r="B111">
         <f>MOD(A109,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="C111">
         <f>QUOTIENT(A109,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2350,16 +2400,16 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <f>A107+1</f>
-        <v>3019</v>
+        <f t="shared" si="1"/>
+        <v>4019</v>
       </c>
       <c r="B112">
         <f>MOD(A109,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="C112">
         <f>QUOTIENT(A109,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2367,16 +2417,16 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <f>A108+1</f>
-        <v>4019</v>
+        <f t="shared" si="1"/>
+        <v>3019</v>
       </c>
       <c r="B113">
         <f>MOD(A109,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="C113">
         <f>QUOTIENT(A109,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -2384,16 +2434,16 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <f>A109+1</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B114">
         <f>MOD(A114,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>32.024169184290031</v>
+        <v>6.404833836858006</v>
       </c>
       <c r="C114">
         <f>QUOTIENT(A114,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>32.024169184290031</v>
+        <v>6.404833836858006</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -2401,16 +2451,16 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <f>A110+1</f>
+        <f t="shared" si="1"/>
         <v>1020</v>
       </c>
       <c r="B115">
         <f>MOD(A114,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="C115">
         <f>QUOTIENT(A114,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2418,16 +2468,16 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <f>A111+1</f>
+        <f t="shared" si="1"/>
         <v>2020</v>
       </c>
       <c r="B116">
         <f>MOD(A114,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="C116">
         <f>QUOTIENT(A114,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2435,16 +2485,16 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <f>A112+1</f>
-        <v>3020</v>
+        <f t="shared" si="1"/>
+        <v>4020</v>
       </c>
       <c r="B117">
         <f>MOD(A114,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="C117">
         <f>QUOTIENT(A114,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2452,16 +2502,16 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <f>A113+1</f>
-        <v>4020</v>
+        <f t="shared" si="1"/>
+        <v>3020</v>
       </c>
       <c r="B118">
         <f>MOD(A114,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="C118">
         <f>QUOTIENT(A114,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -2469,16 +2519,16 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <f>A114+1</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B119">
         <f>MOD(A119,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>44.833836858006038</v>
+        <v>8.9667673716012075</v>
       </c>
       <c r="C119">
         <f>QUOTIENT(A119,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>32.024169184290031</v>
+        <v>6.404833836858006</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2486,16 +2536,16 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <f>A115+1</f>
+        <f t="shared" si="1"/>
         <v>1021</v>
       </c>
       <c r="B120">
         <f>MOD(A119,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="C120">
         <f>QUOTIENT(A119,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2503,16 +2553,16 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <f>A116+1</f>
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
       <c r="B121">
         <f>MOD(A119,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="C121">
         <f>QUOTIENT(A119,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2520,16 +2570,16 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <f>A117+1</f>
-        <v>3021</v>
+        <f t="shared" si="1"/>
+        <v>4021</v>
       </c>
       <c r="B122">
         <f>MOD(A119,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="C122">
         <f>QUOTIENT(A119,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -2537,16 +2587,16 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <f>A118+1</f>
-        <v>4021</v>
+        <f t="shared" si="1"/>
+        <v>3021</v>
       </c>
       <c r="B123">
         <f>MOD(A119,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="C123">
         <f>QUOTIENT(A119,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -2554,16 +2604,16 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <f>A119+1</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B124">
         <f>MOD(A124,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>57.643504531722051</v>
+        <v>11.528700906344412</v>
       </c>
       <c r="C124">
         <f>QUOTIENT(A124,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>32.024169184290031</v>
+        <v>6.404833836858006</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -2571,16 +2621,16 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <f>A120+1</f>
+        <f t="shared" si="1"/>
         <v>1022</v>
       </c>
       <c r="B125">
         <f>MOD(A124,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="C125">
         <f>QUOTIENT(A124,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -2588,16 +2638,16 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <f>A121+1</f>
+        <f t="shared" si="1"/>
         <v>2022</v>
       </c>
       <c r="B126">
         <f>MOD(A124,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="C126">
         <f>QUOTIENT(A124,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -2605,16 +2655,16 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <f>A122+1</f>
-        <v>3022</v>
+        <f t="shared" si="1"/>
+        <v>4022</v>
       </c>
       <c r="B127">
         <f>MOD(A124,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="C127">
         <f>QUOTIENT(A124,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -2622,16 +2672,16 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <f>A123+1</f>
-        <v>4022</v>
+        <f t="shared" si="1"/>
+        <v>3022</v>
       </c>
       <c r="B128">
         <f>MOD(A124,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="C128">
         <f>QUOTIENT(A124,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -2639,16 +2689,16 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <f>A124+1</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B129">
         <f>MOD(A129,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>70.453172205438065</v>
+        <v>14.090634441087612</v>
       </c>
       <c r="C129">
         <f>QUOTIENT(A129,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>32.024169184290031</v>
+        <v>6.404833836858006</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -2656,16 +2706,16 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <f>A125+1</f>
+        <f t="shared" si="1"/>
         <v>1023</v>
       </c>
       <c r="B130">
         <f>MOD(A129,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="C130">
         <f>QUOTIENT(A129,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -2673,16 +2723,16 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <f>A126+1</f>
+        <f t="shared" si="1"/>
         <v>2023</v>
       </c>
       <c r="B131">
         <f>MOD(A129,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="C131">
         <f>QUOTIENT(A129,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2690,16 +2740,16 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <f>A127+1</f>
-        <v>3023</v>
+        <f t="shared" si="1"/>
+        <v>4023</v>
       </c>
       <c r="B132">
         <f>MOD(A129,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="C132">
         <f>QUOTIENT(A129,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2707,16 +2757,16 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <f>A128+1</f>
-        <v>4023</v>
+        <f t="shared" si="1"/>
+        <v>3023</v>
       </c>
       <c r="B133">
         <f>MOD(A129,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="C133">
         <f>QUOTIENT(A129,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2724,16 +2774,16 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <f>A129+1</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B134">
         <f>MOD(A134,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>83.262839879154072</v>
+        <v>16.652567975830816</v>
       </c>
       <c r="C134">
         <f>QUOTIENT(A134,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>32.024169184290031</v>
+        <v>6.404833836858006</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -2741,16 +2791,16 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <f>A130+1</f>
+        <f t="shared" si="1"/>
         <v>1024</v>
       </c>
       <c r="B135">
         <f>MOD(A134,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="C135">
         <f>QUOTIENT(A134,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -2758,16 +2808,16 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <f>A131+1</f>
+        <f t="shared" si="1"/>
         <v>2024</v>
       </c>
       <c r="B136">
         <f>MOD(A134,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="C136">
         <f>QUOTIENT(A134,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -2775,16 +2825,16 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <f>A132+1</f>
-        <v>3024</v>
+        <f t="shared" si="1"/>
+        <v>4024</v>
       </c>
       <c r="B137">
         <f>MOD(A134,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="C137">
         <f>QUOTIENT(A134,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -2792,16 +2842,16 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <f>A133+1</f>
-        <v>4024</v>
+        <f t="shared" si="1"/>
+        <v>3024</v>
       </c>
       <c r="B138">
         <f>MOD(A134,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="C138">
         <f>QUOTIENT(A134,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -2809,16 +2859,16 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <f>A134+1</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B139">
         <f>MOD(A139,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>96.072507552870093</v>
+        <v>19.214501510574017</v>
       </c>
       <c r="C139">
         <f>QUOTIENT(A139,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>32.024169184290031</v>
+        <v>6.404833836858006</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -2826,16 +2876,16 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <f>A135+1</f>
+        <f t="shared" si="1"/>
         <v>1025</v>
       </c>
       <c r="B140">
         <f>MOD(A139,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="C140">
         <f>QUOTIENT(A139,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -2843,16 +2893,16 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <f>A136+1</f>
+        <f t="shared" si="1"/>
         <v>2025</v>
       </c>
       <c r="B141">
         <f>MOD(A139,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="C141">
         <f>QUOTIENT(A139,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -2860,16 +2910,16 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <f>A137+1</f>
-        <v>3025</v>
+        <f t="shared" si="1"/>
+        <v>4025</v>
       </c>
       <c r="B142">
         <f>MOD(A139,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="C142">
         <f>QUOTIENT(A139,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -2877,16 +2927,16 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <f>A138+1</f>
-        <v>4025</v>
+        <f t="shared" si="1"/>
+        <v>3025</v>
       </c>
       <c r="B143">
         <f>MOD(A139,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="C143">
         <f>QUOTIENT(A139,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -2894,16 +2944,16 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <f>A139+1</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B144">
         <f>MOD(A144,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>108.8821752265861</v>
+        <v>21.776435045317221</v>
       </c>
       <c r="C144">
         <f>QUOTIENT(A144,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>32.024169184290031</v>
+        <v>6.404833836858006</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -2911,16 +2961,16 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <f>A140+1</f>
+        <f t="shared" si="1"/>
         <v>1026</v>
       </c>
       <c r="B145">
         <f>MOD(A144,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>103.8821752265861</v>
+        <v>20.776435045317221</v>
       </c>
       <c r="C145">
         <f>QUOTIENT(A144,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -2928,16 +2978,16 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <f>A141+1</f>
+        <f t="shared" si="1"/>
         <v>2026</v>
       </c>
       <c r="B146">
         <f>MOD(A144,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>113.8821752265861</v>
+        <v>22.776435045317221</v>
       </c>
       <c r="C146">
         <f>QUOTIENT(A144,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -2945,16 +2995,16 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <f>A142+1</f>
-        <v>3026</v>
+        <f t="shared" ref="A147:A210" si="2">A142+1</f>
+        <v>4026</v>
       </c>
       <c r="B147">
         <f>MOD(A144,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>103.8821752265861</v>
+        <v>20.776435045317221</v>
       </c>
       <c r="C147">
         <f>QUOTIENT(A144,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -2962,16 +3012,16 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <f>A143+1</f>
-        <v>4026</v>
+        <f t="shared" si="2"/>
+        <v>3026</v>
       </c>
       <c r="B148">
         <f>MOD(A144,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>113.8821752265861</v>
+        <v>22.776435045317221</v>
       </c>
       <c r="C148">
         <f>QUOTIENT(A144,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -2979,16 +3029,16 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <f>A144+1</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B149">
         <f>MOD(A149,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>6.404833836858006</v>
+        <v>1.2809667673716012</v>
       </c>
       <c r="C149">
         <f>QUOTIENT(A149,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>44.833836858006038</v>
+        <v>8.9667673716012075</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -2996,16 +3046,16 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <f>A145+1</f>
+        <f t="shared" si="2"/>
         <v>1027</v>
       </c>
       <c r="B150">
         <f>MOD(A149,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="C150">
         <f>QUOTIENT(A149,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -3013,16 +3063,16 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <f>A146+1</f>
+        <f t="shared" si="2"/>
         <v>2027</v>
       </c>
       <c r="B151">
         <f>MOD(A149,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="C151">
         <f>QUOTIENT(A149,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -3030,16 +3080,16 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <f>A147+1</f>
-        <v>3027</v>
+        <f t="shared" si="2"/>
+        <v>4027</v>
       </c>
       <c r="B152">
         <f>MOD(A149,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="C152">
         <f>QUOTIENT(A149,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -3047,16 +3097,16 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <f>A148+1</f>
-        <v>4027</v>
+        <f t="shared" si="2"/>
+        <v>3027</v>
       </c>
       <c r="B153">
         <f>MOD(A149,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="C153">
         <f>QUOTIENT(A149,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -3064,16 +3114,16 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <f>A149+1</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B154">
         <f>MOD(A154,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>19.214501510574017</v>
+        <v>3.8429003021148036</v>
       </c>
       <c r="C154">
         <f>QUOTIENT(A154,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>44.833836858006038</v>
+        <v>8.9667673716012075</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -3081,16 +3131,16 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <f>A150+1</f>
+        <f t="shared" si="2"/>
         <v>1028</v>
       </c>
       <c r="B155">
         <f>MOD(A154,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="C155">
         <f>QUOTIENT(A154,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -3098,16 +3148,16 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <f>A151+1</f>
+        <f t="shared" si="2"/>
         <v>2028</v>
       </c>
       <c r="B156">
         <f>MOD(A154,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="C156">
         <f>QUOTIENT(A154,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -3115,16 +3165,16 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <f>A152+1</f>
-        <v>3028</v>
+        <f t="shared" si="2"/>
+        <v>4028</v>
       </c>
       <c r="B157">
         <f>MOD(A154,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="C157">
         <f>QUOTIENT(A154,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -3132,16 +3182,16 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <f>A153+1</f>
-        <v>4028</v>
+        <f t="shared" si="2"/>
+        <v>3028</v>
       </c>
       <c r="B158">
         <f>MOD(A154,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="C158">
         <f>QUOTIENT(A154,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -3149,16 +3199,16 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <f>A154+1</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B159">
         <f>MOD(A159,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>32.024169184290031</v>
+        <v>6.404833836858006</v>
       </c>
       <c r="C159">
         <f>QUOTIENT(A159,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>44.833836858006038</v>
+        <v>8.9667673716012075</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -3166,16 +3216,16 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <f>A155+1</f>
+        <f t="shared" si="2"/>
         <v>1029</v>
       </c>
       <c r="B160">
         <f>MOD(A159,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="C160">
         <f>QUOTIENT(A159,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -3183,16 +3233,16 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <f>A156+1</f>
+        <f t="shared" si="2"/>
         <v>2029</v>
       </c>
       <c r="B161">
         <f>MOD(A159,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="C161">
         <f>QUOTIENT(A159,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -3200,16 +3250,16 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <f>A157+1</f>
-        <v>3029</v>
+        <f t="shared" si="2"/>
+        <v>4029</v>
       </c>
       <c r="B162">
         <f>MOD(A159,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="C162">
         <f>QUOTIENT(A159,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -3217,16 +3267,16 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <f>A158+1</f>
-        <v>4029</v>
+        <f t="shared" si="2"/>
+        <v>3029</v>
       </c>
       <c r="B163">
         <f>MOD(A159,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="C163">
         <f>QUOTIENT(A159,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -3234,16 +3284,16 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <f>A159+1</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B164">
         <f>MOD(A164,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>44.833836858006038</v>
+        <v>8.9667673716012075</v>
       </c>
       <c r="C164">
         <f>QUOTIENT(A164,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>44.833836858006038</v>
+        <v>8.9667673716012075</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -3251,16 +3301,16 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <f>A160+1</f>
+        <f t="shared" si="2"/>
         <v>1030</v>
       </c>
       <c r="B165">
         <f>MOD(A164,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="C165">
         <f>QUOTIENT(A164,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -3268,16 +3318,16 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <f>A161+1</f>
+        <f t="shared" si="2"/>
         <v>2030</v>
       </c>
       <c r="B166">
         <f>MOD(A164,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="C166">
         <f>QUOTIENT(A164,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -3285,16 +3335,16 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <f>A162+1</f>
-        <v>3030</v>
+        <f t="shared" si="2"/>
+        <v>4030</v>
       </c>
       <c r="B167">
         <f>MOD(A164,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="C167">
         <f>QUOTIENT(A164,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -3302,16 +3352,16 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <f>A163+1</f>
-        <v>4030</v>
+        <f t="shared" si="2"/>
+        <v>3030</v>
       </c>
       <c r="B168">
         <f>MOD(A164,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="C168">
         <f>QUOTIENT(A164,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -3319,16 +3369,16 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <f>A164+1</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B169">
         <f>MOD(A169,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>57.643504531722051</v>
+        <v>11.528700906344412</v>
       </c>
       <c r="C169">
         <f>QUOTIENT(A169,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>44.833836858006038</v>
+        <v>8.9667673716012075</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -3336,16 +3386,16 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <f>A165+1</f>
+        <f t="shared" si="2"/>
         <v>1031</v>
       </c>
       <c r="B170">
         <f>MOD(A169,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="C170">
         <f>QUOTIENT(A169,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -3353,16 +3403,16 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <f>A166+1</f>
+        <f t="shared" si="2"/>
         <v>2031</v>
       </c>
       <c r="B171">
         <f>MOD(A169,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="C171">
         <f>QUOTIENT(A169,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -3370,16 +3420,16 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <f>A167+1</f>
-        <v>3031</v>
+        <f t="shared" si="2"/>
+        <v>4031</v>
       </c>
       <c r="B172">
         <f>MOD(A169,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="C172">
         <f>QUOTIENT(A169,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -3387,16 +3437,16 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <f>A168+1</f>
-        <v>4031</v>
+        <f t="shared" si="2"/>
+        <v>3031</v>
       </c>
       <c r="B173">
         <f>MOD(A169,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="C173">
         <f>QUOTIENT(A169,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -3404,16 +3454,16 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <f>A169+1</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B174">
         <f>MOD(A174,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>70.453172205438065</v>
+        <v>14.090634441087612</v>
       </c>
       <c r="C174">
         <f>QUOTIENT(A174,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>44.833836858006038</v>
+        <v>8.9667673716012075</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -3421,16 +3471,16 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <f>A170+1</f>
+        <f t="shared" si="2"/>
         <v>1032</v>
       </c>
       <c r="B175">
         <f>MOD(A174,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="C175">
         <f>QUOTIENT(A174,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -3438,16 +3488,16 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <f>A171+1</f>
+        <f t="shared" si="2"/>
         <v>2032</v>
       </c>
       <c r="B176">
         <f>MOD(A174,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="C176">
         <f>QUOTIENT(A174,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -3455,16 +3505,16 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <f>A172+1</f>
-        <v>3032</v>
+        <f t="shared" si="2"/>
+        <v>4032</v>
       </c>
       <c r="B177">
         <f>MOD(A174,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="C177">
         <f>QUOTIENT(A174,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -3472,16 +3522,16 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <f>A173+1</f>
-        <v>4032</v>
+        <f t="shared" si="2"/>
+        <v>3032</v>
       </c>
       <c r="B178">
         <f>MOD(A174,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="C178">
         <f>QUOTIENT(A174,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -3489,16 +3539,16 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <f>A174+1</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B179">
         <f>MOD(A179,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>83.262839879154072</v>
+        <v>16.652567975830816</v>
       </c>
       <c r="C179">
         <f>QUOTIENT(A179,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>44.833836858006038</v>
+        <v>8.9667673716012075</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -3506,16 +3556,16 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <f>A175+1</f>
+        <f t="shared" si="2"/>
         <v>1033</v>
       </c>
       <c r="B180">
         <f>MOD(A179,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="C180">
         <f>QUOTIENT(A179,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -3523,16 +3573,16 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <f>A176+1</f>
+        <f t="shared" si="2"/>
         <v>2033</v>
       </c>
       <c r="B181">
         <f>MOD(A179,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="C181">
         <f>QUOTIENT(A179,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -3540,16 +3590,16 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <f>A177+1</f>
-        <v>3033</v>
+        <f t="shared" si="2"/>
+        <v>4033</v>
       </c>
       <c r="B182">
         <f>MOD(A179,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="C182">
         <f>QUOTIENT(A179,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -3557,16 +3607,16 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <f>A178+1</f>
-        <v>4033</v>
+        <f t="shared" si="2"/>
+        <v>3033</v>
       </c>
       <c r="B183">
         <f>MOD(A179,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="C183">
         <f>QUOTIENT(A179,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -3574,16 +3624,16 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <f>A179+1</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B184">
         <f>MOD(A184,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>96.072507552870093</v>
+        <v>19.214501510574017</v>
       </c>
       <c r="C184">
         <f>QUOTIENT(A184,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>44.833836858006038</v>
+        <v>8.9667673716012075</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -3591,16 +3641,16 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <f>A180+1</f>
+        <f t="shared" si="2"/>
         <v>1034</v>
       </c>
       <c r="B185">
         <f>MOD(A184,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="C185">
         <f>QUOTIENT(A184,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -3608,16 +3658,16 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <f>A181+1</f>
+        <f t="shared" si="2"/>
         <v>2034</v>
       </c>
       <c r="B186">
         <f>MOD(A184,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="C186">
         <f>QUOTIENT(A184,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -3625,16 +3675,16 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <f>A182+1</f>
-        <v>3034</v>
+        <f t="shared" si="2"/>
+        <v>4034</v>
       </c>
       <c r="B187">
         <f>MOD(A184,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="C187">
         <f>QUOTIENT(A184,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -3642,16 +3692,16 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <f>A183+1</f>
-        <v>4034</v>
+        <f t="shared" si="2"/>
+        <v>3034</v>
       </c>
       <c r="B188">
         <f>MOD(A184,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="C188">
         <f>QUOTIENT(A184,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -3659,16 +3709,16 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <f>A184+1</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B189">
         <f>MOD(A189,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>108.8821752265861</v>
+        <v>21.776435045317221</v>
       </c>
       <c r="C189">
         <f>QUOTIENT(A189,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>44.833836858006038</v>
+        <v>8.9667673716012075</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -3676,16 +3726,16 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <f>A185+1</f>
+        <f t="shared" si="2"/>
         <v>1035</v>
       </c>
       <c r="B190">
         <f>MOD(A189,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>103.8821752265861</v>
+        <v>20.776435045317221</v>
       </c>
       <c r="C190">
         <f>QUOTIENT(A189,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -3693,16 +3743,16 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <f>A186+1</f>
+        <f t="shared" si="2"/>
         <v>2035</v>
       </c>
       <c r="B191">
         <f>MOD(A189,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>113.8821752265861</v>
+        <v>22.776435045317221</v>
       </c>
       <c r="C191">
         <f>QUOTIENT(A189,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -3710,16 +3760,16 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <f>A187+1</f>
-        <v>3035</v>
+        <f t="shared" si="2"/>
+        <v>4035</v>
       </c>
       <c r="B192">
         <f>MOD(A189,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>103.8821752265861</v>
+        <v>20.776435045317221</v>
       </c>
       <c r="C192">
         <f>QUOTIENT(A189,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -3727,16 +3777,16 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <f>A188+1</f>
-        <v>4035</v>
+        <f t="shared" si="2"/>
+        <v>3035</v>
       </c>
       <c r="B193">
         <f>MOD(A189,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>113.8821752265861</v>
+        <v>22.776435045317221</v>
       </c>
       <c r="C193">
         <f>QUOTIENT(A189,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -3744,16 +3794,16 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <f>A189+1</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B194">
         <f>MOD(A194,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>6.404833836858006</v>
+        <v>1.2809667673716012</v>
       </c>
       <c r="C194">
         <f>QUOTIENT(A194,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>57.643504531722051</v>
+        <v>11.528700906344412</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -3761,16 +3811,16 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <f>A190+1</f>
+        <f t="shared" si="2"/>
         <v>1036</v>
       </c>
       <c r="B195">
         <f>MOD(A194,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="C195">
         <f>QUOTIENT(A194,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -3778,16 +3828,16 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <f>A191+1</f>
+        <f t="shared" si="2"/>
         <v>2036</v>
       </c>
       <c r="B196">
         <f>MOD(A194,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="C196">
         <f>QUOTIENT(A194,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -3795,16 +3845,16 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <f>A192+1</f>
-        <v>3036</v>
+        <f t="shared" si="2"/>
+        <v>4036</v>
       </c>
       <c r="B197">
         <f>MOD(A194,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="C197">
         <f>QUOTIENT(A194,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -3812,16 +3862,16 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <f>A193+1</f>
-        <v>4036</v>
+        <f t="shared" si="2"/>
+        <v>3036</v>
       </c>
       <c r="B198">
         <f>MOD(A194,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="C198">
         <f>QUOTIENT(A194,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -3829,16 +3879,16 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <f>A194+1</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B199">
         <f>MOD(A199,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>19.214501510574017</v>
+        <v>3.8429003021148036</v>
       </c>
       <c r="C199">
         <f>QUOTIENT(A199,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>57.643504531722051</v>
+        <v>11.528700906344412</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -3846,16 +3896,16 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <f>A195+1</f>
+        <f t="shared" si="2"/>
         <v>1037</v>
       </c>
       <c r="B200">
         <f>MOD(A199,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="C200">
         <f>QUOTIENT(A199,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -3863,16 +3913,16 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <f>A196+1</f>
+        <f t="shared" si="2"/>
         <v>2037</v>
       </c>
       <c r="B201">
         <f>MOD(A199,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="C201">
         <f>QUOTIENT(A199,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -3880,16 +3930,16 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <f>A197+1</f>
-        <v>3037</v>
+        <f t="shared" si="2"/>
+        <v>4037</v>
       </c>
       <c r="B202">
         <f>MOD(A199,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="C202">
         <f>QUOTIENT(A199,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -3897,16 +3947,16 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <f>A198+1</f>
-        <v>4037</v>
+        <f t="shared" si="2"/>
+        <v>3037</v>
       </c>
       <c r="B203">
         <f>MOD(A199,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="C203">
         <f>QUOTIENT(A199,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -3914,16 +3964,16 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <f>A199+1</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B204">
         <f>MOD(A204,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>32.024169184290031</v>
+        <v>6.404833836858006</v>
       </c>
       <c r="C204">
         <f>QUOTIENT(A204,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>57.643504531722051</v>
+        <v>11.528700906344412</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -3931,16 +3981,16 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <f>A200+1</f>
+        <f t="shared" si="2"/>
         <v>1038</v>
       </c>
       <c r="B205">
         <f>MOD(A204,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="C205">
         <f>QUOTIENT(A204,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -3948,16 +3998,16 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <f>A201+1</f>
+        <f t="shared" si="2"/>
         <v>2038</v>
       </c>
       <c r="B206">
         <f>MOD(A204,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="C206">
         <f>QUOTIENT(A204,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -3965,16 +4015,16 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <f>A202+1</f>
-        <v>3038</v>
+        <f t="shared" si="2"/>
+        <v>4038</v>
       </c>
       <c r="B207">
         <f>MOD(A204,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="C207">
         <f>QUOTIENT(A204,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -3982,16 +4032,16 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <f>A203+1</f>
-        <v>4038</v>
+        <f t="shared" si="2"/>
+        <v>3038</v>
       </c>
       <c r="B208">
         <f>MOD(A204,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="C208">
         <f>QUOTIENT(A204,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -3999,16 +4049,16 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <f>A204+1</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B209">
         <f>MOD(A209,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>44.833836858006038</v>
+        <v>8.9667673716012075</v>
       </c>
       <c r="C209">
         <f>QUOTIENT(A209,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>57.643504531722051</v>
+        <v>11.528700906344412</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -4016,16 +4066,16 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <f>A205+1</f>
+        <f t="shared" si="2"/>
         <v>1039</v>
       </c>
       <c r="B210">
         <f>MOD(A209,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="C210">
         <f>QUOTIENT(A209,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -4033,16 +4083,16 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <f>A206+1</f>
+        <f t="shared" ref="A211:A274" si="3">A206+1</f>
         <v>2039</v>
       </c>
       <c r="B211">
         <f>MOD(A209,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="C211">
         <f>QUOTIENT(A209,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -4050,16 +4100,16 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <f>A207+1</f>
-        <v>3039</v>
+        <f t="shared" si="3"/>
+        <v>4039</v>
       </c>
       <c r="B212">
         <f>MOD(A209,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="C212">
         <f>QUOTIENT(A209,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -4067,16 +4117,16 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <f>A208+1</f>
-        <v>4039</v>
+        <f t="shared" si="3"/>
+        <v>3039</v>
       </c>
       <c r="B213">
         <f>MOD(A209,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="C213">
         <f>QUOTIENT(A209,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -4084,16 +4134,16 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <f>A209+1</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B214">
         <f>MOD(A214,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>57.643504531722051</v>
+        <v>11.528700906344412</v>
       </c>
       <c r="C214">
         <f>QUOTIENT(A214,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>57.643504531722051</v>
+        <v>11.528700906344412</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -4101,16 +4151,16 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <f>A210+1</f>
+        <f t="shared" si="3"/>
         <v>1040</v>
       </c>
       <c r="B215">
         <f>MOD(A214,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="C215">
         <f>QUOTIENT(A214,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -4118,16 +4168,16 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <f>A211+1</f>
+        <f t="shared" si="3"/>
         <v>2040</v>
       </c>
       <c r="B216">
         <f>MOD(A214,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="C216">
         <f>QUOTIENT(A214,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -4135,16 +4185,16 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <f>A212+1</f>
-        <v>3040</v>
+        <f t="shared" si="3"/>
+        <v>4040</v>
       </c>
       <c r="B217">
         <f>MOD(A214,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="C217">
         <f>QUOTIENT(A214,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -4152,16 +4202,16 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218">
-        <f>A213+1</f>
-        <v>4040</v>
+        <f t="shared" si="3"/>
+        <v>3040</v>
       </c>
       <c r="B218">
         <f>MOD(A214,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="C218">
         <f>QUOTIENT(A214,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -4169,16 +4219,16 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219">
-        <f>A214+1</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B219">
         <f>MOD(A219,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>70.453172205438065</v>
+        <v>14.090634441087612</v>
       </c>
       <c r="C219">
         <f>QUOTIENT(A219,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>57.643504531722051</v>
+        <v>11.528700906344412</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -4186,16 +4236,16 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220">
-        <f>A215+1</f>
+        <f t="shared" si="3"/>
         <v>1041</v>
       </c>
       <c r="B220">
         <f>MOD(A219,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="C220">
         <f>QUOTIENT(A219,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -4203,16 +4253,16 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221">
-        <f>A216+1</f>
+        <f t="shared" si="3"/>
         <v>2041</v>
       </c>
       <c r="B221">
         <f>MOD(A219,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="C221">
         <f>QUOTIENT(A219,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -4220,16 +4270,16 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222">
-        <f>A217+1</f>
-        <v>3041</v>
+        <f t="shared" si="3"/>
+        <v>4041</v>
       </c>
       <c r="B222">
         <f>MOD(A219,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="C222">
         <f>QUOTIENT(A219,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -4237,16 +4287,16 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223">
-        <f>A218+1</f>
-        <v>4041</v>
+        <f t="shared" si="3"/>
+        <v>3041</v>
       </c>
       <c r="B223">
         <f>MOD(A219,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="C223">
         <f>QUOTIENT(A219,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -4254,16 +4304,16 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224">
-        <f>A219+1</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B224">
         <f>MOD(A224,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>83.262839879154072</v>
+        <v>16.652567975830816</v>
       </c>
       <c r="C224">
         <f>QUOTIENT(A224,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>57.643504531722051</v>
+        <v>11.528700906344412</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -4271,16 +4321,16 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225">
-        <f>A220+1</f>
+        <f t="shared" si="3"/>
         <v>1042</v>
       </c>
       <c r="B225">
         <f>MOD(A224,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="C225">
         <f>QUOTIENT(A224,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -4288,16 +4338,16 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226">
-        <f>A221+1</f>
+        <f t="shared" si="3"/>
         <v>2042</v>
       </c>
       <c r="B226">
         <f>MOD(A224,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="C226">
         <f>QUOTIENT(A224,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -4305,16 +4355,16 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <f>A222+1</f>
-        <v>3042</v>
+        <f t="shared" si="3"/>
+        <v>4042</v>
       </c>
       <c r="B227">
         <f>MOD(A224,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="C227">
         <f>QUOTIENT(A224,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -4322,16 +4372,16 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <f>A223+1</f>
-        <v>4042</v>
+        <f t="shared" si="3"/>
+        <v>3042</v>
       </c>
       <c r="B228">
         <f>MOD(A224,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="C228">
         <f>QUOTIENT(A224,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -4339,16 +4389,16 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <f>A224+1</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B229">
         <f>MOD(A229,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>96.072507552870093</v>
+        <v>19.214501510574017</v>
       </c>
       <c r="C229">
         <f>QUOTIENT(A229,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>57.643504531722051</v>
+        <v>11.528700906344412</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -4356,16 +4406,16 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <f>A225+1</f>
+        <f t="shared" si="3"/>
         <v>1043</v>
       </c>
       <c r="B230">
         <f>MOD(A229,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="C230">
         <f>QUOTIENT(A229,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -4373,16 +4423,16 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231">
-        <f>A226+1</f>
+        <f t="shared" si="3"/>
         <v>2043</v>
       </c>
       <c r="B231">
         <f>MOD(A229,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="C231">
         <f>QUOTIENT(A229,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -4390,16 +4440,16 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <f>A227+1</f>
-        <v>3043</v>
+        <f t="shared" si="3"/>
+        <v>4043</v>
       </c>
       <c r="B232">
         <f>MOD(A229,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="C232">
         <f>QUOTIENT(A229,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -4407,16 +4457,16 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <f>A228+1</f>
-        <v>4043</v>
+        <f t="shared" si="3"/>
+        <v>3043</v>
       </c>
       <c r="B233">
         <f>MOD(A229,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="C233">
         <f>QUOTIENT(A229,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -4424,16 +4474,16 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <f>A229+1</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B234">
         <f>MOD(A234,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>108.8821752265861</v>
+        <v>21.776435045317221</v>
       </c>
       <c r="C234">
         <f>QUOTIENT(A234,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>57.643504531722051</v>
+        <v>11.528700906344412</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -4441,16 +4491,16 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <f>A230+1</f>
+        <f t="shared" si="3"/>
         <v>1044</v>
       </c>
       <c r="B235">
         <f>MOD(A234,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>103.8821752265861</v>
+        <v>20.776435045317221</v>
       </c>
       <c r="C235">
         <f>QUOTIENT(A234,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -4458,16 +4508,16 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <f>A231+1</f>
+        <f t="shared" si="3"/>
         <v>2044</v>
       </c>
       <c r="B236">
         <f>MOD(A234,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>113.8821752265861</v>
+        <v>22.776435045317221</v>
       </c>
       <c r="C236">
         <f>QUOTIENT(A234,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -4475,16 +4525,16 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <f>A232+1</f>
-        <v>3044</v>
+        <f t="shared" si="3"/>
+        <v>4044</v>
       </c>
       <c r="B237">
         <f>MOD(A234,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>103.8821752265861</v>
+        <v>20.776435045317221</v>
       </c>
       <c r="C237">
         <f>QUOTIENT(A234,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -4492,16 +4542,16 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <f>A233+1</f>
-        <v>4044</v>
+        <f t="shared" si="3"/>
+        <v>3044</v>
       </c>
       <c r="B238">
         <f>MOD(A234,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>113.8821752265861</v>
+        <v>22.776435045317221</v>
       </c>
       <c r="C238">
         <f>QUOTIENT(A234,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -4509,16 +4559,16 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239">
-        <f>A234+1</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="B239">
         <f>MOD(A239,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>6.404833836858006</v>
+        <v>1.2809667673716012</v>
       </c>
       <c r="C239">
         <f>QUOTIENT(A239,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>70.453172205438065</v>
+        <v>14.090634441087612</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -4526,16 +4576,16 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240">
-        <f>A235+1</f>
+        <f t="shared" si="3"/>
         <v>1045</v>
       </c>
       <c r="B240">
         <f>MOD(A239,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="C240">
         <f>QUOTIENT(A239,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -4543,16 +4593,16 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
-        <f>A236+1</f>
+        <f t="shared" si="3"/>
         <v>2045</v>
       </c>
       <c r="B241">
         <f>MOD(A239,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="C241">
         <f>QUOTIENT(A239,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -4560,16 +4610,16 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <f>A237+1</f>
-        <v>3045</v>
+        <f t="shared" si="3"/>
+        <v>4045</v>
       </c>
       <c r="B242">
         <f>MOD(A239,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="C242">
         <f>QUOTIENT(A239,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -4577,16 +4627,16 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243">
-        <f>A238+1</f>
-        <v>4045</v>
+        <f t="shared" si="3"/>
+        <v>3045</v>
       </c>
       <c r="B243">
         <f>MOD(A239,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="C243">
         <f>QUOTIENT(A239,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -4594,16 +4644,16 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244">
-        <f>A239+1</f>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="B244">
         <f>MOD(A244,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>19.214501510574017</v>
+        <v>3.8429003021148036</v>
       </c>
       <c r="C244">
         <f>QUOTIENT(A244,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>70.453172205438065</v>
+        <v>14.090634441087612</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -4611,16 +4661,16 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <f>A240+1</f>
+        <f t="shared" si="3"/>
         <v>1046</v>
       </c>
       <c r="B245">
         <f>MOD(A244,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="C245">
         <f>QUOTIENT(A244,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -4628,16 +4678,16 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <f>A241+1</f>
+        <f t="shared" si="3"/>
         <v>2046</v>
       </c>
       <c r="B246">
         <f>MOD(A244,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="C246">
         <f>QUOTIENT(A244,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -4645,16 +4695,16 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247">
-        <f>A242+1</f>
-        <v>3046</v>
+        <f t="shared" si="3"/>
+        <v>4046</v>
       </c>
       <c r="B247">
         <f>MOD(A244,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="C247">
         <f>QUOTIENT(A244,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -4662,16 +4712,16 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248">
-        <f>A243+1</f>
-        <v>4046</v>
+        <f t="shared" si="3"/>
+        <v>3046</v>
       </c>
       <c r="B248">
         <f>MOD(A244,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="C248">
         <f>QUOTIENT(A244,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -4679,16 +4729,16 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249">
-        <f>A244+1</f>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="B249">
         <f>MOD(A249,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>32.024169184290031</v>
+        <v>6.404833836858006</v>
       </c>
       <c r="C249">
         <f>QUOTIENT(A249,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>70.453172205438065</v>
+        <v>14.090634441087612</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -4696,16 +4746,16 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250">
-        <f>A245+1</f>
+        <f t="shared" si="3"/>
         <v>1047</v>
       </c>
       <c r="B250">
         <f>MOD(A249,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="C250">
         <f>QUOTIENT(A249,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -4713,16 +4763,16 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251">
-        <f>A246+1</f>
+        <f t="shared" si="3"/>
         <v>2047</v>
       </c>
       <c r="B251">
         <f>MOD(A249,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="C251">
         <f>QUOTIENT(A249,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -4730,16 +4780,16 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252">
-        <f>A247+1</f>
-        <v>3047</v>
+        <f t="shared" si="3"/>
+        <v>4047</v>
       </c>
       <c r="B252">
         <f>MOD(A249,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="C252">
         <f>QUOTIENT(A249,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -4747,16 +4797,16 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253">
-        <f>A248+1</f>
-        <v>4047</v>
+        <f t="shared" si="3"/>
+        <v>3047</v>
       </c>
       <c r="B253">
         <f>MOD(A249,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="C253">
         <f>QUOTIENT(A249,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -4764,16 +4814,16 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254">
-        <f>A249+1</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="B254">
         <f>MOD(A254,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>44.833836858006038</v>
+        <v>8.9667673716012075</v>
       </c>
       <c r="C254">
         <f>QUOTIENT(A254,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>70.453172205438065</v>
+        <v>14.090634441087612</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -4781,16 +4831,16 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255">
-        <f>A250+1</f>
+        <f t="shared" si="3"/>
         <v>1048</v>
       </c>
       <c r="B255">
         <f>MOD(A254,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="C255">
         <f>QUOTIENT(A254,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -4798,16 +4848,16 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256">
-        <f>A251+1</f>
+        <f t="shared" si="3"/>
         <v>2048</v>
       </c>
       <c r="B256">
         <f>MOD(A254,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="C256">
         <f>QUOTIENT(A254,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -4815,16 +4865,16 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257">
-        <f>A252+1</f>
-        <v>3048</v>
+        <f t="shared" si="3"/>
+        <v>4048</v>
       </c>
       <c r="B257">
         <f>MOD(A254,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="C257">
         <f>QUOTIENT(A254,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -4832,16 +4882,16 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258">
-        <f>A253+1</f>
-        <v>4048</v>
+        <f t="shared" si="3"/>
+        <v>3048</v>
       </c>
       <c r="B258">
         <f>MOD(A254,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="C258">
         <f>QUOTIENT(A254,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -4849,16 +4899,16 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259">
-        <f>A254+1</f>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="B259">
         <f>MOD(A259,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>57.643504531722051</v>
+        <v>11.528700906344412</v>
       </c>
       <c r="C259">
         <f>QUOTIENT(A259,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>70.453172205438065</v>
+        <v>14.090634441087612</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -4866,16 +4916,16 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260">
-        <f>A255+1</f>
+        <f t="shared" si="3"/>
         <v>1049</v>
       </c>
       <c r="B260">
         <f>MOD(A259,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="C260">
         <f>QUOTIENT(A259,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -4883,16 +4933,16 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261">
-        <f>A256+1</f>
+        <f t="shared" si="3"/>
         <v>2049</v>
       </c>
       <c r="B261">
         <f>MOD(A259,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="C261">
         <f>QUOTIENT(A259,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -4900,16 +4950,16 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262">
-        <f>A257+1</f>
-        <v>3049</v>
+        <f t="shared" si="3"/>
+        <v>4049</v>
       </c>
       <c r="B262">
         <f>MOD(A259,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="C262">
         <f>QUOTIENT(A259,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -4917,16 +4967,16 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263">
-        <f>A258+1</f>
-        <v>4049</v>
+        <f t="shared" si="3"/>
+        <v>3049</v>
       </c>
       <c r="B263">
         <f>MOD(A259,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="C263">
         <f>QUOTIENT(A259,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -4934,16 +4984,16 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264">
-        <f>A259+1</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="B264">
         <f>MOD(A264,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>70.453172205438065</v>
+        <v>14.090634441087612</v>
       </c>
       <c r="C264">
         <f>QUOTIENT(A264,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>70.453172205438065</v>
+        <v>14.090634441087612</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -4951,16 +5001,16 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265">
-        <f>A260+1</f>
+        <f t="shared" si="3"/>
         <v>1050</v>
       </c>
       <c r="B265">
         <f>MOD(A264,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="C265">
         <f>QUOTIENT(A264,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -4968,16 +5018,16 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266">
-        <f>A261+1</f>
+        <f t="shared" si="3"/>
         <v>2050</v>
       </c>
       <c r="B266">
         <f>MOD(A264,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="C266">
         <f>QUOTIENT(A264,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -4985,16 +5035,16 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267">
-        <f>A262+1</f>
-        <v>3050</v>
+        <f t="shared" si="3"/>
+        <v>4050</v>
       </c>
       <c r="B267">
         <f>MOD(A264,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="C267">
         <f>QUOTIENT(A264,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -5002,16 +5052,16 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268">
-        <f>A263+1</f>
-        <v>4050</v>
+        <f t="shared" si="3"/>
+        <v>3050</v>
       </c>
       <c r="B268">
         <f>MOD(A264,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="C268">
         <f>QUOTIENT(A264,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -5019,16 +5069,16 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269">
-        <f>A264+1</f>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="B269">
         <f>MOD(A269,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>83.262839879154072</v>
+        <v>16.652567975830816</v>
       </c>
       <c r="C269">
         <f>QUOTIENT(A269,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>70.453172205438065</v>
+        <v>14.090634441087612</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -5036,16 +5086,16 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270">
-        <f>A265+1</f>
+        <f t="shared" si="3"/>
         <v>1051</v>
       </c>
       <c r="B270">
         <f>MOD(A269,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="C270">
         <f>QUOTIENT(A269,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -5053,16 +5103,16 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271">
-        <f>A266+1</f>
+        <f t="shared" si="3"/>
         <v>2051</v>
       </c>
       <c r="B271">
         <f>MOD(A269,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="C271">
         <f>QUOTIENT(A269,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -5070,16 +5120,16 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272">
-        <f>A267+1</f>
-        <v>3051</v>
+        <f t="shared" si="3"/>
+        <v>4051</v>
       </c>
       <c r="B272">
         <f>MOD(A269,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="C272">
         <f>QUOTIENT(A269,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -5087,16 +5137,16 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273">
-        <f>A268+1</f>
-        <v>4051</v>
+        <f t="shared" si="3"/>
+        <v>3051</v>
       </c>
       <c r="B273">
         <f>MOD(A269,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="C273">
         <f>QUOTIENT(A269,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -5104,16 +5154,16 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274">
-        <f>A269+1</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="B274">
         <f>MOD(A274,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>96.072507552870093</v>
+        <v>19.214501510574017</v>
       </c>
       <c r="C274">
         <f>QUOTIENT(A274,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>70.453172205438065</v>
+        <v>14.090634441087612</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -5121,16 +5171,16 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275">
-        <f>A270+1</f>
+        <f t="shared" ref="A275:A338" si="4">A270+1</f>
         <v>1052</v>
       </c>
       <c r="B275">
         <f>MOD(A274,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="C275">
         <f>QUOTIENT(A274,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -5138,16 +5188,16 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276">
-        <f>A271+1</f>
+        <f t="shared" si="4"/>
         <v>2052</v>
       </c>
       <c r="B276">
         <f>MOD(A274,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="C276">
         <f>QUOTIENT(A274,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -5155,16 +5205,16 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277">
-        <f>A272+1</f>
-        <v>3052</v>
+        <f t="shared" si="4"/>
+        <v>4052</v>
       </c>
       <c r="B277">
         <f>MOD(A274,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="C277">
         <f>QUOTIENT(A274,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -5172,16 +5222,16 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278">
-        <f>A273+1</f>
-        <v>4052</v>
+        <f t="shared" si="4"/>
+        <v>3052</v>
       </c>
       <c r="B278">
         <f>MOD(A274,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="C278">
         <f>QUOTIENT(A274,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -5189,16 +5239,16 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279">
-        <f>A274+1</f>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="B279">
         <f>MOD(A279,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>108.8821752265861</v>
+        <v>21.776435045317221</v>
       </c>
       <c r="C279">
         <f>QUOTIENT(A279,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>70.453172205438065</v>
+        <v>14.090634441087612</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -5206,16 +5256,16 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280">
-        <f>A275+1</f>
+        <f t="shared" si="4"/>
         <v>1053</v>
       </c>
       <c r="B280">
         <f>MOD(A279,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>103.8821752265861</v>
+        <v>20.776435045317221</v>
       </c>
       <c r="C280">
         <f>QUOTIENT(A279,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -5223,16 +5273,16 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281">
-        <f>A276+1</f>
+        <f t="shared" si="4"/>
         <v>2053</v>
       </c>
       <c r="B281">
         <f>MOD(A279,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>113.8821752265861</v>
+        <v>22.776435045317221</v>
       </c>
       <c r="C281">
         <f>QUOTIENT(A279,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -5240,16 +5290,16 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282">
-        <f>A277+1</f>
-        <v>3053</v>
+        <f t="shared" si="4"/>
+        <v>4053</v>
       </c>
       <c r="B282">
         <f>MOD(A279,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>103.8821752265861</v>
+        <v>20.776435045317221</v>
       </c>
       <c r="C282">
         <f>QUOTIENT(A279,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -5257,16 +5307,16 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283">
-        <f>A278+1</f>
-        <v>4053</v>
+        <f t="shared" si="4"/>
+        <v>3053</v>
       </c>
       <c r="B283">
         <f>MOD(A279,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>113.8821752265861</v>
+        <v>22.776435045317221</v>
       </c>
       <c r="C283">
         <f>QUOTIENT(A279,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -5274,16 +5324,16 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284">
-        <f>A279+1</f>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="B284">
         <f>MOD(A284,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>6.404833836858006</v>
+        <v>1.2809667673716012</v>
       </c>
       <c r="C284">
         <f>QUOTIENT(A284,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>83.262839879154072</v>
+        <v>16.652567975830816</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -5291,16 +5341,16 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285">
-        <f>A280+1</f>
+        <f t="shared" si="4"/>
         <v>1054</v>
       </c>
       <c r="B285">
         <f>MOD(A284,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="C285">
         <f>QUOTIENT(A284,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -5308,16 +5358,16 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286">
-        <f>A281+1</f>
+        <f t="shared" si="4"/>
         <v>2054</v>
       </c>
       <c r="B286">
         <f>MOD(A284,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="C286">
         <f>QUOTIENT(A284,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -5325,16 +5375,16 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287">
-        <f>A282+1</f>
-        <v>3054</v>
+        <f t="shared" si="4"/>
+        <v>4054</v>
       </c>
       <c r="B287">
         <f>MOD(A284,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="C287">
         <f>QUOTIENT(A284,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -5342,16 +5392,16 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288">
-        <f>A283+1</f>
-        <v>4054</v>
+        <f t="shared" si="4"/>
+        <v>3054</v>
       </c>
       <c r="B288">
         <f>MOD(A284,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="C288">
         <f>QUOTIENT(A284,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -5359,16 +5409,16 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289">
-        <f>A284+1</f>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="B289">
         <f>MOD(A289,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>19.214501510574017</v>
+        <v>3.8429003021148036</v>
       </c>
       <c r="C289">
         <f>QUOTIENT(A289,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>83.262839879154072</v>
+        <v>16.652567975830816</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -5376,16 +5426,16 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290">
-        <f>A285+1</f>
+        <f t="shared" si="4"/>
         <v>1055</v>
       </c>
       <c r="B290">
         <f>MOD(A289,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="C290">
         <f>QUOTIENT(A289,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -5393,16 +5443,16 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291">
-        <f>A286+1</f>
+        <f t="shared" si="4"/>
         <v>2055</v>
       </c>
       <c r="B291">
         <f>MOD(A289,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="C291">
         <f>QUOTIENT(A289,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -5410,16 +5460,16 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292">
-        <f>A287+1</f>
-        <v>3055</v>
+        <f t="shared" si="4"/>
+        <v>4055</v>
       </c>
       <c r="B292">
         <f>MOD(A289,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="C292">
         <f>QUOTIENT(A289,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -5427,16 +5477,16 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293">
-        <f>A288+1</f>
-        <v>4055</v>
+        <f t="shared" si="4"/>
+        <v>3055</v>
       </c>
       <c r="B293">
         <f>MOD(A289,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="C293">
         <f>QUOTIENT(A289,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -5444,16 +5494,16 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294">
-        <f>A289+1</f>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="B294">
         <f>MOD(A294,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>32.024169184290031</v>
+        <v>6.404833836858006</v>
       </c>
       <c r="C294">
         <f>QUOTIENT(A294,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>83.262839879154072</v>
+        <v>16.652567975830816</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -5461,16 +5511,16 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295">
-        <f>A290+1</f>
+        <f t="shared" si="4"/>
         <v>1056</v>
       </c>
       <c r="B295">
         <f>MOD(A294,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="C295">
         <f>QUOTIENT(A294,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -5478,16 +5528,16 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296">
-        <f>A291+1</f>
+        <f t="shared" si="4"/>
         <v>2056</v>
       </c>
       <c r="B296">
         <f>MOD(A294,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="C296">
         <f>QUOTIENT(A294,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -5495,16 +5545,16 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297">
-        <f>A292+1</f>
-        <v>3056</v>
+        <f t="shared" si="4"/>
+        <v>4056</v>
       </c>
       <c r="B297">
         <f>MOD(A294,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="C297">
         <f>QUOTIENT(A294,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -5512,16 +5562,16 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298">
-        <f>A293+1</f>
-        <v>4056</v>
+        <f t="shared" si="4"/>
+        <v>3056</v>
       </c>
       <c r="B298">
         <f>MOD(A294,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="C298">
         <f>QUOTIENT(A294,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -5529,16 +5579,16 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299">
-        <f>A294+1</f>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="B299">
         <f>MOD(A299,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>44.833836858006038</v>
+        <v>8.9667673716012075</v>
       </c>
       <c r="C299">
         <f>QUOTIENT(A299,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>83.262839879154072</v>
+        <v>16.652567975830816</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -5546,16 +5596,16 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300">
-        <f>A295+1</f>
+        <f t="shared" si="4"/>
         <v>1057</v>
       </c>
       <c r="B300">
         <f>MOD(A299,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="C300">
         <f>QUOTIENT(A299,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -5563,16 +5613,16 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301">
-        <f>A296+1</f>
+        <f t="shared" si="4"/>
         <v>2057</v>
       </c>
       <c r="B301">
         <f>MOD(A299,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="C301">
         <f>QUOTIENT(A299,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -5580,16 +5630,16 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302">
-        <f>A297+1</f>
-        <v>3057</v>
+        <f t="shared" si="4"/>
+        <v>4057</v>
       </c>
       <c r="B302">
         <f>MOD(A299,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="C302">
         <f>QUOTIENT(A299,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -5597,16 +5647,16 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303">
-        <f>A298+1</f>
-        <v>4057</v>
+        <f t="shared" si="4"/>
+        <v>3057</v>
       </c>
       <c r="B303">
         <f>MOD(A299,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="C303">
         <f>QUOTIENT(A299,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -5614,16 +5664,16 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304">
-        <f>A299+1</f>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="B304">
         <f>MOD(A304,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>57.643504531722051</v>
+        <v>11.528700906344412</v>
       </c>
       <c r="C304">
         <f>QUOTIENT(A304,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>83.262839879154072</v>
+        <v>16.652567975830816</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -5631,16 +5681,16 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305">
-        <f>A300+1</f>
+        <f t="shared" si="4"/>
         <v>1058</v>
       </c>
       <c r="B305">
         <f>MOD(A304,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="C305">
         <f>QUOTIENT(A304,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -5648,16 +5698,16 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306">
-        <f>A301+1</f>
+        <f t="shared" si="4"/>
         <v>2058</v>
       </c>
       <c r="B306">
         <f>MOD(A304,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="C306">
         <f>QUOTIENT(A304,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -5665,16 +5715,16 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307">
-        <f>A302+1</f>
-        <v>3058</v>
+        <f t="shared" si="4"/>
+        <v>4058</v>
       </c>
       <c r="B307">
         <f>MOD(A304,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="C307">
         <f>QUOTIENT(A304,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -5682,16 +5732,16 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308">
-        <f>A303+1</f>
-        <v>4058</v>
+        <f t="shared" si="4"/>
+        <v>3058</v>
       </c>
       <c r="B308">
         <f>MOD(A304,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="C308">
         <f>QUOTIENT(A304,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -5699,16 +5749,16 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309">
-        <f>A304+1</f>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="B309">
         <f>MOD(A309,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>70.453172205438065</v>
+        <v>14.090634441087612</v>
       </c>
       <c r="C309">
         <f>QUOTIENT(A309,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>83.262839879154072</v>
+        <v>16.652567975830816</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -5716,16 +5766,16 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310">
-        <f>A305+1</f>
+        <f t="shared" si="4"/>
         <v>1059</v>
       </c>
       <c r="B310">
         <f>MOD(A309,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="C310">
         <f>QUOTIENT(A309,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="D310">
         <v>0</v>
@@ -5733,16 +5783,16 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311">
-        <f>A306+1</f>
+        <f t="shared" si="4"/>
         <v>2059</v>
       </c>
       <c r="B311">
         <f>MOD(A309,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="C311">
         <f>QUOTIENT(A309,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -5750,16 +5800,16 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312">
-        <f>A307+1</f>
-        <v>3059</v>
+        <f t="shared" si="4"/>
+        <v>4059</v>
       </c>
       <c r="B312">
         <f>MOD(A309,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="C312">
         <f>QUOTIENT(A309,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -5767,16 +5817,16 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313">
-        <f>A308+1</f>
-        <v>4059</v>
+        <f t="shared" si="4"/>
+        <v>3059</v>
       </c>
       <c r="B313">
         <f>MOD(A309,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="C313">
         <f>QUOTIENT(A309,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -5784,16 +5834,16 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314">
-        <f>A309+1</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="B314">
         <f>MOD(A314,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>83.262839879154072</v>
+        <v>16.652567975830816</v>
       </c>
       <c r="C314">
         <f>QUOTIENT(A314,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>83.262839879154072</v>
+        <v>16.652567975830816</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -5801,16 +5851,16 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315">
-        <f>A310+1</f>
+        <f t="shared" si="4"/>
         <v>1060</v>
       </c>
       <c r="B315">
         <f>MOD(A314,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="C315">
         <f>QUOTIENT(A314,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -5818,16 +5868,16 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316">
-        <f>A311+1</f>
+        <f t="shared" si="4"/>
         <v>2060</v>
       </c>
       <c r="B316">
         <f>MOD(A314,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="C316">
         <f>QUOTIENT(A314,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -5835,16 +5885,16 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317">
-        <f>A312+1</f>
-        <v>3060</v>
+        <f t="shared" si="4"/>
+        <v>4060</v>
       </c>
       <c r="B317">
         <f>MOD(A314,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="C317">
         <f>QUOTIENT(A314,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -5852,16 +5902,16 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318">
-        <f>A313+1</f>
-        <v>4060</v>
+        <f t="shared" si="4"/>
+        <v>3060</v>
       </c>
       <c r="B318">
         <f>MOD(A314,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="C318">
         <f>QUOTIENT(A314,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -5869,16 +5919,16 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319">
-        <f>A314+1</f>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="B319">
         <f>MOD(A319,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>96.072507552870093</v>
+        <v>19.214501510574017</v>
       </c>
       <c r="C319">
         <f>QUOTIENT(A319,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>83.262839879154072</v>
+        <v>16.652567975830816</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -5886,16 +5936,16 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320">
-        <f>A315+1</f>
+        <f t="shared" si="4"/>
         <v>1061</v>
       </c>
       <c r="B320">
         <f>MOD(A319,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="C320">
         <f>QUOTIENT(A319,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -5903,16 +5953,16 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321">
-        <f>A316+1</f>
+        <f t="shared" si="4"/>
         <v>2061</v>
       </c>
       <c r="B321">
         <f>MOD(A319,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="C321">
         <f>QUOTIENT(A319,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -5920,16 +5970,16 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322">
-        <f>A317+1</f>
-        <v>3061</v>
+        <f t="shared" si="4"/>
+        <v>4061</v>
       </c>
       <c r="B322">
         <f>MOD(A319,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="C322">
         <f>QUOTIENT(A319,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -5937,16 +5987,16 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323">
-        <f>A318+1</f>
-        <v>4061</v>
+        <f t="shared" si="4"/>
+        <v>3061</v>
       </c>
       <c r="B323">
         <f>MOD(A319,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="C323">
         <f>QUOTIENT(A319,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -5954,16 +6004,16 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324">
-        <f>A319+1</f>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="B324">
         <f>MOD(A324,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>108.8821752265861</v>
+        <v>21.776435045317221</v>
       </c>
       <c r="C324">
         <f>QUOTIENT(A324,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>83.262839879154072</v>
+        <v>16.652567975830816</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -5971,16 +6021,16 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325">
-        <f>A320+1</f>
+        <f t="shared" si="4"/>
         <v>1062</v>
       </c>
       <c r="B325">
         <f>MOD(A324,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>103.8821752265861</v>
+        <v>20.776435045317221</v>
       </c>
       <c r="C325">
         <f>QUOTIENT(A324,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -5988,16 +6038,16 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326">
-        <f>A321+1</f>
+        <f t="shared" si="4"/>
         <v>2062</v>
       </c>
       <c r="B326">
         <f>MOD(A324,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>113.8821752265861</v>
+        <v>22.776435045317221</v>
       </c>
       <c r="C326">
         <f>QUOTIENT(A324,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -6005,16 +6055,16 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327">
-        <f>A322+1</f>
-        <v>3062</v>
+        <f t="shared" si="4"/>
+        <v>4062</v>
       </c>
       <c r="B327">
         <f>MOD(A324,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>103.8821752265861</v>
+        <v>20.776435045317221</v>
       </c>
       <c r="C327">
         <f>QUOTIENT(A324,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -6022,16 +6072,16 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328">
-        <f>A323+1</f>
-        <v>4062</v>
+        <f t="shared" si="4"/>
+        <v>3062</v>
       </c>
       <c r="B328">
         <f>MOD(A324,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>113.8821752265861</v>
+        <v>22.776435045317221</v>
       </c>
       <c r="C328">
         <f>QUOTIENT(A324,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="D328">
         <v>0</v>
@@ -6039,16 +6089,16 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329">
-        <f>A324+1</f>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="B329">
         <f>MOD(A329,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>6.404833836858006</v>
+        <v>1.2809667673716012</v>
       </c>
       <c r="C329">
         <f>QUOTIENT(A329,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>96.072507552870093</v>
+        <v>19.214501510574017</v>
       </c>
       <c r="D329">
         <v>0</v>
@@ -6056,16 +6106,16 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330">
-        <f>A325+1</f>
+        <f t="shared" si="4"/>
         <v>1063</v>
       </c>
       <c r="B330">
         <f>MOD(A329,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="C330">
         <f>QUOTIENT(A329,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="D330">
         <v>0</v>
@@ -6073,16 +6123,16 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331">
-        <f>A326+1</f>
+        <f t="shared" si="4"/>
         <v>2063</v>
       </c>
       <c r="B331">
         <f>MOD(A329,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="C331">
         <f>QUOTIENT(A329,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="D331">
         <v>0</v>
@@ -6090,16 +6140,16 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332">
-        <f>A327+1</f>
-        <v>3063</v>
+        <f t="shared" si="4"/>
+        <v>4063</v>
       </c>
       <c r="B332">
         <f>MOD(A329,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>1.4048338368580062</v>
+        <v>0.2809667673716012</v>
       </c>
       <c r="C332">
         <f>QUOTIENT(A329,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="D332">
         <v>0</v>
@@ -6107,16 +6157,16 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333">
-        <f>A328+1</f>
-        <v>4063</v>
+        <f t="shared" si="4"/>
+        <v>3063</v>
       </c>
       <c r="B333">
         <f>MOD(A329,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>11.404833836858007</v>
+        <v>2.2809667673716012</v>
       </c>
       <c r="C333">
         <f>QUOTIENT(A329,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="D333">
         <v>0</v>
@@ -6124,16 +6174,16 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334">
-        <f>A329+1</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="B334">
         <f>MOD(A334,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>19.214501510574017</v>
+        <v>3.8429003021148036</v>
       </c>
       <c r="C334">
         <f>QUOTIENT(A334,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>96.072507552870093</v>
+        <v>19.214501510574017</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -6141,16 +6191,16 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335">
-        <f>A330+1</f>
+        <f t="shared" si="4"/>
         <v>1064</v>
       </c>
       <c r="B335">
         <f>MOD(A334,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="C335">
         <f>QUOTIENT(A334,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="D335">
         <v>0</v>
@@ -6158,16 +6208,16 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336">
-        <f>A331+1</f>
+        <f t="shared" si="4"/>
         <v>2064</v>
       </c>
       <c r="B336">
         <f>MOD(A334,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="C336">
         <f>QUOTIENT(A334,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="D336">
         <v>0</v>
@@ -6175,16 +6225,16 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337">
-        <f>A332+1</f>
-        <v>3064</v>
+        <f t="shared" si="4"/>
+        <v>4064</v>
       </c>
       <c r="B337">
         <f>MOD(A334,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>14.214501510574019</v>
+        <v>2.8429003021148036</v>
       </c>
       <c r="C337">
         <f>QUOTIENT(A334,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="D337">
         <v>0</v>
@@ -6192,16 +6242,16 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338">
-        <f>A333+1</f>
-        <v>4064</v>
+        <f t="shared" si="4"/>
+        <v>3064</v>
       </c>
       <c r="B338">
         <f>MOD(A334,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>24.214501510574017</v>
+        <v>4.8429003021148036</v>
       </c>
       <c r="C338">
         <f>QUOTIENT(A334,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="D338">
         <v>0</v>
@@ -6209,16 +6259,16 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339">
-        <f>A334+1</f>
+        <f t="shared" ref="A339:A402" si="5">A334+1</f>
         <v>65</v>
       </c>
       <c r="B339">
         <f>MOD(A339,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>32.024169184290031</v>
+        <v>6.404833836858006</v>
       </c>
       <c r="C339">
         <f>QUOTIENT(A339,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>96.072507552870093</v>
+        <v>19.214501510574017</v>
       </c>
       <c r="D339">
         <v>0</v>
@@ -6226,16 +6276,16 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340">
-        <f>A335+1</f>
+        <f t="shared" si="5"/>
         <v>1065</v>
       </c>
       <c r="B340">
         <f>MOD(A339,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="C340">
         <f>QUOTIENT(A339,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="D340">
         <v>0</v>
@@ -6243,16 +6293,16 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341">
-        <f>A336+1</f>
+        <f t="shared" si="5"/>
         <v>2065</v>
       </c>
       <c r="B341">
         <f>MOD(A339,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="C341">
         <f>QUOTIENT(A339,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="D341">
         <v>0</v>
@@ -6260,16 +6310,16 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342">
-        <f>A337+1</f>
-        <v>3065</v>
+        <f t="shared" si="5"/>
+        <v>4065</v>
       </c>
       <c r="B342">
         <f>MOD(A339,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>27.024169184290031</v>
+        <v>5.404833836858006</v>
       </c>
       <c r="C342">
         <f>QUOTIENT(A339,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="D342">
         <v>0</v>
@@ -6277,16 +6327,16 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343">
-        <f>A338+1</f>
-        <v>4065</v>
+        <f t="shared" si="5"/>
+        <v>3065</v>
       </c>
       <c r="B343">
         <f>MOD(A339,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>37.024169184290031</v>
+        <v>7.404833836858006</v>
       </c>
       <c r="C343">
         <f>QUOTIENT(A339,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="D343">
         <v>0</v>
@@ -6294,16 +6344,16 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344">
-        <f>A339+1</f>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="B344">
         <f>MOD(A344,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>44.833836858006038</v>
+        <v>8.9667673716012075</v>
       </c>
       <c r="C344">
         <f>QUOTIENT(A344,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>96.072507552870093</v>
+        <v>19.214501510574017</v>
       </c>
       <c r="D344">
         <v>0</v>
@@ -6311,16 +6361,16 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345">
-        <f>A340+1</f>
+        <f t="shared" si="5"/>
         <v>1066</v>
       </c>
       <c r="B345">
         <f>MOD(A344,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="C345">
         <f>QUOTIENT(A344,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="D345">
         <v>0</v>
@@ -6328,16 +6378,16 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346">
-        <f>A341+1</f>
+        <f t="shared" si="5"/>
         <v>2066</v>
       </c>
       <c r="B346">
         <f>MOD(A344,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="C346">
         <f>QUOTIENT(A344,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="D346">
         <v>0</v>
@@ -6345,16 +6395,16 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347">
-        <f>A342+1</f>
-        <v>3066</v>
+        <f t="shared" si="5"/>
+        <v>4066</v>
       </c>
       <c r="B347">
         <f>MOD(A344,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>39.833836858006038</v>
+        <v>7.9667673716012084</v>
       </c>
       <c r="C347">
         <f>QUOTIENT(A344,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="D347">
         <v>0</v>
@@ -6362,16 +6412,16 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348">
-        <f>A343+1</f>
-        <v>4066</v>
+        <f t="shared" si="5"/>
+        <v>3066</v>
       </c>
       <c r="B348">
         <f>MOD(A344,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>49.833836858006038</v>
+        <v>9.9667673716012075</v>
       </c>
       <c r="C348">
         <f>QUOTIENT(A344,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="D348">
         <v>0</v>
@@ -6379,16 +6429,16 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349">
-        <f>A344+1</f>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="B349">
         <f>MOD(A349,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>57.643504531722051</v>
+        <v>11.528700906344412</v>
       </c>
       <c r="C349">
         <f>QUOTIENT(A349,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>96.072507552870093</v>
+        <v>19.214501510574017</v>
       </c>
       <c r="D349">
         <v>0</v>
@@ -6396,16 +6446,16 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350">
-        <f>A345+1</f>
+        <f t="shared" si="5"/>
         <v>1067</v>
       </c>
       <c r="B350">
         <f>MOD(A349,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="C350">
         <f>QUOTIENT(A349,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="D350">
         <v>0</v>
@@ -6413,16 +6463,16 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351">
-        <f>A346+1</f>
+        <f t="shared" si="5"/>
         <v>2067</v>
       </c>
       <c r="B351">
         <f>MOD(A349,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="C351">
         <f>QUOTIENT(A349,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="D351">
         <v>0</v>
@@ -6430,16 +6480,16 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352">
-        <f>A347+1</f>
-        <v>3067</v>
+        <f t="shared" si="5"/>
+        <v>4067</v>
       </c>
       <c r="B352">
         <f>MOD(A349,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>52.643504531722051</v>
+        <v>10.528700906344412</v>
       </c>
       <c r="C352">
         <f>QUOTIENT(A349,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="D352">
         <v>0</v>
@@ -6447,16 +6497,16 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353">
-        <f>A348+1</f>
-        <v>4067</v>
+        <f t="shared" si="5"/>
+        <v>3067</v>
       </c>
       <c r="B353">
         <f>MOD(A349,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>62.643504531722058</v>
+        <v>12.528700906344412</v>
       </c>
       <c r="C353">
         <f>QUOTIENT(A349,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="D353">
         <v>0</v>
@@ -6464,16 +6514,16 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354">
-        <f>A349+1</f>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="B354">
         <f>MOD(A354,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>70.453172205438065</v>
+        <v>14.090634441087612</v>
       </c>
       <c r="C354">
         <f>QUOTIENT(A354,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>96.072507552870093</v>
+        <v>19.214501510574017</v>
       </c>
       <c r="D354">
         <v>0</v>
@@ -6481,16 +6531,16 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355">
-        <f>A350+1</f>
+        <f t="shared" si="5"/>
         <v>1068</v>
       </c>
       <c r="B355">
         <f>MOD(A354,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="C355">
         <f>QUOTIENT(A354,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="D355">
         <v>0</v>
@@ -6498,16 +6548,16 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356">
-        <f>A351+1</f>
+        <f t="shared" si="5"/>
         <v>2068</v>
       </c>
       <c r="B356">
         <f>MOD(A354,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="C356">
         <f>QUOTIENT(A354,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="D356">
         <v>0</v>
@@ -6515,16 +6565,16 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357">
-        <f>A352+1</f>
-        <v>3068</v>
+        <f t="shared" si="5"/>
+        <v>4068</v>
       </c>
       <c r="B357">
         <f>MOD(A354,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>65.453172205438065</v>
+        <v>13.090634441087612</v>
       </c>
       <c r="C357">
         <f>QUOTIENT(A354,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="D357">
         <v>0</v>
@@ -6532,16 +6582,16 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358">
-        <f>A353+1</f>
-        <v>4068</v>
+        <f t="shared" si="5"/>
+        <v>3068</v>
       </c>
       <c r="B358">
         <f>MOD(A354,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>75.453172205438065</v>
+        <v>15.090634441087612</v>
       </c>
       <c r="C358">
         <f>QUOTIENT(A354,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="D358">
         <v>0</v>
@@ -6549,16 +6599,16 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359">
-        <f>A354+1</f>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="B359">
         <f>MOD(A359,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>83.262839879154072</v>
+        <v>16.652567975830816</v>
       </c>
       <c r="C359">
         <f>QUOTIENT(A359,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>96.072507552870093</v>
+        <v>19.214501510574017</v>
       </c>
       <c r="D359">
         <v>0</v>
@@ -6566,16 +6616,16 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360">
-        <f>A355+1</f>
+        <f t="shared" si="5"/>
         <v>1069</v>
       </c>
       <c r="B360">
         <f>MOD(A359,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="C360">
         <f>QUOTIENT(A359,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="D360">
         <v>0</v>
@@ -6583,16 +6633,16 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361">
-        <f>A356+1</f>
+        <f t="shared" si="5"/>
         <v>2069</v>
       </c>
       <c r="B361">
         <f>MOD(A359,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="C361">
         <f>QUOTIENT(A359,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="D361">
         <v>0</v>
@@ -6600,16 +6650,16 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362">
-        <f>A357+1</f>
-        <v>3069</v>
+        <f t="shared" si="5"/>
+        <v>4069</v>
       </c>
       <c r="B362">
         <f>MOD(A359,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>78.262839879154072</v>
+        <v>15.652567975830816</v>
       </c>
       <c r="C362">
         <f>QUOTIENT(A359,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="D362">
         <v>0</v>
@@ -6617,16 +6667,16 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363">
-        <f>A358+1</f>
-        <v>4069</v>
+        <f t="shared" si="5"/>
+        <v>3069</v>
       </c>
       <c r="B363">
         <f>MOD(A359,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>88.262839879154072</v>
+        <v>17.652567975830816</v>
       </c>
       <c r="C363">
         <f>QUOTIENT(A359,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="D363">
         <v>0</v>
@@ -6634,16 +6684,16 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364">
-        <f>A359+1</f>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="B364">
         <f>MOD(A364,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>96.072507552870093</v>
+        <v>19.214501510574017</v>
       </c>
       <c r="C364">
         <f>QUOTIENT(A364,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>96.072507552870093</v>
+        <v>19.214501510574017</v>
       </c>
       <c r="D364">
         <v>0</v>
@@ -6651,16 +6701,16 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365">
-        <f>A360+1</f>
+        <f t="shared" si="5"/>
         <v>1070</v>
       </c>
       <c r="B365">
         <f>MOD(A364,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="C365">
         <f>QUOTIENT(A364,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="D365">
         <v>0</v>
@@ -6668,16 +6718,16 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366">
-        <f>A361+1</f>
+        <f t="shared" si="5"/>
         <v>2070</v>
       </c>
       <c r="B366">
         <f>MOD(A364,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="C366">
         <f>QUOTIENT(A364,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="D366">
         <v>0</v>
@@ -6685,16 +6735,16 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367">
-        <f>A362+1</f>
-        <v>3070</v>
+        <f t="shared" si="5"/>
+        <v>4070</v>
       </c>
       <c r="B367">
         <f>MOD(A364,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="C367">
         <f>QUOTIENT(A364,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="D367">
         <v>0</v>
@@ -6702,16 +6752,16 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368">
-        <f>A363+1</f>
-        <v>4070</v>
+        <f t="shared" si="5"/>
+        <v>3070</v>
       </c>
       <c r="B368">
         <f>MOD(A364,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="C368">
         <f>QUOTIENT(A364,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="D368">
         <v>0</v>
@@ -6719,16 +6769,16 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369">
-        <f>A364+1</f>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="B369">
         <f>MOD(A369,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>108.8821752265861</v>
+        <v>21.776435045317221</v>
       </c>
       <c r="C369">
         <f>QUOTIENT(A369,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>96.072507552870093</v>
+        <v>19.214501510574017</v>
       </c>
       <c r="D369">
         <v>0</v>
@@ -6736,16 +6786,16 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370">
-        <f>A365+1</f>
+        <f t="shared" si="5"/>
         <v>1071</v>
       </c>
       <c r="B370">
         <f>MOD(A369,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>103.8821752265861</v>
+        <v>20.776435045317221</v>
       </c>
       <c r="C370">
         <f>QUOTIENT(A369,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="D370">
         <v>0</v>
@@ -6753,16 +6803,16 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371">
-        <f>A366+1</f>
+        <f t="shared" si="5"/>
         <v>2071</v>
       </c>
       <c r="B371">
         <f>MOD(A369,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>113.8821752265861</v>
+        <v>22.776435045317221</v>
       </c>
       <c r="C371">
         <f>QUOTIENT(A369,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>91.072507552870093</v>
+        <v>18.214501510574017</v>
       </c>
       <c r="D371">
         <v>0</v>
@@ -6770,16 +6820,16 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372">
-        <f>A367+1</f>
-        <v>3071</v>
+        <f t="shared" si="5"/>
+        <v>4071</v>
       </c>
       <c r="B372">
         <f>MOD(A369,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>103.8821752265861</v>
+        <v>20.776435045317221</v>
       </c>
       <c r="C372">
         <f>QUOTIENT(A369,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="D372">
         <v>0</v>
@@ -6787,16 +6837,16 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373">
-        <f>A368+1</f>
-        <v>4071</v>
+        <f t="shared" si="5"/>
+        <v>3071</v>
       </c>
       <c r="B373">
         <f>MOD(A369,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>113.8821752265861</v>
+        <v>22.776435045317221</v>
       </c>
       <c r="C373">
         <f>QUOTIENT(A369,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>101.07250755287009</v>
+        <v>20.214501510574017</v>
       </c>
       <c r="D373">
         <v>0</v>

--- a/Testing/Data/AprilTags/TagPositionCalculator.xlsx
+++ b/Testing/Data/AprilTags/TagPositionCalculator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="6940" yWindow="460" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,8 +109,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="131">
+  <cellStyleXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -245,7 +263,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="131">
+  <cellStyles count="149">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -311,6 +329,15 @@
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -376,6 +403,15 @@
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -705,26 +741,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H373"/>
+  <dimension ref="A1:L373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -738,7 +774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -752,7 +788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -767,14 +803,14 @@
       </c>
       <c r="F4">
         <f>B2*B12*B6</f>
-        <v>69.17220543806647</v>
+        <v>92.229607250755294</v>
       </c>
       <c r="G4">
         <f>B2*C12*B6</f>
-        <v>61.486404833836865</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>81.981873111782477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -786,26 +822,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <f>B1/B5</f>
-        <v>9.0634441087613302E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>1.2084592145015106E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <f>B3*B6</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="C7">
         <f>C3*B6</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="F7">
         <f t="shared" ref="F7:G11" si="0">B7/$B$6</f>
@@ -815,18 +851,30 @@
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7">
+        <f>B8-B7</f>
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <f>J7/2</f>
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <f>K7+B7</f>
+        <v>5.1238670694864048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <f>(B3+B5)*B6</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="C8">
         <f>C7</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -836,18 +884,22 @@
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="J8">
+        <f>B11-B7</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
         <f>B7</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="C9">
         <f>B8</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -858,17 +910,17 @@
         <v>755</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
         <f>B8</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="C10">
         <f>C9</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -879,28 +931,28 @@
         <v>755</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <f>((B3+B5)/2)*B6</f>
-        <v>3.4214501510574022</v>
+        <f>(B8+B7)/2</f>
+        <v>5.1238670694864048</v>
       </c>
       <c r="C11">
         <f>B11</f>
-        <v>3.4214501510574022</v>
+        <v>5.1238670694864048</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>377.5</v>
+        <v>424</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>377.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -911,17 +963,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14">
         <f>MOD(A14,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>3.4214501510574022</v>
+        <v>5.1238670694864048</v>
       </c>
       <c r="C14">
         <f>QUOTIENT(A14,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>3.4214501510574022</v>
+        <v>5.1238670694864048</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -932,25 +984,25 @@
       </c>
       <c r="G14">
         <f>B14/$B$6</f>
-        <v>377.5</v>
+        <v>424</v>
       </c>
       <c r="H14">
         <f>C14/$B$6</f>
-        <v>377.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <f>1000+A14</f>
         <v>1000</v>
       </c>
       <c r="B15">
         <f>MOD(A14,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="C15">
         <f>QUOTIENT(A14,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -968,18 +1020,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:12">
       <c r="A16">
         <f>2000+A14</f>
         <v>2000</v>
       </c>
       <c r="B16">
         <f>MOD(A14,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="C16">
         <f>QUOTIENT(A14,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1003,11 +1055,11 @@
       </c>
       <c r="B17">
         <f>MOD(A14,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="C17">
         <f>QUOTIENT(A14,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1031,11 +1083,11 @@
       </c>
       <c r="B18">
         <f>MOD(A14,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="C18">
         <f>QUOTIENT(A14,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1060,11 +1112,11 @@
       </c>
       <c r="B19">
         <f>MOD(A19,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>11.10725075528701</v>
+        <v>15.371601208459214</v>
       </c>
       <c r="C19">
         <f>QUOTIENT(A19,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>3.4214501510574022</v>
+        <v>5.1238670694864048</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1075,11 +1127,11 @@
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>1225.5</v>
+        <v>1272</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>377.5</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1089,11 +1141,11 @@
       </c>
       <c r="B20">
         <f>MOD(A19,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="C20">
         <f>QUOTIENT(A19,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1118,11 +1170,11 @@
       </c>
       <c r="B21">
         <f>MOD(A19,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="C21">
         <f>QUOTIENT(A19,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1147,11 +1199,11 @@
       </c>
       <c r="B22">
         <f>MOD(A19,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="C22">
         <f>QUOTIENT(A19,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1176,11 +1228,11 @@
       </c>
       <c r="B23">
         <f>MOD(A19,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="C23">
         <f>QUOTIENT(A19,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1205,11 +1257,11 @@
       </c>
       <c r="B24">
         <f>MOD(A24,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>18.793051359516618</v>
+        <v>25.619335347432024</v>
       </c>
       <c r="C24">
         <f>QUOTIENT(A24,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>3.4214501510574022</v>
+        <v>5.1238670694864048</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1220,11 +1272,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>2073.5</v>
+        <v>2120</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
-        <v>377.5</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1234,11 +1286,11 @@
       </c>
       <c r="B25">
         <f>MOD(A24,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="C25">
         <f>QUOTIENT(A24,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1263,11 +1315,11 @@
       </c>
       <c r="B26">
         <f>MOD(A24,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="C26">
         <f>QUOTIENT(A24,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1292,11 +1344,11 @@
       </c>
       <c r="B27">
         <f>MOD(A24,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="C27">
         <f>QUOTIENT(A24,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1321,11 +1373,11 @@
       </c>
       <c r="B28">
         <f>MOD(A24,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="C28">
         <f>QUOTIENT(A24,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1350,11 +1402,11 @@
       </c>
       <c r="B29">
         <f>MOD(A29,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>26.478851963746227</v>
+        <v>35.86706948640483</v>
       </c>
       <c r="C29">
         <f>QUOTIENT(A29,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>3.4214501510574022</v>
+        <v>5.1238670694864048</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1365,11 +1417,11 @@
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>2921.5</v>
+        <v>2967.9999999999995</v>
       </c>
       <c r="H29">
         <f t="shared" si="3"/>
-        <v>377.5</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1379,11 +1431,11 @@
       </c>
       <c r="B30">
         <f>MOD(A29,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="C30">
         <f>QUOTIENT(A29,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1408,11 +1460,11 @@
       </c>
       <c r="B31">
         <f>MOD(A29,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="C31">
         <f>QUOTIENT(A29,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1423,7 +1475,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
       <c r="H31">
         <f t="shared" si="3"/>
@@ -1437,11 +1489,11 @@
       </c>
       <c r="B32">
         <f>MOD(A29,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="C32">
         <f>QUOTIENT(A29,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1466,11 +1518,11 @@
       </c>
       <c r="B33">
         <f>MOD(A29,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="C33">
         <f>QUOTIENT(A29,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1481,7 +1533,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
       <c r="H33">
         <f t="shared" si="3"/>
@@ -1495,11 +1547,11 @@
       </c>
       <c r="B34">
         <f>MOD(A34,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>34.164652567975835</v>
+        <v>46.114803625377647</v>
       </c>
       <c r="C34">
         <f>QUOTIENT(A34,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>3.4214501510574022</v>
+        <v>5.1238670694864048</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1510,11 +1562,11 @@
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>3769.5</v>
+        <v>3816.0000000000005</v>
       </c>
       <c r="H34">
         <f t="shared" si="3"/>
-        <v>377.5</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1524,11 +1576,11 @@
       </c>
       <c r="B35">
         <f>MOD(A34,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="C35">
         <f>QUOTIENT(A34,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1539,7 +1591,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
       <c r="H35">
         <f t="shared" si="3"/>
@@ -1553,11 +1605,11 @@
       </c>
       <c r="B36">
         <f>MOD(A34,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="C36">
         <f>QUOTIENT(A34,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1582,11 +1634,11 @@
       </c>
       <c r="B37">
         <f>MOD(A34,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="C37">
         <f>QUOTIENT(A34,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1597,7 +1649,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
       <c r="H37">
         <f t="shared" si="3"/>
@@ -1611,11 +1663,11 @@
       </c>
       <c r="B38">
         <f>MOD(A34,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="C38">
         <f>QUOTIENT(A34,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1640,11 +1692,11 @@
       </c>
       <c r="B39">
         <f>MOD(A39,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>41.850453172205441</v>
+        <v>56.362537764350449</v>
       </c>
       <c r="C39">
         <f>QUOTIENT(A39,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>3.4214501510574022</v>
+        <v>5.1238670694864048</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1655,11 +1707,11 @@
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
-        <v>4617.5</v>
+        <v>4664</v>
       </c>
       <c r="H39">
         <f t="shared" si="3"/>
-        <v>377.5</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1669,11 +1721,11 @@
       </c>
       <c r="B40">
         <f>MOD(A39,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="C40">
         <f>QUOTIENT(A39,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1698,11 +1750,11 @@
       </c>
       <c r="B41">
         <f>MOD(A39,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="C41">
         <f>QUOTIENT(A39,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1727,11 +1779,11 @@
       </c>
       <c r="B42">
         <f>MOD(A39,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="C42">
         <f>QUOTIENT(A39,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1756,11 +1808,11 @@
       </c>
       <c r="B43">
         <f>MOD(A39,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="C43">
         <f>QUOTIENT(A39,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1785,11 +1837,11 @@
       </c>
       <c r="B44">
         <f>MOD(A44,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>49.536253776435046</v>
+        <v>66.610271903323266</v>
       </c>
       <c r="C44">
         <f>QUOTIENT(A44,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>3.4214501510574022</v>
+        <v>5.1238670694864048</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1800,11 +1852,11 @@
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
-        <v>5465.5</v>
+        <v>5512</v>
       </c>
       <c r="H44">
         <f t="shared" si="3"/>
-        <v>377.5</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1814,11 +1866,11 @@
       </c>
       <c r="B45">
         <f>MOD(A44,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="C45">
         <f>QUOTIENT(A44,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1843,11 +1895,11 @@
       </c>
       <c r="B46">
         <f>MOD(A44,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="C46">
         <f>QUOTIENT(A44,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1872,11 +1924,11 @@
       </c>
       <c r="B47">
         <f>MOD(A44,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="C47">
         <f>QUOTIENT(A44,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1901,11 +1953,11 @@
       </c>
       <c r="B48">
         <f>MOD(A44,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="C48">
         <f>QUOTIENT(A44,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1930,11 +1982,11 @@
       </c>
       <c r="B49">
         <f>MOD(A49,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>57.222054380664659</v>
+        <v>76.858006042296068</v>
       </c>
       <c r="C49">
         <f>QUOTIENT(A49,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>3.4214501510574022</v>
+        <v>5.1238670694864048</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1945,11 +1997,11 @@
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
-        <v>6313.5</v>
+        <v>6360</v>
       </c>
       <c r="H49">
         <f t="shared" si="3"/>
-        <v>377.5</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1959,11 +2011,11 @@
       </c>
       <c r="B50">
         <f>MOD(A49,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="C50">
         <f>QUOTIENT(A49,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1974,7 +2026,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
       <c r="H50">
         <f t="shared" si="3"/>
@@ -1988,11 +2040,11 @@
       </c>
       <c r="B51">
         <f>MOD(A49,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="C51">
         <f>QUOTIENT(A49,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2003,7 +2055,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
       <c r="H51">
         <f t="shared" si="3"/>
@@ -2017,11 +2069,11 @@
       </c>
       <c r="B52">
         <f>MOD(A49,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="C52">
         <f>QUOTIENT(A49,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2032,7 +2084,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
       <c r="H52">
         <f t="shared" si="3"/>
@@ -2046,11 +2098,11 @@
       </c>
       <c r="B53">
         <f>MOD(A49,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="C53">
         <f>QUOTIENT(A49,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2061,7 +2113,7 @@
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
       <c r="H53">
         <f t="shared" si="3"/>
@@ -2075,11 +2127,11 @@
       </c>
       <c r="B54">
         <f>MOD(A54,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>64.907854984894271</v>
+        <v>87.105740181268885</v>
       </c>
       <c r="C54">
         <f>QUOTIENT(A54,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>3.4214501510574022</v>
+        <v>5.1238670694864048</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2090,11 +2142,11 @@
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
-        <v>7161.5000000000009</v>
+        <v>7208</v>
       </c>
       <c r="H54">
         <f t="shared" si="3"/>
-        <v>377.5</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2104,11 +2156,11 @@
       </c>
       <c r="B55">
         <f>MOD(A54,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>62.329305135951671</v>
+        <v>83.105740181268885</v>
       </c>
       <c r="C55">
         <f>QUOTIENT(A54,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2133,11 +2185,11 @@
       </c>
       <c r="B56">
         <f>MOD(A54,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>68.329305135951671</v>
+        <v>91.105740181268885</v>
       </c>
       <c r="C56">
         <f>QUOTIENT(A54,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2162,11 +2214,11 @@
       </c>
       <c r="B57">
         <f>MOD(A54,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>62.329305135951671</v>
+        <v>83.105740181268885</v>
       </c>
       <c r="C57">
         <f>QUOTIENT(A54,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2191,11 +2243,11 @@
       </c>
       <c r="B58">
         <f>MOD(A54,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>68.329305135951671</v>
+        <v>91.105740181268885</v>
       </c>
       <c r="C58">
         <f>QUOTIENT(A54,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2220,11 +2272,11 @@
       </c>
       <c r="B59">
         <f>MOD(A59,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>3.4214501510574022</v>
+        <v>5.1238670694864048</v>
       </c>
       <c r="C59">
         <f>QUOTIENT(A59,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>11.10725075528701</v>
+        <v>15.371601208459214</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2235,11 +2287,11 @@
       </c>
       <c r="G59">
         <f t="shared" si="2"/>
-        <v>377.5</v>
+        <v>424</v>
       </c>
       <c r="H59">
         <f t="shared" si="3"/>
-        <v>1225.5</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2249,11 +2301,11 @@
       </c>
       <c r="B60">
         <f>MOD(A59,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="C60">
         <f>QUOTIENT(A59,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2278,11 +2330,11 @@
       </c>
       <c r="B61">
         <f>MOD(A59,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="C61">
         <f>QUOTIENT(A59,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2307,11 +2359,11 @@
       </c>
       <c r="B62">
         <f>MOD(A59,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="C62">
         <f>QUOTIENT(A59,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2336,11 +2388,11 @@
       </c>
       <c r="B63">
         <f>MOD(A59,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="C63">
         <f>QUOTIENT(A59,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2365,11 +2417,11 @@
       </c>
       <c r="B64">
         <f>MOD(A64,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>11.10725075528701</v>
+        <v>15.371601208459214</v>
       </c>
       <c r="C64">
         <f>QUOTIENT(A64,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>11.10725075528701</v>
+        <v>15.371601208459214</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2380,11 +2432,11 @@
       </c>
       <c r="G64">
         <f t="shared" si="2"/>
-        <v>1225.5</v>
+        <v>1272</v>
       </c>
       <c r="H64">
         <f t="shared" si="3"/>
-        <v>1225.5</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2394,11 +2446,11 @@
       </c>
       <c r="B65">
         <f>MOD(A64,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="C65">
         <f>QUOTIENT(A64,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2423,11 +2475,11 @@
       </c>
       <c r="B66">
         <f>MOD(A64,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="C66">
         <f>QUOTIENT(A64,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2452,11 +2504,11 @@
       </c>
       <c r="B67">
         <f>MOD(A64,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="C67">
         <f>QUOTIENT(A64,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2481,11 +2533,11 @@
       </c>
       <c r="B68">
         <f>MOD(A64,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="C68">
         <f>QUOTIENT(A64,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2510,11 +2562,11 @@
       </c>
       <c r="B69">
         <f>MOD(A69,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>18.793051359516618</v>
+        <v>25.619335347432024</v>
       </c>
       <c r="C69">
         <f>QUOTIENT(A69,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>11.10725075528701</v>
+        <v>15.371601208459214</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2525,11 +2577,11 @@
       </c>
       <c r="G69">
         <f t="shared" si="2"/>
-        <v>2073.5</v>
+        <v>2120</v>
       </c>
       <c r="H69">
         <f t="shared" si="3"/>
-        <v>1225.5</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2539,11 +2591,11 @@
       </c>
       <c r="B70">
         <f>MOD(A69,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="C70">
         <f>QUOTIENT(A69,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2568,11 +2620,11 @@
       </c>
       <c r="B71">
         <f>MOD(A69,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="C71">
         <f>QUOTIENT(A69,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2597,11 +2649,11 @@
       </c>
       <c r="B72">
         <f>MOD(A69,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="C72">
         <f>QUOTIENT(A69,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2626,11 +2678,11 @@
       </c>
       <c r="B73">
         <f>MOD(A69,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="C73">
         <f>QUOTIENT(A69,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2655,11 +2707,11 @@
       </c>
       <c r="B74">
         <f>MOD(A74,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>26.478851963746227</v>
+        <v>35.86706948640483</v>
       </c>
       <c r="C74">
         <f>QUOTIENT(A74,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>11.10725075528701</v>
+        <v>15.371601208459214</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2670,11 +2722,11 @@
       </c>
       <c r="G74">
         <f t="shared" si="2"/>
-        <v>2921.5</v>
+        <v>2967.9999999999995</v>
       </c>
       <c r="H74">
         <f t="shared" si="3"/>
-        <v>1225.5</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2684,11 +2736,11 @@
       </c>
       <c r="B75">
         <f>MOD(A74,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="C75">
         <f>QUOTIENT(A74,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2713,11 +2765,11 @@
       </c>
       <c r="B76">
         <f>MOD(A74,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="C76">
         <f>QUOTIENT(A74,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2728,7 +2780,7 @@
       </c>
       <c r="G76">
         <f t="shared" si="2"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
       <c r="H76">
         <f t="shared" si="3"/>
@@ -2742,11 +2794,11 @@
       </c>
       <c r="B77">
         <f>MOD(A74,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="C77">
         <f>QUOTIENT(A74,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2771,11 +2823,11 @@
       </c>
       <c r="B78">
         <f>MOD(A74,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="C78">
         <f>QUOTIENT(A74,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2786,7 +2838,7 @@
       </c>
       <c r="G78">
         <f t="shared" si="2"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
       <c r="H78">
         <f t="shared" si="3"/>
@@ -2800,11 +2852,11 @@
       </c>
       <c r="B79">
         <f>MOD(A79,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>34.164652567975835</v>
+        <v>46.114803625377647</v>
       </c>
       <c r="C79">
         <f>QUOTIENT(A79,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>11.10725075528701</v>
+        <v>15.371601208459214</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2815,11 +2867,11 @@
       </c>
       <c r="G79">
         <f t="shared" ref="G79:G142" si="6">B79/$B$6</f>
-        <v>3769.5</v>
+        <v>3816.0000000000005</v>
       </c>
       <c r="H79">
         <f t="shared" ref="H79:H142" si="7">C79/$B$6</f>
-        <v>1225.5</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2829,11 +2881,11 @@
       </c>
       <c r="B80">
         <f>MOD(A79,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="C80">
         <f>QUOTIENT(A79,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2844,7 +2896,7 @@
       </c>
       <c r="G80">
         <f t="shared" si="6"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
       <c r="H80">
         <f t="shared" si="7"/>
@@ -2858,11 +2910,11 @@
       </c>
       <c r="B81">
         <f>MOD(A79,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="C81">
         <f>QUOTIENT(A79,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2887,11 +2939,11 @@
       </c>
       <c r="B82">
         <f>MOD(A79,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="C82">
         <f>QUOTIENT(A79,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2902,7 +2954,7 @@
       </c>
       <c r="G82">
         <f t="shared" si="6"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
       <c r="H82">
         <f t="shared" si="7"/>
@@ -2916,11 +2968,11 @@
       </c>
       <c r="B83">
         <f>MOD(A79,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="C83">
         <f>QUOTIENT(A79,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2945,11 +2997,11 @@
       </c>
       <c r="B84">
         <f>MOD(A84,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>41.850453172205441</v>
+        <v>56.362537764350449</v>
       </c>
       <c r="C84">
         <f>QUOTIENT(A84,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>11.10725075528701</v>
+        <v>15.371601208459214</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2960,11 +3012,11 @@
       </c>
       <c r="G84">
         <f t="shared" si="6"/>
-        <v>4617.5</v>
+        <v>4664</v>
       </c>
       <c r="H84">
         <f t="shared" si="7"/>
-        <v>1225.5</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2974,11 +3026,11 @@
       </c>
       <c r="B85">
         <f>MOD(A84,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="C85">
         <f>QUOTIENT(A84,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3003,11 +3055,11 @@
       </c>
       <c r="B86">
         <f>MOD(A84,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="C86">
         <f>QUOTIENT(A84,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3032,11 +3084,11 @@
       </c>
       <c r="B87">
         <f>MOD(A84,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="C87">
         <f>QUOTIENT(A84,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3061,11 +3113,11 @@
       </c>
       <c r="B88">
         <f>MOD(A84,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="C88">
         <f>QUOTIENT(A84,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3090,11 +3142,11 @@
       </c>
       <c r="B89">
         <f>MOD(A89,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>49.536253776435046</v>
+        <v>66.610271903323266</v>
       </c>
       <c r="C89">
         <f>QUOTIENT(A89,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>11.10725075528701</v>
+        <v>15.371601208459214</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3105,11 +3157,11 @@
       </c>
       <c r="G89">
         <f t="shared" si="6"/>
-        <v>5465.5</v>
+        <v>5512</v>
       </c>
       <c r="H89">
         <f t="shared" si="7"/>
-        <v>1225.5</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3119,11 +3171,11 @@
       </c>
       <c r="B90">
         <f>MOD(A89,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="C90">
         <f>QUOTIENT(A89,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3148,11 +3200,11 @@
       </c>
       <c r="B91">
         <f>MOD(A89,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="C91">
         <f>QUOTIENT(A89,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3177,11 +3229,11 @@
       </c>
       <c r="B92">
         <f>MOD(A89,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="C92">
         <f>QUOTIENT(A89,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3206,11 +3258,11 @@
       </c>
       <c r="B93">
         <f>MOD(A89,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="C93">
         <f>QUOTIENT(A89,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3235,11 +3287,11 @@
       </c>
       <c r="B94">
         <f>MOD(A94,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>57.222054380664659</v>
+        <v>76.858006042296068</v>
       </c>
       <c r="C94">
         <f>QUOTIENT(A94,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>11.10725075528701</v>
+        <v>15.371601208459214</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3250,11 +3302,11 @@
       </c>
       <c r="G94">
         <f t="shared" si="6"/>
-        <v>6313.5</v>
+        <v>6360</v>
       </c>
       <c r="H94">
         <f t="shared" si="7"/>
-        <v>1225.5</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3264,11 +3316,11 @@
       </c>
       <c r="B95">
         <f>MOD(A94,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="C95">
         <f>QUOTIENT(A94,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3279,7 +3331,7 @@
       </c>
       <c r="G95">
         <f t="shared" si="6"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
       <c r="H95">
         <f t="shared" si="7"/>
@@ -3293,11 +3345,11 @@
       </c>
       <c r="B96">
         <f>MOD(A94,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="C96">
         <f>QUOTIENT(A94,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3308,7 +3360,7 @@
       </c>
       <c r="G96">
         <f t="shared" si="6"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
       <c r="H96">
         <f t="shared" si="7"/>
@@ -3322,11 +3374,11 @@
       </c>
       <c r="B97">
         <f>MOD(A94,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="C97">
         <f>QUOTIENT(A94,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3337,7 +3389,7 @@
       </c>
       <c r="G97">
         <f t="shared" si="6"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
       <c r="H97">
         <f t="shared" si="7"/>
@@ -3351,11 +3403,11 @@
       </c>
       <c r="B98">
         <f>MOD(A94,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="C98">
         <f>QUOTIENT(A94,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -3366,7 +3418,7 @@
       </c>
       <c r="G98">
         <f t="shared" si="6"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
       <c r="H98">
         <f t="shared" si="7"/>
@@ -3380,11 +3432,11 @@
       </c>
       <c r="B99">
         <f>MOD(A99,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>64.907854984894271</v>
+        <v>87.105740181268885</v>
       </c>
       <c r="C99">
         <f>QUOTIENT(A99,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>11.10725075528701</v>
+        <v>15.371601208459214</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -3395,11 +3447,11 @@
       </c>
       <c r="G99">
         <f t="shared" si="6"/>
-        <v>7161.5000000000009</v>
+        <v>7208</v>
       </c>
       <c r="H99">
         <f t="shared" si="7"/>
-        <v>1225.5</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3409,11 +3461,11 @@
       </c>
       <c r="B100">
         <f>MOD(A99,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>62.329305135951671</v>
+        <v>83.105740181268885</v>
       </c>
       <c r="C100">
         <f>QUOTIENT(A99,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -3438,11 +3490,11 @@
       </c>
       <c r="B101">
         <f>MOD(A99,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>68.329305135951671</v>
+        <v>91.105740181268885</v>
       </c>
       <c r="C101">
         <f>QUOTIENT(A99,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3467,11 +3519,11 @@
       </c>
       <c r="B102">
         <f>MOD(A99,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>62.329305135951671</v>
+        <v>83.105740181268885</v>
       </c>
       <c r="C102">
         <f>QUOTIENT(A99,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -3496,11 +3548,11 @@
       </c>
       <c r="B103">
         <f>MOD(A99,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>68.329305135951671</v>
+        <v>91.105740181268885</v>
       </c>
       <c r="C103">
         <f>QUOTIENT(A99,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3525,11 +3577,11 @@
       </c>
       <c r="B104">
         <f>MOD(A104,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>3.4214501510574022</v>
+        <v>5.1238670694864048</v>
       </c>
       <c r="C104">
         <f>QUOTIENT(A104,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>18.793051359516618</v>
+        <v>25.619335347432024</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3540,11 +3592,11 @@
       </c>
       <c r="G104">
         <f t="shared" si="6"/>
-        <v>377.5</v>
+        <v>424</v>
       </c>
       <c r="H104">
         <f t="shared" si="7"/>
-        <v>2073.5</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3554,11 +3606,11 @@
       </c>
       <c r="B105">
         <f>MOD(A104,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="C105">
         <f>QUOTIENT(A104,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3583,11 +3635,11 @@
       </c>
       <c r="B106">
         <f>MOD(A104,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="C106">
         <f>QUOTIENT(A104,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -3612,11 +3664,11 @@
       </c>
       <c r="B107">
         <f>MOD(A104,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="C107">
         <f>QUOTIENT(A104,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3641,11 +3693,11 @@
       </c>
       <c r="B108">
         <f>MOD(A104,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="C108">
         <f>QUOTIENT(A104,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -3670,11 +3722,11 @@
       </c>
       <c r="B109">
         <f>MOD(A109,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>11.10725075528701</v>
+        <v>15.371601208459214</v>
       </c>
       <c r="C109">
         <f>QUOTIENT(A109,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>18.793051359516618</v>
+        <v>25.619335347432024</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3685,11 +3737,11 @@
       </c>
       <c r="G109">
         <f t="shared" si="6"/>
-        <v>1225.5</v>
+        <v>1272</v>
       </c>
       <c r="H109">
         <f t="shared" si="7"/>
-        <v>2073.5</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3699,11 +3751,11 @@
       </c>
       <c r="B110">
         <f>MOD(A109,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="C110">
         <f>QUOTIENT(A109,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -3728,11 +3780,11 @@
       </c>
       <c r="B111">
         <f>MOD(A109,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="C111">
         <f>QUOTIENT(A109,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -3757,11 +3809,11 @@
       </c>
       <c r="B112">
         <f>MOD(A109,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="C112">
         <f>QUOTIENT(A109,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -3786,11 +3838,11 @@
       </c>
       <c r="B113">
         <f>MOD(A109,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="C113">
         <f>QUOTIENT(A109,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3815,11 +3867,11 @@
       </c>
       <c r="B114">
         <f>MOD(A114,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>18.793051359516618</v>
+        <v>25.619335347432024</v>
       </c>
       <c r="C114">
         <f>QUOTIENT(A114,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>18.793051359516618</v>
+        <v>25.619335347432024</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3830,11 +3882,11 @@
       </c>
       <c r="G114">
         <f t="shared" si="6"/>
-        <v>2073.5</v>
+        <v>2120</v>
       </c>
       <c r="H114">
         <f t="shared" si="7"/>
-        <v>2073.5</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3844,11 +3896,11 @@
       </c>
       <c r="B115">
         <f>MOD(A114,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="C115">
         <f>QUOTIENT(A114,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3873,11 +3925,11 @@
       </c>
       <c r="B116">
         <f>MOD(A114,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="C116">
         <f>QUOTIENT(A114,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -3902,11 +3954,11 @@
       </c>
       <c r="B117">
         <f>MOD(A114,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="C117">
         <f>QUOTIENT(A114,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3931,11 +3983,11 @@
       </c>
       <c r="B118">
         <f>MOD(A114,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="C118">
         <f>QUOTIENT(A114,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -3960,11 +4012,11 @@
       </c>
       <c r="B119">
         <f>MOD(A119,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>26.478851963746227</v>
+        <v>35.86706948640483</v>
       </c>
       <c r="C119">
         <f>QUOTIENT(A119,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>18.793051359516618</v>
+        <v>25.619335347432024</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3975,11 +4027,11 @@
       </c>
       <c r="G119">
         <f t="shared" si="6"/>
-        <v>2921.5</v>
+        <v>2967.9999999999995</v>
       </c>
       <c r="H119">
         <f t="shared" si="7"/>
-        <v>2073.5</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3989,11 +4041,11 @@
       </c>
       <c r="B120">
         <f>MOD(A119,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="C120">
         <f>QUOTIENT(A119,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -4018,11 +4070,11 @@
       </c>
       <c r="B121">
         <f>MOD(A119,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="C121">
         <f>QUOTIENT(A119,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -4033,7 +4085,7 @@
       </c>
       <c r="G121">
         <f t="shared" si="6"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
       <c r="H121">
         <f t="shared" si="7"/>
@@ -4047,11 +4099,11 @@
       </c>
       <c r="B122">
         <f>MOD(A119,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="C122">
         <f>QUOTIENT(A119,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -4076,11 +4128,11 @@
       </c>
       <c r="B123">
         <f>MOD(A119,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="C123">
         <f>QUOTIENT(A119,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -4091,7 +4143,7 @@
       </c>
       <c r="G123">
         <f t="shared" si="6"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
       <c r="H123">
         <f t="shared" si="7"/>
@@ -4105,11 +4157,11 @@
       </c>
       <c r="B124">
         <f>MOD(A124,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>34.164652567975835</v>
+        <v>46.114803625377647</v>
       </c>
       <c r="C124">
         <f>QUOTIENT(A124,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>18.793051359516618</v>
+        <v>25.619335347432024</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -4120,11 +4172,11 @@
       </c>
       <c r="G124">
         <f t="shared" si="6"/>
-        <v>3769.5</v>
+        <v>3816.0000000000005</v>
       </c>
       <c r="H124">
         <f t="shared" si="7"/>
-        <v>2073.5</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4134,11 +4186,11 @@
       </c>
       <c r="B125">
         <f>MOD(A124,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="C125">
         <f>QUOTIENT(A124,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -4149,7 +4201,7 @@
       </c>
       <c r="G125">
         <f t="shared" si="6"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
       <c r="H125">
         <f t="shared" si="7"/>
@@ -4163,11 +4215,11 @@
       </c>
       <c r="B126">
         <f>MOD(A124,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="C126">
         <f>QUOTIENT(A124,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -4192,11 +4244,11 @@
       </c>
       <c r="B127">
         <f>MOD(A124,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="C127">
         <f>QUOTIENT(A124,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -4207,7 +4259,7 @@
       </c>
       <c r="G127">
         <f t="shared" si="6"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
       <c r="H127">
         <f t="shared" si="7"/>
@@ -4221,11 +4273,11 @@
       </c>
       <c r="B128">
         <f>MOD(A124,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="C128">
         <f>QUOTIENT(A124,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -4250,11 +4302,11 @@
       </c>
       <c r="B129">
         <f>MOD(A129,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>41.850453172205441</v>
+        <v>56.362537764350449</v>
       </c>
       <c r="C129">
         <f>QUOTIENT(A129,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>18.793051359516618</v>
+        <v>25.619335347432024</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -4265,11 +4317,11 @@
       </c>
       <c r="G129">
         <f t="shared" si="6"/>
-        <v>4617.5</v>
+        <v>4664</v>
       </c>
       <c r="H129">
         <f t="shared" si="7"/>
-        <v>2073.5</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4279,11 +4331,11 @@
       </c>
       <c r="B130">
         <f>MOD(A129,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="C130">
         <f>QUOTIENT(A129,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -4308,11 +4360,11 @@
       </c>
       <c r="B131">
         <f>MOD(A129,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="C131">
         <f>QUOTIENT(A129,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -4337,11 +4389,11 @@
       </c>
       <c r="B132">
         <f>MOD(A129,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="C132">
         <f>QUOTIENT(A129,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -4366,11 +4418,11 @@
       </c>
       <c r="B133">
         <f>MOD(A129,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="C133">
         <f>QUOTIENT(A129,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -4395,11 +4447,11 @@
       </c>
       <c r="B134">
         <f>MOD(A134,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>49.536253776435046</v>
+        <v>66.610271903323266</v>
       </c>
       <c r="C134">
         <f>QUOTIENT(A134,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>18.793051359516618</v>
+        <v>25.619335347432024</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -4410,11 +4462,11 @@
       </c>
       <c r="G134">
         <f t="shared" si="6"/>
-        <v>5465.5</v>
+        <v>5512</v>
       </c>
       <c r="H134">
         <f t="shared" si="7"/>
-        <v>2073.5</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4424,11 +4476,11 @@
       </c>
       <c r="B135">
         <f>MOD(A134,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="C135">
         <f>QUOTIENT(A134,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -4453,11 +4505,11 @@
       </c>
       <c r="B136">
         <f>MOD(A134,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="C136">
         <f>QUOTIENT(A134,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -4482,11 +4534,11 @@
       </c>
       <c r="B137">
         <f>MOD(A134,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="C137">
         <f>QUOTIENT(A134,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -4511,11 +4563,11 @@
       </c>
       <c r="B138">
         <f>MOD(A134,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="C138">
         <f>QUOTIENT(A134,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -4540,11 +4592,11 @@
       </c>
       <c r="B139">
         <f>MOD(A139,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>57.222054380664659</v>
+        <v>76.858006042296068</v>
       </c>
       <c r="C139">
         <f>QUOTIENT(A139,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>18.793051359516618</v>
+        <v>25.619335347432024</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -4555,11 +4607,11 @@
       </c>
       <c r="G139">
         <f t="shared" si="6"/>
-        <v>6313.5</v>
+        <v>6360</v>
       </c>
       <c r="H139">
         <f t="shared" si="7"/>
-        <v>2073.5</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4569,11 +4621,11 @@
       </c>
       <c r="B140">
         <f>MOD(A139,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="C140">
         <f>QUOTIENT(A139,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -4584,7 +4636,7 @@
       </c>
       <c r="G140">
         <f t="shared" si="6"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
       <c r="H140">
         <f t="shared" si="7"/>
@@ -4598,11 +4650,11 @@
       </c>
       <c r="B141">
         <f>MOD(A139,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="C141">
         <f>QUOTIENT(A139,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -4613,7 +4665,7 @@
       </c>
       <c r="G141">
         <f t="shared" si="6"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
       <c r="H141">
         <f t="shared" si="7"/>
@@ -4627,11 +4679,11 @@
       </c>
       <c r="B142">
         <f>MOD(A139,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="C142">
         <f>QUOTIENT(A139,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -4642,7 +4694,7 @@
       </c>
       <c r="G142">
         <f t="shared" si="6"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
       <c r="H142">
         <f t="shared" si="7"/>
@@ -4656,11 +4708,11 @@
       </c>
       <c r="B143">
         <f>MOD(A139,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="C143">
         <f>QUOTIENT(A139,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -4671,7 +4723,7 @@
       </c>
       <c r="G143">
         <f t="shared" ref="G143:G206" si="10">B143/$B$6</f>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
       <c r="H143">
         <f t="shared" ref="H143:H206" si="11">C143/$B$6</f>
@@ -4685,11 +4737,11 @@
       </c>
       <c r="B144">
         <f>MOD(A144,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>64.907854984894271</v>
+        <v>87.105740181268885</v>
       </c>
       <c r="C144">
         <f>QUOTIENT(A144,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>18.793051359516618</v>
+        <v>25.619335347432024</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -4700,11 +4752,11 @@
       </c>
       <c r="G144">
         <f t="shared" si="10"/>
-        <v>7161.5000000000009</v>
+        <v>7208</v>
       </c>
       <c r="H144">
         <f t="shared" si="11"/>
-        <v>2073.5</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4714,11 +4766,11 @@
       </c>
       <c r="B145">
         <f>MOD(A144,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>62.329305135951671</v>
+        <v>83.105740181268885</v>
       </c>
       <c r="C145">
         <f>QUOTIENT(A144,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -4743,11 +4795,11 @@
       </c>
       <c r="B146">
         <f>MOD(A144,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>68.329305135951671</v>
+        <v>91.105740181268885</v>
       </c>
       <c r="C146">
         <f>QUOTIENT(A144,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -4772,11 +4824,11 @@
       </c>
       <c r="B147">
         <f>MOD(A144,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>62.329305135951671</v>
+        <v>83.105740181268885</v>
       </c>
       <c r="C147">
         <f>QUOTIENT(A144,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -4801,11 +4853,11 @@
       </c>
       <c r="B148">
         <f>MOD(A144,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>68.329305135951671</v>
+        <v>91.105740181268885</v>
       </c>
       <c r="C148">
         <f>QUOTIENT(A144,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -4830,11 +4882,11 @@
       </c>
       <c r="B149">
         <f>MOD(A149,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>3.4214501510574022</v>
+        <v>5.1238670694864048</v>
       </c>
       <c r="C149">
         <f>QUOTIENT(A149,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>26.478851963746227</v>
+        <v>35.86706948640483</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -4845,11 +4897,11 @@
       </c>
       <c r="G149">
         <f t="shared" si="10"/>
-        <v>377.5</v>
+        <v>424</v>
       </c>
       <c r="H149">
         <f t="shared" si="11"/>
-        <v>2921.5</v>
+        <v>2967.9999999999995</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4859,11 +4911,11 @@
       </c>
       <c r="B150">
         <f>MOD(A149,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="C150">
         <f>QUOTIENT(A149,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -4888,11 +4940,11 @@
       </c>
       <c r="B151">
         <f>MOD(A149,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="C151">
         <f>QUOTIENT(A149,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -4917,11 +4969,11 @@
       </c>
       <c r="B152">
         <f>MOD(A149,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="C152">
         <f>QUOTIENT(A149,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -4936,7 +4988,7 @@
       </c>
       <c r="H152">
         <f t="shared" si="11"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4946,11 +4998,11 @@
       </c>
       <c r="B153">
         <f>MOD(A149,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="C153">
         <f>QUOTIENT(A149,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -4965,7 +5017,7 @@
       </c>
       <c r="H153">
         <f t="shared" si="11"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4975,11 +5027,11 @@
       </c>
       <c r="B154">
         <f>MOD(A154,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>11.10725075528701</v>
+        <v>15.371601208459214</v>
       </c>
       <c r="C154">
         <f>QUOTIENT(A154,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>26.478851963746227</v>
+        <v>35.86706948640483</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -4990,11 +5042,11 @@
       </c>
       <c r="G154">
         <f t="shared" si="10"/>
-        <v>1225.5</v>
+        <v>1272</v>
       </c>
       <c r="H154">
         <f t="shared" si="11"/>
-        <v>2921.5</v>
+        <v>2967.9999999999995</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5004,11 +5056,11 @@
       </c>
       <c r="B155">
         <f>MOD(A154,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="C155">
         <f>QUOTIENT(A154,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -5033,11 +5085,11 @@
       </c>
       <c r="B156">
         <f>MOD(A154,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="C156">
         <f>QUOTIENT(A154,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -5062,11 +5114,11 @@
       </c>
       <c r="B157">
         <f>MOD(A154,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="C157">
         <f>QUOTIENT(A154,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -5081,7 +5133,7 @@
       </c>
       <c r="H157">
         <f t="shared" si="11"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5091,11 +5143,11 @@
       </c>
       <c r="B158">
         <f>MOD(A154,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="C158">
         <f>QUOTIENT(A154,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -5110,7 +5162,7 @@
       </c>
       <c r="H158">
         <f t="shared" si="11"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5120,11 +5172,11 @@
       </c>
       <c r="B159">
         <f>MOD(A159,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>18.793051359516618</v>
+        <v>25.619335347432024</v>
       </c>
       <c r="C159">
         <f>QUOTIENT(A159,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>26.478851963746227</v>
+        <v>35.86706948640483</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -5135,11 +5187,11 @@
       </c>
       <c r="G159">
         <f t="shared" si="10"/>
-        <v>2073.5</v>
+        <v>2120</v>
       </c>
       <c r="H159">
         <f t="shared" si="11"/>
-        <v>2921.5</v>
+        <v>2967.9999999999995</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5149,11 +5201,11 @@
       </c>
       <c r="B160">
         <f>MOD(A159,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="C160">
         <f>QUOTIENT(A159,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -5178,11 +5230,11 @@
       </c>
       <c r="B161">
         <f>MOD(A159,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="C161">
         <f>QUOTIENT(A159,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -5207,11 +5259,11 @@
       </c>
       <c r="B162">
         <f>MOD(A159,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="C162">
         <f>QUOTIENT(A159,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -5226,7 +5278,7 @@
       </c>
       <c r="H162">
         <f t="shared" si="11"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5236,11 +5288,11 @@
       </c>
       <c r="B163">
         <f>MOD(A159,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="C163">
         <f>QUOTIENT(A159,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -5255,7 +5307,7 @@
       </c>
       <c r="H163">
         <f t="shared" si="11"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5265,11 +5317,11 @@
       </c>
       <c r="B164">
         <f>MOD(A164,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>26.478851963746227</v>
+        <v>35.86706948640483</v>
       </c>
       <c r="C164">
         <f>QUOTIENT(A164,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>26.478851963746227</v>
+        <v>35.86706948640483</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -5280,11 +5332,11 @@
       </c>
       <c r="G164">
         <f t="shared" si="10"/>
-        <v>2921.5</v>
+        <v>2967.9999999999995</v>
       </c>
       <c r="H164">
         <f t="shared" si="11"/>
-        <v>2921.5</v>
+        <v>2967.9999999999995</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5294,11 +5346,11 @@
       </c>
       <c r="B165">
         <f>MOD(A164,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="C165">
         <f>QUOTIENT(A164,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -5323,11 +5375,11 @@
       </c>
       <c r="B166">
         <f>MOD(A164,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="C166">
         <f>QUOTIENT(A164,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -5338,7 +5390,7 @@
       </c>
       <c r="G166">
         <f t="shared" si="10"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
       <c r="H166">
         <f t="shared" si="11"/>
@@ -5352,11 +5404,11 @@
       </c>
       <c r="B167">
         <f>MOD(A164,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="C167">
         <f>QUOTIENT(A164,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -5371,7 +5423,7 @@
       </c>
       <c r="H167">
         <f t="shared" si="11"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5381,11 +5433,11 @@
       </c>
       <c r="B168">
         <f>MOD(A164,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="C168">
         <f>QUOTIENT(A164,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -5396,11 +5448,11 @@
       </c>
       <c r="G168">
         <f t="shared" si="10"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
       <c r="H168">
         <f t="shared" si="11"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5410,11 +5462,11 @@
       </c>
       <c r="B169">
         <f>MOD(A169,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>34.164652567975835</v>
+        <v>46.114803625377647</v>
       </c>
       <c r="C169">
         <f>QUOTIENT(A169,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>26.478851963746227</v>
+        <v>35.86706948640483</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -5425,11 +5477,11 @@
       </c>
       <c r="G169">
         <f t="shared" si="10"/>
-        <v>3769.5</v>
+        <v>3816.0000000000005</v>
       </c>
       <c r="H169">
         <f t="shared" si="11"/>
-        <v>2921.5</v>
+        <v>2967.9999999999995</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5439,11 +5491,11 @@
       </c>
       <c r="B170">
         <f>MOD(A169,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="C170">
         <f>QUOTIENT(A169,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -5454,7 +5506,7 @@
       </c>
       <c r="G170">
         <f t="shared" si="10"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
       <c r="H170">
         <f t="shared" si="11"/>
@@ -5468,11 +5520,11 @@
       </c>
       <c r="B171">
         <f>MOD(A169,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="C171">
         <f>QUOTIENT(A169,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -5497,11 +5549,11 @@
       </c>
       <c r="B172">
         <f>MOD(A169,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="C172">
         <f>QUOTIENT(A169,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -5512,11 +5564,11 @@
       </c>
       <c r="G172">
         <f t="shared" si="10"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
       <c r="H172">
         <f t="shared" si="11"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5526,11 +5578,11 @@
       </c>
       <c r="B173">
         <f>MOD(A169,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="C173">
         <f>QUOTIENT(A169,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -5545,7 +5597,7 @@
       </c>
       <c r="H173">
         <f t="shared" si="11"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5555,11 +5607,11 @@
       </c>
       <c r="B174">
         <f>MOD(A174,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>41.850453172205441</v>
+        <v>56.362537764350449</v>
       </c>
       <c r="C174">
         <f>QUOTIENT(A174,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>26.478851963746227</v>
+        <v>35.86706948640483</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -5570,11 +5622,11 @@
       </c>
       <c r="G174">
         <f t="shared" si="10"/>
-        <v>4617.5</v>
+        <v>4664</v>
       </c>
       <c r="H174">
         <f t="shared" si="11"/>
-        <v>2921.5</v>
+        <v>2967.9999999999995</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5584,11 +5636,11 @@
       </c>
       <c r="B175">
         <f>MOD(A174,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="C175">
         <f>QUOTIENT(A174,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -5613,11 +5665,11 @@
       </c>
       <c r="B176">
         <f>MOD(A174,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="C176">
         <f>QUOTIENT(A174,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -5642,11 +5694,11 @@
       </c>
       <c r="B177">
         <f>MOD(A174,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="C177">
         <f>QUOTIENT(A174,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -5661,7 +5713,7 @@
       </c>
       <c r="H177">
         <f t="shared" si="11"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5671,11 +5723,11 @@
       </c>
       <c r="B178">
         <f>MOD(A174,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="C178">
         <f>QUOTIENT(A174,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -5690,7 +5742,7 @@
       </c>
       <c r="H178">
         <f t="shared" si="11"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5700,11 +5752,11 @@
       </c>
       <c r="B179">
         <f>MOD(A179,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>49.536253776435046</v>
+        <v>66.610271903323266</v>
       </c>
       <c r="C179">
         <f>QUOTIENT(A179,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>26.478851963746227</v>
+        <v>35.86706948640483</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -5715,11 +5767,11 @@
       </c>
       <c r="G179">
         <f t="shared" si="10"/>
-        <v>5465.5</v>
+        <v>5512</v>
       </c>
       <c r="H179">
         <f t="shared" si="11"/>
-        <v>2921.5</v>
+        <v>2967.9999999999995</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5729,11 +5781,11 @@
       </c>
       <c r="B180">
         <f>MOD(A179,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="C180">
         <f>QUOTIENT(A179,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -5758,11 +5810,11 @@
       </c>
       <c r="B181">
         <f>MOD(A179,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="C181">
         <f>QUOTIENT(A179,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -5787,11 +5839,11 @@
       </c>
       <c r="B182">
         <f>MOD(A179,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="C182">
         <f>QUOTIENT(A179,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -5806,7 +5858,7 @@
       </c>
       <c r="H182">
         <f t="shared" si="11"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5816,11 +5868,11 @@
       </c>
       <c r="B183">
         <f>MOD(A179,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="C183">
         <f>QUOTIENT(A179,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -5835,7 +5887,7 @@
       </c>
       <c r="H183">
         <f t="shared" si="11"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5845,11 +5897,11 @@
       </c>
       <c r="B184">
         <f>MOD(A184,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>57.222054380664659</v>
+        <v>76.858006042296068</v>
       </c>
       <c r="C184">
         <f>QUOTIENT(A184,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>26.478851963746227</v>
+        <v>35.86706948640483</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -5860,11 +5912,11 @@
       </c>
       <c r="G184">
         <f t="shared" si="10"/>
-        <v>6313.5</v>
+        <v>6360</v>
       </c>
       <c r="H184">
         <f t="shared" si="11"/>
-        <v>2921.5</v>
+        <v>2967.9999999999995</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5874,11 +5926,11 @@
       </c>
       <c r="B185">
         <f>MOD(A184,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="C185">
         <f>QUOTIENT(A184,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -5889,7 +5941,7 @@
       </c>
       <c r="G185">
         <f t="shared" si="10"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
       <c r="H185">
         <f t="shared" si="11"/>
@@ -5903,11 +5955,11 @@
       </c>
       <c r="B186">
         <f>MOD(A184,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="C186">
         <f>QUOTIENT(A184,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -5918,7 +5970,7 @@
       </c>
       <c r="G186">
         <f t="shared" si="10"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
       <c r="H186">
         <f t="shared" si="11"/>
@@ -5932,11 +5984,11 @@
       </c>
       <c r="B187">
         <f>MOD(A184,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="C187">
         <f>QUOTIENT(A184,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -5947,11 +5999,11 @@
       </c>
       <c r="G187">
         <f t="shared" si="10"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
       <c r="H187">
         <f t="shared" si="11"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5961,11 +6013,11 @@
       </c>
       <c r="B188">
         <f>MOD(A184,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="C188">
         <f>QUOTIENT(A184,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -5976,11 +6028,11 @@
       </c>
       <c r="G188">
         <f t="shared" si="10"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
       <c r="H188">
         <f t="shared" si="11"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5990,11 +6042,11 @@
       </c>
       <c r="B189">
         <f>MOD(A189,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>64.907854984894271</v>
+        <v>87.105740181268885</v>
       </c>
       <c r="C189">
         <f>QUOTIENT(A189,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>26.478851963746227</v>
+        <v>35.86706948640483</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -6005,11 +6057,11 @@
       </c>
       <c r="G189">
         <f t="shared" si="10"/>
-        <v>7161.5000000000009</v>
+        <v>7208</v>
       </c>
       <c r="H189">
         <f t="shared" si="11"/>
-        <v>2921.5</v>
+        <v>2967.9999999999995</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6019,11 +6071,11 @@
       </c>
       <c r="B190">
         <f>MOD(A189,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>62.329305135951671</v>
+        <v>83.105740181268885</v>
       </c>
       <c r="C190">
         <f>QUOTIENT(A189,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -6048,11 +6100,11 @@
       </c>
       <c r="B191">
         <f>MOD(A189,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>68.329305135951671</v>
+        <v>91.105740181268885</v>
       </c>
       <c r="C191">
         <f>QUOTIENT(A189,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -6077,11 +6129,11 @@
       </c>
       <c r="B192">
         <f>MOD(A189,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>62.329305135951671</v>
+        <v>83.105740181268885</v>
       </c>
       <c r="C192">
         <f>QUOTIENT(A189,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -6096,7 +6148,7 @@
       </c>
       <c r="H192">
         <f t="shared" si="11"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6106,11 +6158,11 @@
       </c>
       <c r="B193">
         <f>MOD(A189,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>68.329305135951671</v>
+        <v>91.105740181268885</v>
       </c>
       <c r="C193">
         <f>QUOTIENT(A189,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -6125,7 +6177,7 @@
       </c>
       <c r="H193">
         <f t="shared" si="11"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6135,11 +6187,11 @@
       </c>
       <c r="B194">
         <f>MOD(A194,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>3.4214501510574022</v>
+        <v>5.1238670694864048</v>
       </c>
       <c r="C194">
         <f>QUOTIENT(A194,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>34.164652567975835</v>
+        <v>46.114803625377647</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -6150,11 +6202,11 @@
       </c>
       <c r="G194">
         <f t="shared" si="10"/>
-        <v>377.5</v>
+        <v>424</v>
       </c>
       <c r="H194">
         <f t="shared" si="11"/>
-        <v>3769.5</v>
+        <v>3816.0000000000005</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6164,11 +6216,11 @@
       </c>
       <c r="B195">
         <f>MOD(A194,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="C195">
         <f>QUOTIENT(A194,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -6183,7 +6235,7 @@
       </c>
       <c r="H195">
         <f t="shared" si="11"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6193,11 +6245,11 @@
       </c>
       <c r="B196">
         <f>MOD(A194,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="C196">
         <f>QUOTIENT(A194,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -6212,7 +6264,7 @@
       </c>
       <c r="H196">
         <f t="shared" si="11"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6222,11 +6274,11 @@
       </c>
       <c r="B197">
         <f>MOD(A194,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="C197">
         <f>QUOTIENT(A194,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -6251,11 +6303,11 @@
       </c>
       <c r="B198">
         <f>MOD(A194,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="C198">
         <f>QUOTIENT(A194,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -6280,11 +6332,11 @@
       </c>
       <c r="B199">
         <f>MOD(A199,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>11.10725075528701</v>
+        <v>15.371601208459214</v>
       </c>
       <c r="C199">
         <f>QUOTIENT(A199,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>34.164652567975835</v>
+        <v>46.114803625377647</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -6295,11 +6347,11 @@
       </c>
       <c r="G199">
         <f t="shared" si="10"/>
-        <v>1225.5</v>
+        <v>1272</v>
       </c>
       <c r="H199">
         <f t="shared" si="11"/>
-        <v>3769.5</v>
+        <v>3816.0000000000005</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6309,11 +6361,11 @@
       </c>
       <c r="B200">
         <f>MOD(A199,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="C200">
         <f>QUOTIENT(A199,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -6328,7 +6380,7 @@
       </c>
       <c r="H200">
         <f t="shared" si="11"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6338,11 +6390,11 @@
       </c>
       <c r="B201">
         <f>MOD(A199,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="C201">
         <f>QUOTIENT(A199,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -6357,7 +6409,7 @@
       </c>
       <c r="H201">
         <f t="shared" si="11"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6367,11 +6419,11 @@
       </c>
       <c r="B202">
         <f>MOD(A199,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="C202">
         <f>QUOTIENT(A199,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -6396,11 +6448,11 @@
       </c>
       <c r="B203">
         <f>MOD(A199,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="C203">
         <f>QUOTIENT(A199,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -6425,11 +6477,11 @@
       </c>
       <c r="B204">
         <f>MOD(A204,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>18.793051359516618</v>
+        <v>25.619335347432024</v>
       </c>
       <c r="C204">
         <f>QUOTIENT(A204,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>34.164652567975835</v>
+        <v>46.114803625377647</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -6440,11 +6492,11 @@
       </c>
       <c r="G204">
         <f t="shared" si="10"/>
-        <v>2073.5</v>
+        <v>2120</v>
       </c>
       <c r="H204">
         <f t="shared" si="11"/>
-        <v>3769.5</v>
+        <v>3816.0000000000005</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6454,11 +6506,11 @@
       </c>
       <c r="B205">
         <f>MOD(A204,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="C205">
         <f>QUOTIENT(A204,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -6473,7 +6525,7 @@
       </c>
       <c r="H205">
         <f t="shared" si="11"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6483,11 +6535,11 @@
       </c>
       <c r="B206">
         <f>MOD(A204,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="C206">
         <f>QUOTIENT(A204,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -6502,7 +6554,7 @@
       </c>
       <c r="H206">
         <f t="shared" si="11"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6512,11 +6564,11 @@
       </c>
       <c r="B207">
         <f>MOD(A204,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="C207">
         <f>QUOTIENT(A204,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -6541,11 +6593,11 @@
       </c>
       <c r="B208">
         <f>MOD(A204,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="C208">
         <f>QUOTIENT(A204,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -6570,11 +6622,11 @@
       </c>
       <c r="B209">
         <f>MOD(A209,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>26.478851963746227</v>
+        <v>35.86706948640483</v>
       </c>
       <c r="C209">
         <f>QUOTIENT(A209,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>34.164652567975835</v>
+        <v>46.114803625377647</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -6585,11 +6637,11 @@
       </c>
       <c r="G209">
         <f t="shared" si="14"/>
-        <v>2921.5</v>
+        <v>2967.9999999999995</v>
       </c>
       <c r="H209">
         <f t="shared" si="15"/>
-        <v>3769.5</v>
+        <v>3816.0000000000005</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6599,11 +6651,11 @@
       </c>
       <c r="B210">
         <f>MOD(A209,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="C210">
         <f>QUOTIENT(A209,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -6618,7 +6670,7 @@
       </c>
       <c r="H210">
         <f t="shared" si="15"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6628,11 +6680,11 @@
       </c>
       <c r="B211">
         <f>MOD(A209,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="C211">
         <f>QUOTIENT(A209,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -6643,11 +6695,11 @@
       </c>
       <c r="G211">
         <f t="shared" si="14"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
       <c r="H211">
         <f t="shared" si="15"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6657,11 +6709,11 @@
       </c>
       <c r="B212">
         <f>MOD(A209,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="C212">
         <f>QUOTIENT(A209,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -6686,11 +6738,11 @@
       </c>
       <c r="B213">
         <f>MOD(A209,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="C213">
         <f>QUOTIENT(A209,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -6701,7 +6753,7 @@
       </c>
       <c r="G213">
         <f t="shared" si="14"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
       <c r="H213">
         <f t="shared" si="15"/>
@@ -6715,11 +6767,11 @@
       </c>
       <c r="B214">
         <f>MOD(A214,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>34.164652567975835</v>
+        <v>46.114803625377647</v>
       </c>
       <c r="C214">
         <f>QUOTIENT(A214,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>34.164652567975835</v>
+        <v>46.114803625377647</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -6730,11 +6782,11 @@
       </c>
       <c r="G214">
         <f t="shared" si="14"/>
-        <v>3769.5</v>
+        <v>3816.0000000000005</v>
       </c>
       <c r="H214">
         <f t="shared" si="15"/>
-        <v>3769.5</v>
+        <v>3816.0000000000005</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6744,11 +6796,11 @@
       </c>
       <c r="B215">
         <f>MOD(A214,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="C215">
         <f>QUOTIENT(A214,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -6759,11 +6811,11 @@
       </c>
       <c r="G215">
         <f t="shared" si="14"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
       <c r="H215">
         <f t="shared" si="15"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6773,11 +6825,11 @@
       </c>
       <c r="B216">
         <f>MOD(A214,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="C216">
         <f>QUOTIENT(A214,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -6792,7 +6844,7 @@
       </c>
       <c r="H216">
         <f t="shared" si="15"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6802,11 +6854,11 @@
       </c>
       <c r="B217">
         <f>MOD(A214,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="C217">
         <f>QUOTIENT(A214,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -6817,7 +6869,7 @@
       </c>
       <c r="G217">
         <f t="shared" si="14"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
       <c r="H217">
         <f t="shared" si="15"/>
@@ -6831,11 +6883,11 @@
       </c>
       <c r="B218">
         <f>MOD(A214,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="C218">
         <f>QUOTIENT(A214,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -6860,11 +6912,11 @@
       </c>
       <c r="B219">
         <f>MOD(A219,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>41.850453172205441</v>
+        <v>56.362537764350449</v>
       </c>
       <c r="C219">
         <f>QUOTIENT(A219,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>34.164652567975835</v>
+        <v>46.114803625377647</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -6875,11 +6927,11 @@
       </c>
       <c r="G219">
         <f t="shared" si="14"/>
-        <v>4617.5</v>
+        <v>4664</v>
       </c>
       <c r="H219">
         <f t="shared" si="15"/>
-        <v>3769.5</v>
+        <v>3816.0000000000005</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6889,11 +6941,11 @@
       </c>
       <c r="B220">
         <f>MOD(A219,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="C220">
         <f>QUOTIENT(A219,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -6908,7 +6960,7 @@
       </c>
       <c r="H220">
         <f t="shared" si="15"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6918,11 +6970,11 @@
       </c>
       <c r="B221">
         <f>MOD(A219,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="C221">
         <f>QUOTIENT(A219,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -6937,7 +6989,7 @@
       </c>
       <c r="H221">
         <f t="shared" si="15"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6947,11 +6999,11 @@
       </c>
       <c r="B222">
         <f>MOD(A219,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="C222">
         <f>QUOTIENT(A219,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -6976,11 +7028,11 @@
       </c>
       <c r="B223">
         <f>MOD(A219,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="C223">
         <f>QUOTIENT(A219,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -7005,11 +7057,11 @@
       </c>
       <c r="B224">
         <f>MOD(A224,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>49.536253776435046</v>
+        <v>66.610271903323266</v>
       </c>
       <c r="C224">
         <f>QUOTIENT(A224,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>34.164652567975835</v>
+        <v>46.114803625377647</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -7020,11 +7072,11 @@
       </c>
       <c r="G224">
         <f t="shared" si="14"/>
-        <v>5465.5</v>
+        <v>5512</v>
       </c>
       <c r="H224">
         <f t="shared" si="15"/>
-        <v>3769.5</v>
+        <v>3816.0000000000005</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7034,11 +7086,11 @@
       </c>
       <c r="B225">
         <f>MOD(A224,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="C225">
         <f>QUOTIENT(A224,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -7053,7 +7105,7 @@
       </c>
       <c r="H225">
         <f t="shared" si="15"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7063,11 +7115,11 @@
       </c>
       <c r="B226">
         <f>MOD(A224,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="C226">
         <f>QUOTIENT(A224,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -7082,7 +7134,7 @@
       </c>
       <c r="H226">
         <f t="shared" si="15"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7092,11 +7144,11 @@
       </c>
       <c r="B227">
         <f>MOD(A224,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="C227">
         <f>QUOTIENT(A224,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -7121,11 +7173,11 @@
       </c>
       <c r="B228">
         <f>MOD(A224,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="C228">
         <f>QUOTIENT(A224,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -7150,11 +7202,11 @@
       </c>
       <c r="B229">
         <f>MOD(A229,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>57.222054380664659</v>
+        <v>76.858006042296068</v>
       </c>
       <c r="C229">
         <f>QUOTIENT(A229,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>34.164652567975835</v>
+        <v>46.114803625377647</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -7165,11 +7217,11 @@
       </c>
       <c r="G229">
         <f t="shared" si="14"/>
-        <v>6313.5</v>
+        <v>6360</v>
       </c>
       <c r="H229">
         <f t="shared" si="15"/>
-        <v>3769.5</v>
+        <v>3816.0000000000005</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7179,11 +7231,11 @@
       </c>
       <c r="B230">
         <f>MOD(A229,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="C230">
         <f>QUOTIENT(A229,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -7194,11 +7246,11 @@
       </c>
       <c r="G230">
         <f t="shared" si="14"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
       <c r="H230">
         <f t="shared" si="15"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7208,11 +7260,11 @@
       </c>
       <c r="B231">
         <f>MOD(A229,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="C231">
         <f>QUOTIENT(A229,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -7223,11 +7275,11 @@
       </c>
       <c r="G231">
         <f t="shared" si="14"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
       <c r="H231">
         <f t="shared" si="15"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7237,11 +7289,11 @@
       </c>
       <c r="B232">
         <f>MOD(A229,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="C232">
         <f>QUOTIENT(A229,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -7252,7 +7304,7 @@
       </c>
       <c r="G232">
         <f t="shared" si="14"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
       <c r="H232">
         <f t="shared" si="15"/>
@@ -7266,11 +7318,11 @@
       </c>
       <c r="B233">
         <f>MOD(A229,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="C233">
         <f>QUOTIENT(A229,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -7281,7 +7333,7 @@
       </c>
       <c r="G233">
         <f t="shared" si="14"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
       <c r="H233">
         <f t="shared" si="15"/>
@@ -7295,11 +7347,11 @@
       </c>
       <c r="B234">
         <f>MOD(A234,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>64.907854984894271</v>
+        <v>87.105740181268885</v>
       </c>
       <c r="C234">
         <f>QUOTIENT(A234,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>34.164652567975835</v>
+        <v>46.114803625377647</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -7310,11 +7362,11 @@
       </c>
       <c r="G234">
         <f t="shared" si="14"/>
-        <v>7161.5000000000009</v>
+        <v>7208</v>
       </c>
       <c r="H234">
         <f t="shared" si="15"/>
-        <v>3769.5</v>
+        <v>3816.0000000000005</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7324,11 +7376,11 @@
       </c>
       <c r="B235">
         <f>MOD(A234,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>62.329305135951671</v>
+        <v>83.105740181268885</v>
       </c>
       <c r="C235">
         <f>QUOTIENT(A234,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -7343,7 +7395,7 @@
       </c>
       <c r="H235">
         <f t="shared" si="15"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7353,11 +7405,11 @@
       </c>
       <c r="B236">
         <f>MOD(A234,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>68.329305135951671</v>
+        <v>91.105740181268885</v>
       </c>
       <c r="C236">
         <f>QUOTIENT(A234,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -7372,7 +7424,7 @@
       </c>
       <c r="H236">
         <f t="shared" si="15"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7382,11 +7434,11 @@
       </c>
       <c r="B237">
         <f>MOD(A234,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>62.329305135951671</v>
+        <v>83.105740181268885</v>
       </c>
       <c r="C237">
         <f>QUOTIENT(A234,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -7411,11 +7463,11 @@
       </c>
       <c r="B238">
         <f>MOD(A234,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>68.329305135951671</v>
+        <v>91.105740181268885</v>
       </c>
       <c r="C238">
         <f>QUOTIENT(A234,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -7440,11 +7492,11 @@
       </c>
       <c r="B239">
         <f>MOD(A239,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>3.4214501510574022</v>
+        <v>5.1238670694864048</v>
       </c>
       <c r="C239">
         <f>QUOTIENT(A239,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>41.850453172205441</v>
+        <v>56.362537764350449</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -7455,11 +7507,11 @@
       </c>
       <c r="G239">
         <f t="shared" si="14"/>
-        <v>377.5</v>
+        <v>424</v>
       </c>
       <c r="H239">
         <f t="shared" si="15"/>
-        <v>4617.5</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7469,11 +7521,11 @@
       </c>
       <c r="B240">
         <f>MOD(A239,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="C240">
         <f>QUOTIENT(A239,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -7498,11 +7550,11 @@
       </c>
       <c r="B241">
         <f>MOD(A239,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="C241">
         <f>QUOTIENT(A239,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -7527,11 +7579,11 @@
       </c>
       <c r="B242">
         <f>MOD(A239,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="C242">
         <f>QUOTIENT(A239,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -7556,11 +7608,11 @@
       </c>
       <c r="B243">
         <f>MOD(A239,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="C243">
         <f>QUOTIENT(A239,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -7585,11 +7637,11 @@
       </c>
       <c r="B244">
         <f>MOD(A244,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>11.10725075528701</v>
+        <v>15.371601208459214</v>
       </c>
       <c r="C244">
         <f>QUOTIENT(A244,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>41.850453172205441</v>
+        <v>56.362537764350449</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -7600,11 +7652,11 @@
       </c>
       <c r="G244">
         <f t="shared" si="14"/>
-        <v>1225.5</v>
+        <v>1272</v>
       </c>
       <c r="H244">
         <f t="shared" si="15"/>
-        <v>4617.5</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7614,11 +7666,11 @@
       </c>
       <c r="B245">
         <f>MOD(A244,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="C245">
         <f>QUOTIENT(A244,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -7643,11 +7695,11 @@
       </c>
       <c r="B246">
         <f>MOD(A244,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="C246">
         <f>QUOTIENT(A244,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -7672,11 +7724,11 @@
       </c>
       <c r="B247">
         <f>MOD(A244,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="C247">
         <f>QUOTIENT(A244,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -7701,11 +7753,11 @@
       </c>
       <c r="B248">
         <f>MOD(A244,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="C248">
         <f>QUOTIENT(A244,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -7730,11 +7782,11 @@
       </c>
       <c r="B249">
         <f>MOD(A249,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>18.793051359516618</v>
+        <v>25.619335347432024</v>
       </c>
       <c r="C249">
         <f>QUOTIENT(A249,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>41.850453172205441</v>
+        <v>56.362537764350449</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -7745,11 +7797,11 @@
       </c>
       <c r="G249">
         <f t="shared" si="14"/>
-        <v>2073.5</v>
+        <v>2120</v>
       </c>
       <c r="H249">
         <f t="shared" si="15"/>
-        <v>4617.5</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7759,11 +7811,11 @@
       </c>
       <c r="B250">
         <f>MOD(A249,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="C250">
         <f>QUOTIENT(A249,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -7788,11 +7840,11 @@
       </c>
       <c r="B251">
         <f>MOD(A249,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="C251">
         <f>QUOTIENT(A249,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -7817,11 +7869,11 @@
       </c>
       <c r="B252">
         <f>MOD(A249,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="C252">
         <f>QUOTIENT(A249,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -7846,11 +7898,11 @@
       </c>
       <c r="B253">
         <f>MOD(A249,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="C253">
         <f>QUOTIENT(A249,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -7875,11 +7927,11 @@
       </c>
       <c r="B254">
         <f>MOD(A254,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>26.478851963746227</v>
+        <v>35.86706948640483</v>
       </c>
       <c r="C254">
         <f>QUOTIENT(A254,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>41.850453172205441</v>
+        <v>56.362537764350449</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -7890,11 +7942,11 @@
       </c>
       <c r="G254">
         <f t="shared" si="14"/>
-        <v>2921.5</v>
+        <v>2967.9999999999995</v>
       </c>
       <c r="H254">
         <f t="shared" si="15"/>
-        <v>4617.5</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7904,11 +7956,11 @@
       </c>
       <c r="B255">
         <f>MOD(A254,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="C255">
         <f>QUOTIENT(A254,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -7933,11 +7985,11 @@
       </c>
       <c r="B256">
         <f>MOD(A254,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="C256">
         <f>QUOTIENT(A254,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -7948,7 +8000,7 @@
       </c>
       <c r="G256">
         <f t="shared" si="14"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
       <c r="H256">
         <f t="shared" si="15"/>
@@ -7962,11 +8014,11 @@
       </c>
       <c r="B257">
         <f>MOD(A254,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="C257">
         <f>QUOTIENT(A254,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -7991,11 +8043,11 @@
       </c>
       <c r="B258">
         <f>MOD(A254,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="C258">
         <f>QUOTIENT(A254,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -8006,7 +8058,7 @@
       </c>
       <c r="G258">
         <f t="shared" si="14"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
       <c r="H258">
         <f t="shared" si="15"/>
@@ -8020,11 +8072,11 @@
       </c>
       <c r="B259">
         <f>MOD(A259,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>34.164652567975835</v>
+        <v>46.114803625377647</v>
       </c>
       <c r="C259">
         <f>QUOTIENT(A259,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>41.850453172205441</v>
+        <v>56.362537764350449</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -8035,11 +8087,11 @@
       </c>
       <c r="G259">
         <f t="shared" si="14"/>
-        <v>3769.5</v>
+        <v>3816.0000000000005</v>
       </c>
       <c r="H259">
         <f t="shared" si="15"/>
-        <v>4617.5</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8049,11 +8101,11 @@
       </c>
       <c r="B260">
         <f>MOD(A259,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="C260">
         <f>QUOTIENT(A259,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -8064,7 +8116,7 @@
       </c>
       <c r="G260">
         <f t="shared" si="14"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
       <c r="H260">
         <f t="shared" si="15"/>
@@ -8078,11 +8130,11 @@
       </c>
       <c r="B261">
         <f>MOD(A259,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="C261">
         <f>QUOTIENT(A259,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -8107,11 +8159,11 @@
       </c>
       <c r="B262">
         <f>MOD(A259,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="C262">
         <f>QUOTIENT(A259,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -8122,7 +8174,7 @@
       </c>
       <c r="G262">
         <f t="shared" si="14"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
       <c r="H262">
         <f t="shared" si="15"/>
@@ -8136,11 +8188,11 @@
       </c>
       <c r="B263">
         <f>MOD(A259,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="C263">
         <f>QUOTIENT(A259,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -8165,11 +8217,11 @@
       </c>
       <c r="B264">
         <f>MOD(A264,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>41.850453172205441</v>
+        <v>56.362537764350449</v>
       </c>
       <c r="C264">
         <f>QUOTIENT(A264,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>41.850453172205441</v>
+        <v>56.362537764350449</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -8180,11 +8232,11 @@
       </c>
       <c r="G264">
         <f t="shared" si="14"/>
-        <v>4617.5</v>
+        <v>4664</v>
       </c>
       <c r="H264">
         <f t="shared" si="15"/>
-        <v>4617.5</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8194,11 +8246,11 @@
       </c>
       <c r="B265">
         <f>MOD(A264,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="C265">
         <f>QUOTIENT(A264,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -8223,11 +8275,11 @@
       </c>
       <c r="B266">
         <f>MOD(A264,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="C266">
         <f>QUOTIENT(A264,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -8252,11 +8304,11 @@
       </c>
       <c r="B267">
         <f>MOD(A264,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="C267">
         <f>QUOTIENT(A264,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -8281,11 +8333,11 @@
       </c>
       <c r="B268">
         <f>MOD(A264,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="C268">
         <f>QUOTIENT(A264,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -8310,11 +8362,11 @@
       </c>
       <c r="B269">
         <f>MOD(A269,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>49.536253776435046</v>
+        <v>66.610271903323266</v>
       </c>
       <c r="C269">
         <f>QUOTIENT(A269,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>41.850453172205441</v>
+        <v>56.362537764350449</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -8325,11 +8377,11 @@
       </c>
       <c r="G269">
         <f t="shared" si="14"/>
-        <v>5465.5</v>
+        <v>5512</v>
       </c>
       <c r="H269">
         <f t="shared" si="15"/>
-        <v>4617.5</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8339,11 +8391,11 @@
       </c>
       <c r="B270">
         <f>MOD(A269,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="C270">
         <f>QUOTIENT(A269,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -8368,11 +8420,11 @@
       </c>
       <c r="B271">
         <f>MOD(A269,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="C271">
         <f>QUOTIENT(A269,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -8397,11 +8449,11 @@
       </c>
       <c r="B272">
         <f>MOD(A269,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="C272">
         <f>QUOTIENT(A269,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -8426,11 +8478,11 @@
       </c>
       <c r="B273">
         <f>MOD(A269,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="C273">
         <f>QUOTIENT(A269,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -8455,11 +8507,11 @@
       </c>
       <c r="B274">
         <f>MOD(A274,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>57.222054380664659</v>
+        <v>76.858006042296068</v>
       </c>
       <c r="C274">
         <f>QUOTIENT(A274,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>41.850453172205441</v>
+        <v>56.362537764350449</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -8470,11 +8522,11 @@
       </c>
       <c r="G274">
         <f t="shared" si="18"/>
-        <v>6313.5</v>
+        <v>6360</v>
       </c>
       <c r="H274">
         <f t="shared" si="19"/>
-        <v>4617.5</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8484,11 +8536,11 @@
       </c>
       <c r="B275">
         <f>MOD(A274,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="C275">
         <f>QUOTIENT(A274,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -8499,7 +8551,7 @@
       </c>
       <c r="G275">
         <f t="shared" si="18"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
       <c r="H275">
         <f t="shared" si="19"/>
@@ -8513,11 +8565,11 @@
       </c>
       <c r="B276">
         <f>MOD(A274,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="C276">
         <f>QUOTIENT(A274,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -8528,7 +8580,7 @@
       </c>
       <c r="G276">
         <f t="shared" si="18"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
       <c r="H276">
         <f t="shared" si="19"/>
@@ -8542,11 +8594,11 @@
       </c>
       <c r="B277">
         <f>MOD(A274,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="C277">
         <f>QUOTIENT(A274,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -8557,7 +8609,7 @@
       </c>
       <c r="G277">
         <f t="shared" si="18"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
       <c r="H277">
         <f t="shared" si="19"/>
@@ -8571,11 +8623,11 @@
       </c>
       <c r="B278">
         <f>MOD(A274,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="C278">
         <f>QUOTIENT(A274,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -8586,7 +8638,7 @@
       </c>
       <c r="G278">
         <f t="shared" si="18"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
       <c r="H278">
         <f t="shared" si="19"/>
@@ -8600,11 +8652,11 @@
       </c>
       <c r="B279">
         <f>MOD(A279,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>64.907854984894271</v>
+        <v>87.105740181268885</v>
       </c>
       <c r="C279">
         <f>QUOTIENT(A279,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>41.850453172205441</v>
+        <v>56.362537764350449</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -8615,11 +8667,11 @@
       </c>
       <c r="G279">
         <f t="shared" si="18"/>
-        <v>7161.5000000000009</v>
+        <v>7208</v>
       </c>
       <c r="H279">
         <f t="shared" si="19"/>
-        <v>4617.5</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8629,11 +8681,11 @@
       </c>
       <c r="B280">
         <f>MOD(A279,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>62.329305135951671</v>
+        <v>83.105740181268885</v>
       </c>
       <c r="C280">
         <f>QUOTIENT(A279,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -8658,11 +8710,11 @@
       </c>
       <c r="B281">
         <f>MOD(A279,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>68.329305135951671</v>
+        <v>91.105740181268885</v>
       </c>
       <c r="C281">
         <f>QUOTIENT(A279,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -8687,11 +8739,11 @@
       </c>
       <c r="B282">
         <f>MOD(A279,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>62.329305135951671</v>
+        <v>83.105740181268885</v>
       </c>
       <c r="C282">
         <f>QUOTIENT(A279,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -8716,11 +8768,11 @@
       </c>
       <c r="B283">
         <f>MOD(A279,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>68.329305135951671</v>
+        <v>91.105740181268885</v>
       </c>
       <c r="C283">
         <f>QUOTIENT(A279,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -8745,11 +8797,11 @@
       </c>
       <c r="B284">
         <f>MOD(A284,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>3.4214501510574022</v>
+        <v>5.1238670694864048</v>
       </c>
       <c r="C284">
         <f>QUOTIENT(A284,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>49.536253776435046</v>
+        <v>66.610271903323266</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -8760,11 +8812,11 @@
       </c>
       <c r="G284">
         <f t="shared" si="18"/>
-        <v>377.5</v>
+        <v>424</v>
       </c>
       <c r="H284">
         <f t="shared" si="19"/>
-        <v>5465.5</v>
+        <v>5512</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8774,11 +8826,11 @@
       </c>
       <c r="B285">
         <f>MOD(A284,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="C285">
         <f>QUOTIENT(A284,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -8803,11 +8855,11 @@
       </c>
       <c r="B286">
         <f>MOD(A284,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="C286">
         <f>QUOTIENT(A284,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -8832,11 +8884,11 @@
       </c>
       <c r="B287">
         <f>MOD(A284,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="C287">
         <f>QUOTIENT(A284,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -8861,11 +8913,11 @@
       </c>
       <c r="B288">
         <f>MOD(A284,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="C288">
         <f>QUOTIENT(A284,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -8890,11 +8942,11 @@
       </c>
       <c r="B289">
         <f>MOD(A289,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>11.10725075528701</v>
+        <v>15.371601208459214</v>
       </c>
       <c r="C289">
         <f>QUOTIENT(A289,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>49.536253776435046</v>
+        <v>66.610271903323266</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -8905,11 +8957,11 @@
       </c>
       <c r="G289">
         <f t="shared" si="18"/>
-        <v>1225.5</v>
+        <v>1272</v>
       </c>
       <c r="H289">
         <f t="shared" si="19"/>
-        <v>5465.5</v>
+        <v>5512</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8919,11 +8971,11 @@
       </c>
       <c r="B290">
         <f>MOD(A289,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="C290">
         <f>QUOTIENT(A289,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -8948,11 +9000,11 @@
       </c>
       <c r="B291">
         <f>MOD(A289,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="C291">
         <f>QUOTIENT(A289,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -8977,11 +9029,11 @@
       </c>
       <c r="B292">
         <f>MOD(A289,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="C292">
         <f>QUOTIENT(A289,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -9006,11 +9058,11 @@
       </c>
       <c r="B293">
         <f>MOD(A289,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="C293">
         <f>QUOTIENT(A289,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -9035,11 +9087,11 @@
       </c>
       <c r="B294">
         <f>MOD(A294,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>18.793051359516618</v>
+        <v>25.619335347432024</v>
       </c>
       <c r="C294">
         <f>QUOTIENT(A294,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>49.536253776435046</v>
+        <v>66.610271903323266</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -9050,11 +9102,11 @@
       </c>
       <c r="G294">
         <f t="shared" si="18"/>
-        <v>2073.5</v>
+        <v>2120</v>
       </c>
       <c r="H294">
         <f t="shared" si="19"/>
-        <v>5465.5</v>
+        <v>5512</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9064,11 +9116,11 @@
       </c>
       <c r="B295">
         <f>MOD(A294,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="C295">
         <f>QUOTIENT(A294,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -9093,11 +9145,11 @@
       </c>
       <c r="B296">
         <f>MOD(A294,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="C296">
         <f>QUOTIENT(A294,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -9122,11 +9174,11 @@
       </c>
       <c r="B297">
         <f>MOD(A294,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="C297">
         <f>QUOTIENT(A294,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -9151,11 +9203,11 @@
       </c>
       <c r="B298">
         <f>MOD(A294,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="C298">
         <f>QUOTIENT(A294,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -9180,11 +9232,11 @@
       </c>
       <c r="B299">
         <f>MOD(A299,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>26.478851963746227</v>
+        <v>35.86706948640483</v>
       </c>
       <c r="C299">
         <f>QUOTIENT(A299,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>49.536253776435046</v>
+        <v>66.610271903323266</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -9195,11 +9247,11 @@
       </c>
       <c r="G299">
         <f t="shared" si="18"/>
-        <v>2921.5</v>
+        <v>2967.9999999999995</v>
       </c>
       <c r="H299">
         <f t="shared" si="19"/>
-        <v>5465.5</v>
+        <v>5512</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9209,11 +9261,11 @@
       </c>
       <c r="B300">
         <f>MOD(A299,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="C300">
         <f>QUOTIENT(A299,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -9238,11 +9290,11 @@
       </c>
       <c r="B301">
         <f>MOD(A299,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="C301">
         <f>QUOTIENT(A299,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -9253,7 +9305,7 @@
       </c>
       <c r="G301">
         <f t="shared" si="18"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
       <c r="H301">
         <f t="shared" si="19"/>
@@ -9267,11 +9319,11 @@
       </c>
       <c r="B302">
         <f>MOD(A299,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="C302">
         <f>QUOTIENT(A299,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -9296,11 +9348,11 @@
       </c>
       <c r="B303">
         <f>MOD(A299,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="C303">
         <f>QUOTIENT(A299,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -9311,7 +9363,7 @@
       </c>
       <c r="G303">
         <f t="shared" si="18"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
       <c r="H303">
         <f t="shared" si="19"/>
@@ -9325,11 +9377,11 @@
       </c>
       <c r="B304">
         <f>MOD(A304,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>34.164652567975835</v>
+        <v>46.114803625377647</v>
       </c>
       <c r="C304">
         <f>QUOTIENT(A304,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>49.536253776435046</v>
+        <v>66.610271903323266</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -9340,11 +9392,11 @@
       </c>
       <c r="G304">
         <f t="shared" si="18"/>
-        <v>3769.5</v>
+        <v>3816.0000000000005</v>
       </c>
       <c r="H304">
         <f t="shared" si="19"/>
-        <v>5465.5</v>
+        <v>5512</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9354,11 +9406,11 @@
       </c>
       <c r="B305">
         <f>MOD(A304,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="C305">
         <f>QUOTIENT(A304,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -9369,7 +9421,7 @@
       </c>
       <c r="G305">
         <f t="shared" si="18"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
       <c r="H305">
         <f t="shared" si="19"/>
@@ -9383,11 +9435,11 @@
       </c>
       <c r="B306">
         <f>MOD(A304,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="C306">
         <f>QUOTIENT(A304,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -9412,11 +9464,11 @@
       </c>
       <c r="B307">
         <f>MOD(A304,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="C307">
         <f>QUOTIENT(A304,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -9427,7 +9479,7 @@
       </c>
       <c r="G307">
         <f t="shared" si="18"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
       <c r="H307">
         <f t="shared" si="19"/>
@@ -9441,11 +9493,11 @@
       </c>
       <c r="B308">
         <f>MOD(A304,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="C308">
         <f>QUOTIENT(A304,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -9470,11 +9522,11 @@
       </c>
       <c r="B309">
         <f>MOD(A309,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>41.850453172205441</v>
+        <v>56.362537764350449</v>
       </c>
       <c r="C309">
         <f>QUOTIENT(A309,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>49.536253776435046</v>
+        <v>66.610271903323266</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -9485,11 +9537,11 @@
       </c>
       <c r="G309">
         <f t="shared" si="18"/>
-        <v>4617.5</v>
+        <v>4664</v>
       </c>
       <c r="H309">
         <f t="shared" si="19"/>
-        <v>5465.5</v>
+        <v>5512</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9499,11 +9551,11 @@
       </c>
       <c r="B310">
         <f>MOD(A309,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="C310">
         <f>QUOTIENT(A309,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="D310">
         <v>0</v>
@@ -9528,11 +9580,11 @@
       </c>
       <c r="B311">
         <f>MOD(A309,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="C311">
         <f>QUOTIENT(A309,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -9557,11 +9609,11 @@
       </c>
       <c r="B312">
         <f>MOD(A309,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="C312">
         <f>QUOTIENT(A309,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -9586,11 +9638,11 @@
       </c>
       <c r="B313">
         <f>MOD(A309,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="C313">
         <f>QUOTIENT(A309,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -9615,11 +9667,11 @@
       </c>
       <c r="B314">
         <f>MOD(A314,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>49.536253776435046</v>
+        <v>66.610271903323266</v>
       </c>
       <c r="C314">
         <f>QUOTIENT(A314,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>49.536253776435046</v>
+        <v>66.610271903323266</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -9630,11 +9682,11 @@
       </c>
       <c r="G314">
         <f t="shared" si="18"/>
-        <v>5465.5</v>
+        <v>5512</v>
       </c>
       <c r="H314">
         <f t="shared" si="19"/>
-        <v>5465.5</v>
+        <v>5512</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9644,11 +9696,11 @@
       </c>
       <c r="B315">
         <f>MOD(A314,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="C315">
         <f>QUOTIENT(A314,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -9673,11 +9725,11 @@
       </c>
       <c r="B316">
         <f>MOD(A314,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="C316">
         <f>QUOTIENT(A314,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -9702,11 +9754,11 @@
       </c>
       <c r="B317">
         <f>MOD(A314,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="C317">
         <f>QUOTIENT(A314,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -9731,11 +9783,11 @@
       </c>
       <c r="B318">
         <f>MOD(A314,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="C318">
         <f>QUOTIENT(A314,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -9760,11 +9812,11 @@
       </c>
       <c r="B319">
         <f>MOD(A319,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>57.222054380664659</v>
+        <v>76.858006042296068</v>
       </c>
       <c r="C319">
         <f>QUOTIENT(A319,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>49.536253776435046</v>
+        <v>66.610271903323266</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -9775,11 +9827,11 @@
       </c>
       <c r="G319">
         <f t="shared" si="18"/>
-        <v>6313.5</v>
+        <v>6360</v>
       </c>
       <c r="H319">
         <f t="shared" si="19"/>
-        <v>5465.5</v>
+        <v>5512</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9789,11 +9841,11 @@
       </c>
       <c r="B320">
         <f>MOD(A319,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="C320">
         <f>QUOTIENT(A319,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -9804,7 +9856,7 @@
       </c>
       <c r="G320">
         <f t="shared" si="18"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
       <c r="H320">
         <f t="shared" si="19"/>
@@ -9818,11 +9870,11 @@
       </c>
       <c r="B321">
         <f>MOD(A319,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="C321">
         <f>QUOTIENT(A319,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -9833,7 +9885,7 @@
       </c>
       <c r="G321">
         <f t="shared" si="18"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
       <c r="H321">
         <f t="shared" si="19"/>
@@ -9847,11 +9899,11 @@
       </c>
       <c r="B322">
         <f>MOD(A319,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="C322">
         <f>QUOTIENT(A319,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -9862,7 +9914,7 @@
       </c>
       <c r="G322">
         <f t="shared" si="18"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
       <c r="H322">
         <f t="shared" si="19"/>
@@ -9876,11 +9928,11 @@
       </c>
       <c r="B323">
         <f>MOD(A319,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="C323">
         <f>QUOTIENT(A319,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -9891,7 +9943,7 @@
       </c>
       <c r="G323">
         <f t="shared" si="18"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
       <c r="H323">
         <f t="shared" si="19"/>
@@ -9905,11 +9957,11 @@
       </c>
       <c r="B324">
         <f>MOD(A324,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>64.907854984894271</v>
+        <v>87.105740181268885</v>
       </c>
       <c r="C324">
         <f>QUOTIENT(A324,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>49.536253776435046</v>
+        <v>66.610271903323266</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -9920,11 +9972,11 @@
       </c>
       <c r="G324">
         <f t="shared" si="18"/>
-        <v>7161.5000000000009</v>
+        <v>7208</v>
       </c>
       <c r="H324">
         <f t="shared" si="19"/>
-        <v>5465.5</v>
+        <v>5512</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9934,11 +9986,11 @@
       </c>
       <c r="B325">
         <f>MOD(A324,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>62.329305135951671</v>
+        <v>83.105740181268885</v>
       </c>
       <c r="C325">
         <f>QUOTIENT(A324,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -9963,11 +10015,11 @@
       </c>
       <c r="B326">
         <f>MOD(A324,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>68.329305135951671</v>
+        <v>91.105740181268885</v>
       </c>
       <c r="C326">
         <f>QUOTIENT(A324,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -9992,11 +10044,11 @@
       </c>
       <c r="B327">
         <f>MOD(A324,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>62.329305135951671</v>
+        <v>83.105740181268885</v>
       </c>
       <c r="C327">
         <f>QUOTIENT(A324,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -10021,11 +10073,11 @@
       </c>
       <c r="B328">
         <f>MOD(A324,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>68.329305135951671</v>
+        <v>91.105740181268885</v>
       </c>
       <c r="C328">
         <f>QUOTIENT(A324,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="D328">
         <v>0</v>
@@ -10050,11 +10102,11 @@
       </c>
       <c r="B329">
         <f>MOD(A329,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>3.4214501510574022</v>
+        <v>5.1238670694864048</v>
       </c>
       <c r="C329">
         <f>QUOTIENT(A329,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>57.222054380664659</v>
+        <v>76.858006042296068</v>
       </c>
       <c r="D329">
         <v>0</v>
@@ -10065,11 +10117,11 @@
       </c>
       <c r="G329">
         <f t="shared" si="18"/>
-        <v>377.5</v>
+        <v>424</v>
       </c>
       <c r="H329">
         <f t="shared" si="19"/>
-        <v>6313.5</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10079,11 +10131,11 @@
       </c>
       <c r="B330">
         <f>MOD(A329,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="C330">
         <f>QUOTIENT(A329,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="D330">
         <v>0</v>
@@ -10098,7 +10150,7 @@
       </c>
       <c r="H330">
         <f t="shared" si="19"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10108,11 +10160,11 @@
       </c>
       <c r="B331">
         <f>MOD(A329,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="C331">
         <f>QUOTIENT(A329,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="D331">
         <v>0</v>
@@ -10127,7 +10179,7 @@
       </c>
       <c r="H331">
         <f t="shared" si="19"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10137,11 +10189,11 @@
       </c>
       <c r="B332">
         <f>MOD(A329,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>0.84290030211480371</v>
+        <v>1.1238670694864048</v>
       </c>
       <c r="C332">
         <f>QUOTIENT(A329,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="D332">
         <v>0</v>
@@ -10156,7 +10208,7 @@
       </c>
       <c r="H332">
         <f t="shared" si="19"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10166,11 +10218,11 @@
       </c>
       <c r="B333">
         <f>MOD(A329,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>6.8429003021148045</v>
+        <v>9.1238670694864048</v>
       </c>
       <c r="C333">
         <f>QUOTIENT(A329,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="D333">
         <v>0</v>
@@ -10185,7 +10237,7 @@
       </c>
       <c r="H333">
         <f t="shared" si="19"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10195,11 +10247,11 @@
       </c>
       <c r="B334">
         <f>MOD(A334,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>11.10725075528701</v>
+        <v>15.371601208459214</v>
       </c>
       <c r="C334">
         <f>QUOTIENT(A334,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>57.222054380664659</v>
+        <v>76.858006042296068</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -10210,11 +10262,11 @@
       </c>
       <c r="G334">
         <f t="shared" si="18"/>
-        <v>1225.5</v>
+        <v>1272</v>
       </c>
       <c r="H334">
         <f t="shared" si="19"/>
-        <v>6313.5</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10224,11 +10276,11 @@
       </c>
       <c r="B335">
         <f>MOD(A334,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="C335">
         <f>QUOTIENT(A334,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="D335">
         <v>0</v>
@@ -10243,7 +10295,7 @@
       </c>
       <c r="H335">
         <f t="shared" ref="H335:H373" si="23">C335/$B$6</f>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10253,11 +10305,11 @@
       </c>
       <c r="B336">
         <f>MOD(A334,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="C336">
         <f>QUOTIENT(A334,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="D336">
         <v>0</v>
@@ -10272,7 +10324,7 @@
       </c>
       <c r="H336">
         <f t="shared" si="23"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10282,11 +10334,11 @@
       </c>
       <c r="B337">
         <f>MOD(A334,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>8.5287009063444117</v>
+        <v>11.371601208459214</v>
       </c>
       <c r="C337">
         <f>QUOTIENT(A334,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="D337">
         <v>0</v>
@@ -10301,7 +10353,7 @@
       </c>
       <c r="H337">
         <f t="shared" si="23"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10311,11 +10363,11 @@
       </c>
       <c r="B338">
         <f>MOD(A334,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>14.528700906344412</v>
+        <v>19.371601208459214</v>
       </c>
       <c r="C338">
         <f>QUOTIENT(A334,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="D338">
         <v>0</v>
@@ -10330,7 +10382,7 @@
       </c>
       <c r="H338">
         <f t="shared" si="23"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10340,11 +10392,11 @@
       </c>
       <c r="B339">
         <f>MOD(A339,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>18.793051359516618</v>
+        <v>25.619335347432024</v>
       </c>
       <c r="C339">
         <f>QUOTIENT(A339,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>57.222054380664659</v>
+        <v>76.858006042296068</v>
       </c>
       <c r="D339">
         <v>0</v>
@@ -10355,11 +10407,11 @@
       </c>
       <c r="G339">
         <f t="shared" si="22"/>
-        <v>2073.5</v>
+        <v>2120</v>
       </c>
       <c r="H339">
         <f t="shared" si="23"/>
-        <v>6313.5</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10369,11 +10421,11 @@
       </c>
       <c r="B340">
         <f>MOD(A339,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="C340">
         <f>QUOTIENT(A339,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="D340">
         <v>0</v>
@@ -10388,7 +10440,7 @@
       </c>
       <c r="H340">
         <f t="shared" si="23"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10398,11 +10450,11 @@
       </c>
       <c r="B341">
         <f>MOD(A339,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="C341">
         <f>QUOTIENT(A339,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="D341">
         <v>0</v>
@@ -10417,7 +10469,7 @@
       </c>
       <c r="H341">
         <f t="shared" si="23"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10427,11 +10479,11 @@
       </c>
       <c r="B342">
         <f>MOD(A339,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>16.214501510574021</v>
+        <v>21.619335347432024</v>
       </c>
       <c r="C342">
         <f>QUOTIENT(A339,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="D342">
         <v>0</v>
@@ -10446,7 +10498,7 @@
       </c>
       <c r="H342">
         <f t="shared" si="23"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10456,11 +10508,11 @@
       </c>
       <c r="B343">
         <f>MOD(A339,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>22.214501510574021</v>
+        <v>29.619335347432024</v>
       </c>
       <c r="C343">
         <f>QUOTIENT(A339,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="D343">
         <v>0</v>
@@ -10475,7 +10527,7 @@
       </c>
       <c r="H343">
         <f t="shared" si="23"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10485,11 +10537,11 @@
       </c>
       <c r="B344">
         <f>MOD(A344,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>26.478851963746227</v>
+        <v>35.86706948640483</v>
       </c>
       <c r="C344">
         <f>QUOTIENT(A344,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>57.222054380664659</v>
+        <v>76.858006042296068</v>
       </c>
       <c r="D344">
         <v>0</v>
@@ -10500,11 +10552,11 @@
       </c>
       <c r="G344">
         <f t="shared" si="22"/>
-        <v>2921.5</v>
+        <v>2967.9999999999995</v>
       </c>
       <c r="H344">
         <f t="shared" si="23"/>
-        <v>6313.5</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10514,11 +10566,11 @@
       </c>
       <c r="B345">
         <f>MOD(A344,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="C345">
         <f>QUOTIENT(A344,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="D345">
         <v>0</v>
@@ -10533,7 +10585,7 @@
       </c>
       <c r="H345">
         <f t="shared" si="23"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10543,11 +10595,11 @@
       </c>
       <c r="B346">
         <f>MOD(A344,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="C346">
         <f>QUOTIENT(A344,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="D346">
         <v>0</v>
@@ -10558,11 +10610,11 @@
       </c>
       <c r="G346">
         <f t="shared" si="22"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
       <c r="H346">
         <f t="shared" si="23"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10572,11 +10624,11 @@
       </c>
       <c r="B347">
         <f>MOD(A344,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>23.900302114803626</v>
+        <v>31.867069486404834</v>
       </c>
       <c r="C347">
         <f>QUOTIENT(A344,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="D347">
         <v>0</v>
@@ -10591,7 +10643,7 @@
       </c>
       <c r="H347">
         <f t="shared" si="23"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10601,11 +10653,11 @@
       </c>
       <c r="B348">
         <f>MOD(A344,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>29.90030211480363</v>
+        <v>39.86706948640483</v>
       </c>
       <c r="C348">
         <f>QUOTIENT(A344,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="D348">
         <v>0</v>
@@ -10616,11 +10668,11 @@
       </c>
       <c r="G348">
         <f t="shared" si="22"/>
-        <v>3299</v>
+        <v>3298.9999999999995</v>
       </c>
       <c r="H348">
         <f t="shared" si="23"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10630,11 +10682,11 @@
       </c>
       <c r="B349">
         <f>MOD(A349,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>34.164652567975835</v>
+        <v>46.114803625377647</v>
       </c>
       <c r="C349">
         <f>QUOTIENT(A349,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>57.222054380664659</v>
+        <v>76.858006042296068</v>
       </c>
       <c r="D349">
         <v>0</v>
@@ -10645,11 +10697,11 @@
       </c>
       <c r="G349">
         <f t="shared" si="22"/>
-        <v>3769.5</v>
+        <v>3816.0000000000005</v>
       </c>
       <c r="H349">
         <f t="shared" si="23"/>
-        <v>6313.5</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10659,11 +10711,11 @@
       </c>
       <c r="B350">
         <f>MOD(A349,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="C350">
         <f>QUOTIENT(A349,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="D350">
         <v>0</v>
@@ -10674,11 +10726,11 @@
       </c>
       <c r="G350">
         <f t="shared" si="22"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
       <c r="H350">
         <f t="shared" si="23"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10688,11 +10740,11 @@
       </c>
       <c r="B351">
         <f>MOD(A349,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="C351">
         <f>QUOTIENT(A349,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="D351">
         <v>0</v>
@@ -10707,7 +10759,7 @@
       </c>
       <c r="H351">
         <f t="shared" si="23"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10717,11 +10769,11 @@
       </c>
       <c r="B352">
         <f>MOD(A349,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>31.586102719033235</v>
+        <v>42.114803625377647</v>
       </c>
       <c r="C352">
         <f>QUOTIENT(A349,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="D352">
         <v>0</v>
@@ -10732,11 +10784,11 @@
       </c>
       <c r="G352">
         <f t="shared" si="22"/>
-        <v>3485</v>
+        <v>3485.0000000000005</v>
       </c>
       <c r="H352">
         <f t="shared" si="23"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10746,11 +10798,11 @@
       </c>
       <c r="B353">
         <f>MOD(A349,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>37.586102719033235</v>
+        <v>50.114803625377647</v>
       </c>
       <c r="C353">
         <f>QUOTIENT(A349,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="D353">
         <v>0</v>
@@ -10765,7 +10817,7 @@
       </c>
       <c r="H353">
         <f t="shared" si="23"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10775,11 +10827,11 @@
       </c>
       <c r="B354">
         <f>MOD(A354,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>41.850453172205441</v>
+        <v>56.362537764350449</v>
       </c>
       <c r="C354">
         <f>QUOTIENT(A354,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>57.222054380664659</v>
+        <v>76.858006042296068</v>
       </c>
       <c r="D354">
         <v>0</v>
@@ -10790,11 +10842,11 @@
       </c>
       <c r="G354">
         <f t="shared" si="22"/>
-        <v>4617.5</v>
+        <v>4664</v>
       </c>
       <c r="H354">
         <f t="shared" si="23"/>
-        <v>6313.5</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10804,11 +10856,11 @@
       </c>
       <c r="B355">
         <f>MOD(A354,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="C355">
         <f>QUOTIENT(A354,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="D355">
         <v>0</v>
@@ -10823,7 +10875,7 @@
       </c>
       <c r="H355">
         <f t="shared" si="23"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10833,11 +10885,11 @@
       </c>
       <c r="B356">
         <f>MOD(A354,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="C356">
         <f>QUOTIENT(A354,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="D356">
         <v>0</v>
@@ -10852,7 +10904,7 @@
       </c>
       <c r="H356">
         <f t="shared" si="23"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10862,11 +10914,11 @@
       </c>
       <c r="B357">
         <f>MOD(A354,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>39.271903323262848</v>
+        <v>52.362537764350449</v>
       </c>
       <c r="C357">
         <f>QUOTIENT(A354,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="D357">
         <v>0</v>
@@ -10881,7 +10933,7 @@
       </c>
       <c r="H357">
         <f t="shared" si="23"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10891,11 +10943,11 @@
       </c>
       <c r="B358">
         <f>MOD(A354,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>45.271903323262848</v>
+        <v>60.362537764350449</v>
       </c>
       <c r="C358">
         <f>QUOTIENT(A354,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="D358">
         <v>0</v>
@@ -10910,7 +10962,7 @@
       </c>
       <c r="H358">
         <f t="shared" si="23"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10920,11 +10972,11 @@
       </c>
       <c r="B359">
         <f>MOD(A359,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>49.536253776435046</v>
+        <v>66.610271903323266</v>
       </c>
       <c r="C359">
         <f>QUOTIENT(A359,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>57.222054380664659</v>
+        <v>76.858006042296068</v>
       </c>
       <c r="D359">
         <v>0</v>
@@ -10935,11 +10987,11 @@
       </c>
       <c r="G359">
         <f t="shared" si="22"/>
-        <v>5465.5</v>
+        <v>5512</v>
       </c>
       <c r="H359">
         <f t="shared" si="23"/>
-        <v>6313.5</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10949,11 +11001,11 @@
       </c>
       <c r="B360">
         <f>MOD(A359,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="C360">
         <f>QUOTIENT(A359,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="D360">
         <v>0</v>
@@ -10968,7 +11020,7 @@
       </c>
       <c r="H360">
         <f t="shared" si="23"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10978,11 +11030,11 @@
       </c>
       <c r="B361">
         <f>MOD(A359,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="C361">
         <f>QUOTIENT(A359,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="D361">
         <v>0</v>
@@ -10997,7 +11049,7 @@
       </c>
       <c r="H361">
         <f t="shared" si="23"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11007,11 +11059,11 @@
       </c>
       <c r="B362">
         <f>MOD(A359,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>46.957703927492453</v>
+        <v>62.610271903323266</v>
       </c>
       <c r="C362">
         <f>QUOTIENT(A359,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="D362">
         <v>0</v>
@@ -11026,7 +11078,7 @@
       </c>
       <c r="H362">
         <f t="shared" si="23"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11036,11 +11088,11 @@
       </c>
       <c r="B363">
         <f>MOD(A359,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>52.957703927492453</v>
+        <v>70.610271903323266</v>
       </c>
       <c r="C363">
         <f>QUOTIENT(A359,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="D363">
         <v>0</v>
@@ -11055,7 +11107,7 @@
       </c>
       <c r="H363">
         <f t="shared" si="23"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11065,11 +11117,11 @@
       </c>
       <c r="B364">
         <f>MOD(A364,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>57.222054380664659</v>
+        <v>76.858006042296068</v>
       </c>
       <c r="C364">
         <f>QUOTIENT(A364,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>57.222054380664659</v>
+        <v>76.858006042296068</v>
       </c>
       <c r="D364">
         <v>0</v>
@@ -11080,11 +11132,11 @@
       </c>
       <c r="G364">
         <f t="shared" si="22"/>
-        <v>6313.5</v>
+        <v>6360</v>
       </c>
       <c r="H364">
         <f t="shared" si="23"/>
-        <v>6313.5</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11094,11 +11146,11 @@
       </c>
       <c r="B365">
         <f>MOD(A364,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="C365">
         <f>QUOTIENT(A364,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="D365">
         <v>0</v>
@@ -11109,11 +11161,11 @@
       </c>
       <c r="G365">
         <f t="shared" si="22"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
       <c r="H365">
         <f t="shared" si="23"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11123,11 +11175,11 @@
       </c>
       <c r="B366">
         <f>MOD(A364,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="C366">
         <f>QUOTIENT(A364,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="D366">
         <v>0</v>
@@ -11138,11 +11190,11 @@
       </c>
       <c r="G366">
         <f t="shared" si="22"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
       <c r="H366">
         <f t="shared" si="23"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11152,11 +11204,11 @@
       </c>
       <c r="B367">
         <f>MOD(A364,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="C367">
         <f>QUOTIENT(A364,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="D367">
         <v>0</v>
@@ -11167,11 +11219,11 @@
       </c>
       <c r="G367">
         <f t="shared" si="22"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
       <c r="H367">
         <f t="shared" si="23"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11181,11 +11233,11 @@
       </c>
       <c r="B368">
         <f>MOD(A364,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="C368">
         <f>QUOTIENT(A364,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="D368">
         <v>0</v>
@@ -11196,11 +11248,11 @@
       </c>
       <c r="G368">
         <f t="shared" si="22"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
       <c r="H368">
         <f t="shared" si="23"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11210,11 +11262,11 @@
       </c>
       <c r="B369">
         <f>MOD(A369,$B$12)*($B$2*$B$6)+$B$11</f>
-        <v>64.907854984894271</v>
+        <v>87.105740181268885</v>
       </c>
       <c r="C369">
         <f>QUOTIENT(A369,$B$12)*($B$2*$B$6)+$C$11</f>
-        <v>57.222054380664659</v>
+        <v>76.858006042296068</v>
       </c>
       <c r="D369">
         <v>0</v>
@@ -11225,11 +11277,11 @@
       </c>
       <c r="G369">
         <f t="shared" si="22"/>
-        <v>7161.5000000000009</v>
+        <v>7208</v>
       </c>
       <c r="H369">
         <f t="shared" si="23"/>
-        <v>6313.5</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11239,11 +11291,11 @@
       </c>
       <c r="B370">
         <f>MOD(A369,$B$12)*($B$2*$B$6)+$B$7</f>
-        <v>62.329305135951671</v>
+        <v>83.105740181268885</v>
       </c>
       <c r="C370">
         <f>QUOTIENT(A369,$B$12)*($B$2*$B$6)+$C$7</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="D370">
         <v>0</v>
@@ -11258,7 +11310,7 @@
       </c>
       <c r="H370">
         <f t="shared" si="23"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11268,11 +11320,11 @@
       </c>
       <c r="B371">
         <f>MOD(A369,$B$12)*($B$2*$B$6)+$B$8</f>
-        <v>68.329305135951671</v>
+        <v>91.105740181268885</v>
       </c>
       <c r="C371">
         <f>QUOTIENT(A369,$B$12)*($B$2*$B$6)+$C$8</f>
-        <v>54.643504531722066</v>
+        <v>72.858006042296068</v>
       </c>
       <c r="D371">
         <v>0</v>
@@ -11287,7 +11339,7 @@
       </c>
       <c r="H371">
         <f t="shared" si="23"/>
-        <v>6029.0000000000009</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11297,11 +11349,11 @@
       </c>
       <c r="B372">
         <f>MOD(A369,$B$12)*($B$2*$B$6)+$B$9</f>
-        <v>62.329305135951671</v>
+        <v>83.105740181268885</v>
       </c>
       <c r="C372">
         <f>QUOTIENT(A369,$B$12)*($B$2*$B$6)+$C$9</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="D372">
         <v>0</v>
@@ -11316,7 +11368,7 @@
       </c>
       <c r="H372">
         <f t="shared" si="23"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11326,11 +11378,11 @@
       </c>
       <c r="B373">
         <f>MOD(A369,$B$12)*($B$2*$B$6)+$B$10</f>
-        <v>68.329305135951671</v>
+        <v>91.105740181268885</v>
       </c>
       <c r="C373">
         <f>QUOTIENT(A369,$B$12)*($B$2*$B$6)+$C$10</f>
-        <v>60.643504531722066</v>
+        <v>80.858006042296068</v>
       </c>
       <c r="D373">
         <v>0</v>
@@ -11345,7 +11397,7 @@
       </c>
       <c r="H373">
         <f t="shared" si="23"/>
-        <v>6691.0000000000009</v>
+        <v>6691</v>
       </c>
     </row>
   </sheetData>
